--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J105" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J107" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -5624,10 +5624,10 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="10">
-        <v>45250.0</v>
+        <v>45219.0</v>
       </c>
       <c r="B105" s="10">
-        <v>45252.0</v>
+        <v>45221.0</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -5673,17 +5673,40 @@
       <c r="Y105" s="4"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="11"/>
+      <c r="A106" s="10">
+        <v>45250.0</v>
+      </c>
+      <c r="B106" s="10">
+        <v>45254.0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I106" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K106" s="11">
+        <v>13.0</v>
+      </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -5700,17 +5723,40 @@
       <c r="Y106" s="4"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="11"/>
+      <c r="A107" s="10">
+        <v>45261.0</v>
+      </c>
+      <c r="B107" s="10">
+        <v>45262.0</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F107" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="G107" s="2">
+        <v>17.6</v>
+      </c>
+      <c r="H107" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="I107" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="K107" s="11">
+        <v>3.8</v>
+      </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J107" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J109" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -5773,17 +5773,40 @@
       <c r="Y107" s="4"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="11"/>
+      <c r="A108" s="10">
+        <v>45261.0</v>
+      </c>
+      <c r="B108" s="10">
+        <v>45263.0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2">
+        <v>35.2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="G108" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I108" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="11">
+        <v>2.3</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -5800,17 +5823,40 @@
       <c r="Y108" s="4"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="11"/>
+      <c r="A109" s="10">
+        <v>45265.0</v>
+      </c>
+      <c r="B109" s="10">
+        <v>45266.0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="F109" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G109" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H109" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="K109" s="11">
+        <v>9.6</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J109" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J110" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -5873,17 +5873,40 @@
       <c r="Y109" s="4"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="11"/>
+      <c r="A110" s="10">
+        <v>45262.0</v>
+      </c>
+      <c r="B110" s="10">
+        <v>45268.0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K110" s="11">
+        <v>12.0</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J110" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J111" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -5923,17 +5923,40 @@
       <c r="Y110" s="4"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="11"/>
+      <c r="A111" s="10">
+        <v>45261.0</v>
+      </c>
+      <c r="B111" s="10">
+        <v>45268.0</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K111" s="11">
+        <v>8.0</v>
+      </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J107" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J113" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -5773,17 +5773,40 @@
       <c r="Y107" s="4"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="11"/>
+      <c r="A108" s="10">
+        <v>45261.0</v>
+      </c>
+      <c r="B108" s="10">
+        <v>45263.0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2">
+        <v>35.2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="G108" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I108" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="11">
+        <v>2.3</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -5800,17 +5823,40 @@
       <c r="Y108" s="4"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="11"/>
+      <c r="A109" s="10">
+        <v>45265.0</v>
+      </c>
+      <c r="B109" s="10">
+        <v>45266.0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="F109" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G109" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H109" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="K109" s="11">
+        <v>9.6</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -5827,17 +5873,40 @@
       <c r="Y109" s="4"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="11"/>
+      <c r="A110" s="10">
+        <v>45262.0</v>
+      </c>
+      <c r="B110" s="10">
+        <v>45268.0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K110" s="11">
+        <v>12.0</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -5854,17 +5923,40 @@
       <c r="Y110" s="4"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="11"/>
+      <c r="A111" s="10">
+        <v>45261.0</v>
+      </c>
+      <c r="B111" s="10">
+        <v>45268.0</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K111" s="11">
+        <v>8.0</v>
+      </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -5881,17 +5973,40 @@
       <c r="Y111" s="4"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="11"/>
+      <c r="A112" s="10">
+        <v>45275.0</v>
+      </c>
+      <c r="B112" s="10">
+        <v>45277.0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="G112" s="2">
+        <v>19.1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="I112" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K112" s="11">
+        <v>2.3</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -5908,17 +6023,40 @@
       <c r="Y112" s="4"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="11"/>
+      <c r="A113" s="10">
+        <v>45277.0</v>
+      </c>
+      <c r="B113" s="10">
+        <v>45277.0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="2">
+        <v>33.15</v>
+      </c>
+      <c r="F113" s="2">
+        <v>31.28</v>
+      </c>
+      <c r="G113" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="H113" s="2">
+        <v>8.37</v>
+      </c>
+      <c r="I113" s="2">
+        <v>6.73</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="2"/>
+        <v>3.52</v>
+      </c>
+      <c r="K113" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J111" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J113" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -5973,17 +5973,40 @@
       <c r="Y111" s="4"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="11"/>
+      <c r="A112" s="10">
+        <v>45275.0</v>
+      </c>
+      <c r="B112" s="10">
+        <v>45277.0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="G112" s="2">
+        <v>19.1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="I112" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K112" s="11">
+        <v>2.3</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -6000,17 +6023,40 @@
       <c r="Y112" s="4"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="11"/>
+      <c r="A113" s="10">
+        <v>45277.0</v>
+      </c>
+      <c r="B113" s="10">
+        <v>45277.0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="2">
+        <v>33.15</v>
+      </c>
+      <c r="F113" s="2">
+        <v>31.28</v>
+      </c>
+      <c r="G113" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="H113" s="2">
+        <v>8.37</v>
+      </c>
+      <c r="I113" s="2">
+        <v>6.73</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="2"/>
+        <v>3.52</v>
+      </c>
+      <c r="K113" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J113" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J115" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6073,17 +6073,40 @@
       <c r="Y113" s="4"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="11"/>
+      <c r="A114" s="10">
+        <v>45296.0</v>
+      </c>
+      <c r="B114" s="10">
+        <v>45299.0</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="2">
+        <v>34.2</v>
+      </c>
+      <c r="F114" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="I114" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="K114" s="11">
+        <v>5.0</v>
+      </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -6100,17 +6123,40 @@
       <c r="Y114" s="4"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="11"/>
+      <c r="A115" s="10">
+        <v>45299.0</v>
+      </c>
+      <c r="B115" s="10">
+        <v>45300.0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="G115" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H115" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I115" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="K115" s="11">
+        <v>8.9</v>
+      </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J115" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J118" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6173,17 +6173,40 @@
       <c r="Y115" s="4"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="11"/>
+      <c r="A116" s="10">
+        <v>45299.0</v>
+      </c>
+      <c r="B116" s="10">
+        <v>45303.0</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K116" s="11">
+        <v>12.0</v>
+      </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -6200,17 +6223,40 @@
       <c r="Y116" s="4"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="11"/>
+      <c r="A117" s="10">
+        <v>45303.0</v>
+      </c>
+      <c r="B117" s="10">
+        <v>45304.0</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="F117" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>16.9</v>
+      </c>
+      <c r="H117" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K117" s="11">
+        <v>2.9</v>
+      </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -6227,17 +6273,40 @@
       <c r="Y117" s="4"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="11"/>
+      <c r="A118" s="10">
+        <v>45303.0</v>
+      </c>
+      <c r="B118" s="10">
+        <v>45305.0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="F118" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="G118" s="2">
+        <v>16.9</v>
+      </c>
+      <c r="H118" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I118" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="K118" s="11">
+        <v>8.5</v>
+      </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J118" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J119" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6323,17 +6323,40 @@
       <c r="Y118" s="4"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="11"/>
+      <c r="A119" s="10">
+        <v>45304.0</v>
+      </c>
+      <c r="B119" s="10">
+        <v>45305.0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="2">
+        <v>32.78</v>
+      </c>
+      <c r="F119" s="2">
+        <v>31.69</v>
+      </c>
+      <c r="G119" s="2">
+        <v>16.79</v>
+      </c>
+      <c r="H119" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I119" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="J119" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K119" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J119" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J120" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6373,17 +6373,40 @@
       <c r="Y119" s="4"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="11"/>
+      <c r="A120" s="10">
+        <v>45310.0</v>
+      </c>
+      <c r="B120" s="10">
+        <v>45313.0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="F120" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H120" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="I120" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J120" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="K120" s="11">
+        <v>6.0</v>
+      </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J120" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J121" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6183,7 +6183,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E116" s="2">
         <v>29.0</v>
@@ -6423,17 +6423,40 @@
       <c r="Y120" s="4"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="11"/>
+      <c r="A121" s="10">
+        <v>45313.0</v>
+      </c>
+      <c r="B121" s="10">
+        <v>45317.0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J121" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K121" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J121" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J122" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6473,17 +6473,40 @@
       <c r="Y121" s="4"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="11"/>
+      <c r="A122" s="10">
+        <v>45317.0</v>
+      </c>
+      <c r="B122" s="10">
+        <v>45319.0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="F122" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="G122" s="2">
+        <v>18.9</v>
+      </c>
+      <c r="H122" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="I122" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="J122" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="11">
+        <v>6.4</v>
+      </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J122" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J123" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6523,17 +6523,40 @@
       <c r="Y122" s="4"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="11"/>
+      <c r="A123" s="10">
+        <v>45328.0</v>
+      </c>
+      <c r="B123" s="10">
+        <v>45329.0</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F123" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G123" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="H123" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="I123" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="J123" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="K123" s="11">
+        <v>5.7</v>
+      </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J123" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J125" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6573,17 +6573,40 @@
       <c r="Y123" s="4"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="11"/>
+      <c r="A124" s="10">
+        <v>45332.0</v>
+      </c>
+      <c r="B124" s="10">
+        <v>45333.0</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F124" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="G124" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H124" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="I124" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J124" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="11">
+        <v>5.8</v>
+      </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -6600,17 +6623,40 @@
       <c r="Y124" s="4"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="11"/>
+      <c r="A125" s="10">
+        <v>45333.0</v>
+      </c>
+      <c r="B125" s="10">
+        <v>45333.0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="2">
+        <v>30.31</v>
+      </c>
+      <c r="F125" s="2">
+        <v>32.32</v>
+      </c>
+      <c r="G125" s="2">
+        <v>14.78</v>
+      </c>
+      <c r="H125" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="I125" s="2">
+        <v>8.77</v>
+      </c>
+      <c r="J125" s="3">
+        <f t="shared" si="2"/>
+        <v>4.81</v>
+      </c>
+      <c r="K125" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J125" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J129" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6673,17 +6673,40 @@
       <c r="Y125" s="4"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="11"/>
+      <c r="A126" s="10">
+        <v>45331.0</v>
+      </c>
+      <c r="B126" s="10">
+        <v>45334.0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="G126" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="H126" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="I126" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="J126" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="K126" s="11">
+        <v>7.7</v>
+      </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -6700,17 +6723,40 @@
       <c r="Y126" s="4"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="11"/>
+      <c r="A127" s="10">
+        <v>45334.0</v>
+      </c>
+      <c r="B127" s="10">
+        <v>45337.0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F127" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J127" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K127" s="11">
+        <v>15.0</v>
+      </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
@@ -6727,17 +6773,40 @@
       <c r="Y127" s="4"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="11"/>
+      <c r="A128" s="10">
+        <v>45337.0</v>
+      </c>
+      <c r="B128" s="10">
+        <v>45338.0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="2">
+        <v>30.85</v>
+      </c>
+      <c r="F128" s="2">
+        <v>31.17</v>
+      </c>
+      <c r="G128" s="2">
+        <v>17.07</v>
+      </c>
+      <c r="H128" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I128" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="J128" s="3">
+        <f t="shared" si="2"/>
+        <v>4.65</v>
+      </c>
+      <c r="K128" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
@@ -6754,17 +6823,40 @@
       <c r="Y128" s="4"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="A129" s="10">
+        <v>45334.0</v>
+      </c>
+      <c r="B129" s="10">
+        <v>45337.0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="2">
+        <v>32.98</v>
+      </c>
+      <c r="F129" s="2">
+        <v>34.2</v>
+      </c>
+      <c r="G129" s="2">
+        <v>15.25</v>
+      </c>
+      <c r="H129" s="2">
+        <v>4.89</v>
+      </c>
+      <c r="I129" s="2">
+        <v>9.36</v>
+      </c>
+      <c r="J129" s="3">
+        <f t="shared" si="2"/>
+        <v>3.32</v>
+      </c>
+      <c r="K129" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J129" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J130" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6873,17 +6873,40 @@
       <c r="Y129" s="4"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="A130" s="10">
+        <v>45341.0</v>
+      </c>
+      <c r="B130" s="10">
+        <v>45344.0</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="F130" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K130" s="11">
+        <v>14.0</v>
+      </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J130" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J133" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -6923,17 +6923,40 @@
       <c r="Y130" s="4"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
+      <c r="A131" s="10">
+        <v>45345.0</v>
+      </c>
+      <c r="B131" s="10">
+        <v>45346.0</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="G131" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="H131" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="I131" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="J131" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="11">
+        <v>6.3</v>
+      </c>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -6950,17 +6973,40 @@
       <c r="Y131" s="4"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
+      <c r="A132" s="10">
+        <v>45345.0</v>
+      </c>
+      <c r="B132" s="10">
+        <v>45347.0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="F132" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="G132" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="H132" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I132" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="J132" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="K132" s="11">
+        <v>5.3</v>
+      </c>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
@@ -6977,17 +7023,40 @@
       <c r="Y132" s="4"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="A133" s="10">
+        <v>45344.0</v>
+      </c>
+      <c r="B133" s="10">
+        <v>45348.0</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F133" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J133" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K133" s="11">
+        <v>4.0</v>
+      </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J133" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J135" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7073,17 +7073,40 @@
       <c r="Y133" s="4"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="A134" s="10">
+        <v>45355.0</v>
+      </c>
+      <c r="B134" s="10">
+        <v>45358.0</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="F134" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J134" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K134" s="11">
+        <v>13.0</v>
+      </c>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -7100,17 +7123,40 @@
       <c r="Y134" s="4"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="A135" s="10">
+        <v>45357.0</v>
+      </c>
+      <c r="B135" s="10">
+        <v>45358.0</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="F135" s="2">
+        <v>32.8</v>
+      </c>
+      <c r="G135" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="H135" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="I135" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="J135" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="K135" s="11">
+        <v>4.7</v>
+      </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J135" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J136" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7173,17 +7173,40 @@
       <c r="Y135" s="4"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
+      <c r="A136" s="10">
+        <v>45362.0</v>
+      </c>
+      <c r="B136" s="10">
+        <v>45362.0</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="F136" s="2">
+        <v>32.86</v>
+      </c>
+      <c r="G136" s="2">
+        <v>16.06</v>
+      </c>
+      <c r="H136" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="I136" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="J136" s="3">
+        <f t="shared" si="2"/>
+        <v>4.38</v>
+      </c>
+      <c r="K136" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J136" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J137" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7223,17 +7223,40 @@
       <c r="Y136" s="4"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
+      <c r="A137" s="10">
+        <v>45359.0</v>
+      </c>
+      <c r="B137" s="10">
+        <v>45362.0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="G137" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I137" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J137" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="K137" s="11">
+        <v>12.8</v>
+      </c>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J137" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J138" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7273,17 +7273,40 @@
       <c r="Y137" s="4"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
+      <c r="A138" s="10">
+        <v>45367.0</v>
+      </c>
+      <c r="B138" s="10">
+        <v>45368.0</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="2">
+        <v>32.02</v>
+      </c>
+      <c r="F138" s="2">
+        <v>30.81</v>
+      </c>
+      <c r="G138" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="H138" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="I138" s="2">
+        <v>9.88</v>
+      </c>
+      <c r="J138" s="3">
+        <f t="shared" si="2"/>
+        <v>4.53</v>
+      </c>
+      <c r="K138" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J138" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J139" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7323,17 +7323,40 @@
       <c r="Y138" s="4"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="A139" s="10">
+        <v>45369.0</v>
+      </c>
+      <c r="B139" s="10">
+        <v>45373.0</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F139" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I139" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J139" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="11">
+        <v>17.0</v>
+      </c>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J139" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J140" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7373,17 +7373,40 @@
       <c r="Y139" s="4"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
+      <c r="A140" s="10">
+        <v>45373.0</v>
+      </c>
+      <c r="B140" s="10">
+        <v>45374.0</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F140" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="G140" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H140" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I140" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="J140" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="11">
+        <v>9.3</v>
+      </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J140" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J143" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7423,17 +7423,40 @@
       <c r="Y140" s="4"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
+      <c r="A141" s="10">
+        <v>45376.0</v>
+      </c>
+      <c r="B141" s="10">
+        <v>45377.0</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F141" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I141" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="J141" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="K141" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -7450,17 +7473,40 @@
       <c r="Y141" s="4"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
+      <c r="A142" s="10">
+        <v>45384.0</v>
+      </c>
+      <c r="B142" s="10">
+        <v>45384.0</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="F142" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="G142" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="H142" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="I142" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="J142" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="K142" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
@@ -7477,17 +7523,40 @@
       <c r="Y142" s="4"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
+      <c r="A143" s="10">
+        <v>45386.0</v>
+      </c>
+      <c r="B143" s="10">
+        <v>45386.0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="G143" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="H143" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I143" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="J143" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="K143" s="11">
+        <v>8.9</v>
+      </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J143" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J145" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7573,17 +7573,40 @@
       <c r="Y143" s="4"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
+      <c r="A144" s="10">
+        <v>45390.0</v>
+      </c>
+      <c r="B144" s="10">
+        <v>45391.0</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="F144" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="G144" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="H144" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="I144" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J144" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="K144" s="11">
+        <v>5.8</v>
+      </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
@@ -7600,17 +7623,40 @@
       <c r="Y144" s="4"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="A145" s="10">
+        <v>45390.0</v>
+      </c>
+      <c r="B145" s="10">
+        <v>45393.0</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="G145" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I145" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J145" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K145" s="11">
+        <v>11.0</v>
+      </c>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J145" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J149" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7673,17 +7673,40 @@
       <c r="Y145" s="4"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="A146" s="10">
+        <v>45400.0</v>
+      </c>
+      <c r="B146" s="10">
+        <v>45401.0</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="2">
+        <v>32.77</v>
+      </c>
+      <c r="F146" s="2">
+        <v>32.31</v>
+      </c>
+      <c r="G146" s="2">
+        <v>11.17</v>
+      </c>
+      <c r="H146" s="2">
+        <v>9.23</v>
+      </c>
+      <c r="I146" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="J146" s="3">
+        <f t="shared" si="2"/>
+        <v>4.88</v>
+      </c>
+      <c r="K146" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
@@ -7700,17 +7723,40 @@
       <c r="Y146" s="4"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
+      <c r="A147" s="10">
+        <v>45401.0</v>
+      </c>
+      <c r="B147" s="10">
+        <v>45402.0</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="F147" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="G147" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H147" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="I147" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="J147" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K147" s="11">
+        <v>5.7</v>
+      </c>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
@@ -7727,17 +7773,40 @@
       <c r="Y147" s="4"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="A148" s="10">
+        <v>45401.0</v>
+      </c>
+      <c r="B148" s="10">
+        <v>45403.0</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="F148" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="G148" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="H148" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="I148" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="J148" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="11">
+        <v>7.0</v>
+      </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
@@ -7754,17 +7823,40 @@
       <c r="Y148" s="4"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+      <c r="A149" s="10">
+        <v>45404.0</v>
+      </c>
+      <c r="B149" s="10">
+        <v>45408.0</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="F149" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J149" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K149" s="11">
+        <v>12.0</v>
+      </c>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J149" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J151" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7873,17 +7873,40 @@
       <c r="Y149" s="4"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
+      <c r="A150" s="10">
+        <v>45422.0</v>
+      </c>
+      <c r="B150" s="10">
+        <v>45424.0</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="F150" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="H150" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="J150" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K150" s="11">
+        <v>4.2</v>
+      </c>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
@@ -7900,17 +7923,40 @@
       <c r="Y150" s="4"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="A151" s="10">
+        <v>45422.0</v>
+      </c>
+      <c r="B151" s="10">
+        <v>45425.0</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F151" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="G151" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="H151" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="J151" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K151" s="11">
+        <v>7.2</v>
+      </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J151" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J153" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -7973,17 +7973,40 @@
       <c r="Y151" s="4"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+      <c r="A152" s="10">
+        <v>45425.0</v>
+      </c>
+      <c r="B152" s="10">
+        <v>45426.0</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="G152" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="H152" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I152" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="J152" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="K152" s="11">
+        <v>3.3</v>
+      </c>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
@@ -8000,17 +8023,40 @@
       <c r="Y152" s="4"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="A153" s="10">
+        <v>45431.0</v>
+      </c>
+      <c r="B153" s="10">
+        <v>45431.0</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="2">
+        <v>32.49</v>
+      </c>
+      <c r="F153" s="2">
+        <v>32.15</v>
+      </c>
+      <c r="G153" s="2">
+        <v>10.87</v>
+      </c>
+      <c r="H153" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="I153" s="2">
+        <v>9.46</v>
+      </c>
+      <c r="J153" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="K153" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J153" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J156" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -8073,17 +8073,40 @@
       <c r="Y153" s="4"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+      <c r="A154" s="10">
+        <v>45432.0</v>
+      </c>
+      <c r="B154" s="10">
+        <v>45435.0</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F154" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G154" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I154" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J154" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K154" s="11">
+        <v>13.0</v>
+      </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -8100,17 +8123,40 @@
       <c r="Y154" s="4"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+      <c r="A155" s="10">
+        <v>45435.0</v>
+      </c>
+      <c r="B155" s="10">
+        <v>45436.0</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="F155" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="G155" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="H155" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="I155" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J155" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="11">
+        <v>9.3</v>
+      </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -8127,17 +8173,40 @@
       <c r="Y155" s="4"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
+      <c r="A156" s="10">
+        <v>45439.0</v>
+      </c>
+      <c r="B156" s="10">
+        <v>45440.0</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="F156" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="G156" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="I156" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="J156" s="3">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="K156" s="11">
+        <v>4.3</v>
+      </c>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J156" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J161" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -8223,17 +8223,40 @@
       <c r="Y156" s="4"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="A157" s="10">
+        <v>45446.0</v>
+      </c>
+      <c r="B157" s="10">
+        <v>45446.0</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="F157" s="2">
+        <v>33.1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="H157" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I157" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J157" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K157" s="11">
+        <v>6.6</v>
+      </c>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -8250,17 +8273,40 @@
       <c r="Y157" s="4"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
+      <c r="A158" s="10">
+        <v>45461.0</v>
+      </c>
+      <c r="B158" s="10">
+        <v>45462.0</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="F158" s="2">
+        <v>33.2</v>
+      </c>
+      <c r="G158" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="H158" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="I158" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="J158" s="3">
+        <f t="shared" si="2"/>
+        <v>4.6</v>
+      </c>
+      <c r="K158" s="11">
+        <v>6.2</v>
+      </c>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
@@ -8277,17 +8323,40 @@
       <c r="Y158" s="4"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
+      <c r="A159" s="10">
+        <v>45461.0</v>
+      </c>
+      <c r="B159" s="10">
+        <v>45462.0</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="G159" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="H159" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="I159" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J159" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K159" s="11">
+        <v>9.2</v>
+      </c>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
@@ -8304,17 +8373,40 @@
       <c r="Y159" s="4"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+      <c r="A160" s="10">
+        <v>45464.0</v>
+      </c>
+      <c r="B160" s="10">
+        <v>45465.0</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="2">
+        <v>32.7</v>
+      </c>
+      <c r="F160" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G160" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="H160" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I160" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="J160" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K160" s="11">
+        <v>6.6</v>
+      </c>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -8331,17 +8423,40 @@
       <c r="Y160" s="4"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="A161" s="10">
+        <v>45464.0</v>
+      </c>
+      <c r="B161" s="10">
+        <v>45466.0</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="2">
+        <v>33.7</v>
+      </c>
+      <c r="F161" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G161" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H161" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I161" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="J161" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K161" s="11">
+        <v>2.5</v>
+      </c>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J161" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J168" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -8473,17 +8473,40 @@
       <c r="Y161" s="4"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
+      <c r="A162" s="10">
+        <v>45467.0</v>
+      </c>
+      <c r="B162" s="10">
+        <v>45470.0</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F162" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G162" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J162" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K162" s="11">
+        <v>6.0</v>
+      </c>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
@@ -8500,17 +8523,40 @@
       <c r="Y162" s="4"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
+      <c r="A163" s="10">
+        <v>45474.0</v>
+      </c>
+      <c r="B163" s="10">
+        <v>45476.0</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="F163" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G163" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H163" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J163" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
@@ -8527,17 +8573,40 @@
       <c r="Y163" s="4"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="A164" s="10">
+        <v>45478.0</v>
+      </c>
+      <c r="B164" s="10">
+        <v>45481.0</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="F164" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G164" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H164" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="I164" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J164" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="11">
+        <v>13.9</v>
+      </c>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
@@ -8554,17 +8623,40 @@
       <c r="Y164" s="4"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
+      <c r="A165" s="10">
+        <v>45481.0</v>
+      </c>
+      <c r="B165" s="10">
+        <v>45482.0</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="2">
+        <v>33.31</v>
+      </c>
+      <c r="F165" s="2">
+        <v>35.06</v>
+      </c>
+      <c r="G165" s="2">
+        <v>9.21</v>
+      </c>
+      <c r="H165" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="J165" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="K165" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
@@ -8581,17 +8673,40 @@
       <c r="Y165" s="4"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
+      <c r="A166" s="10">
+        <v>45481.0</v>
+      </c>
+      <c r="B166" s="10">
+        <v>45484.0</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="F166" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="G166" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="H166" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="J166" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K166" s="11">
+        <v>4.6</v>
+      </c>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
@@ -8608,17 +8723,40 @@
       <c r="Y166" s="4"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
+      <c r="A167" s="10">
+        <v>45481.0</v>
+      </c>
+      <c r="B167" s="10">
+        <v>45484.0</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="F167" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G167" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J167" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
@@ -8635,17 +8773,40 @@
       <c r="Y167" s="4"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
+      <c r="A168" s="10">
+        <v>45492.0</v>
+      </c>
+      <c r="B168" s="10">
+        <v>45495.0</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="F168" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G168" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="H168" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="I168" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J168" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="K168" s="11">
+        <v>7.8</v>
+      </c>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J168" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J170" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -8823,17 +8823,40 @@
       <c r="Y168" s="4"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="A169" s="10">
+        <v>45528.0</v>
+      </c>
+      <c r="B169" s="10">
+        <v>45529.0</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F169" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G169" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H169" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="I169" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="J169" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K169" s="11">
+        <v>7.4</v>
+      </c>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
@@ -8850,17 +8873,40 @@
       <c r="Y169" s="4"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
+      <c r="A170" s="10">
+        <v>45530.0</v>
+      </c>
+      <c r="B170" s="10">
+        <v>45532.0</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="F170" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G170" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="H170" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="I170" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="J170" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="K170" s="11">
+        <v>6.4</v>
+      </c>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -8824,10 +8824,10 @@
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="10">
-        <v>45528.0</v>
+        <v>45497.0</v>
       </c>
       <c r="B169" s="10">
-        <v>45529.0</v>
+        <v>45498.0</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="10">
-        <v>45530.0</v>
+        <v>45499.0</v>
       </c>
       <c r="B170" s="10">
-        <v>45532.0</v>
+        <v>45501.0</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J170" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J172" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -8923,17 +8923,40 @@
       <c r="Y170" s="4"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="A171" s="10">
+        <v>45509.0</v>
+      </c>
+      <c r="B171" s="10">
+        <v>45512.0</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="F171" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="G171" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="H171" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I171" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="J171" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="K171" s="11">
+        <v>4.9</v>
+      </c>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
@@ -8950,17 +8973,40 @@
       <c r="Y171" s="4"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="A172" s="10">
+        <v>45512.0</v>
+      </c>
+      <c r="B172" s="10">
+        <v>45512.0</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="2">
+        <v>31.62</v>
+      </c>
+      <c r="F172" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="G172" s="2">
+        <v>10.06</v>
+      </c>
+      <c r="H172" s="2">
+        <v>9.13</v>
+      </c>
+      <c r="I172" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="J172" s="3">
+        <f t="shared" si="2"/>
+        <v>3.76</v>
+      </c>
+      <c r="K172" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J172" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J175" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -9023,17 +9023,40 @@
       <c r="Y172" s="4"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
+      <c r="A173" s="10">
+        <v>45530.0</v>
+      </c>
+      <c r="B173" s="10">
+        <v>45533.0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="F173" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G173" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I173" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J173" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
@@ -9050,17 +9073,40 @@
       <c r="Y173" s="4"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
+      <c r="A174" s="10">
+        <v>45534.0</v>
+      </c>
+      <c r="B174" s="10">
+        <v>45535.0</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="F174" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="G174" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="I174" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="J174" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="11">
+        <v>7.8</v>
+      </c>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
@@ -9077,17 +9123,40 @@
       <c r="Y174" s="4"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
+      <c r="A175" s="10">
+        <v>45534.0</v>
+      </c>
+      <c r="B175" s="10">
+        <v>45536.0</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F175" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G175" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H175" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="J175" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="K175" s="11">
+        <v>5.4</v>
+      </c>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J175" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J183" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -9173,17 +9173,40 @@
       <c r="Y175" s="4"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
+      <c r="A176" s="10">
+        <v>45538.0</v>
+      </c>
+      <c r="B176" s="10">
+        <v>45540.0</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="F176" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G176" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H176" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="I176" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="J176" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="K176" s="11">
+        <v>5.3</v>
+      </c>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
@@ -9200,17 +9223,40 @@
       <c r="Y176" s="4"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
+      <c r="A177" s="10">
+        <v>45542.0</v>
+      </c>
+      <c r="B177" s="10">
+        <v>45543.0</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="2">
+        <v>31.64</v>
+      </c>
+      <c r="F177" s="2">
+        <v>32.24</v>
+      </c>
+      <c r="G177" s="2">
+        <v>8.82</v>
+      </c>
+      <c r="H177" s="2">
+        <v>10.21</v>
+      </c>
+      <c r="I177" s="2">
+        <v>12.61</v>
+      </c>
+      <c r="J177" s="3">
+        <f t="shared" si="2"/>
+        <v>4.48</v>
+      </c>
+      <c r="K177" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
@@ -9227,17 +9273,40 @@
       <c r="Y177" s="4"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="A178" s="10">
+        <v>45544.0</v>
+      </c>
+      <c r="B178" s="10">
+        <v>45545.0</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="F178" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="G178" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H178" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="I178" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="J178" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="11">
+        <v>6.5</v>
+      </c>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
@@ -9254,17 +9323,40 @@
       <c r="Y178" s="4"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="A179" s="10">
+        <v>45544.0</v>
+      </c>
+      <c r="B179" s="10">
+        <v>45547.0</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F179" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G179" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I179" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J179" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K179" s="11">
+        <v>10.0</v>
+      </c>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
@@ -9281,17 +9373,40 @@
       <c r="Y179" s="4"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
+      <c r="A180" s="10">
+        <v>45548.0</v>
+      </c>
+      <c r="B180" s="10">
+        <v>45551.0</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G180" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H180" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="I180" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="J180" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="K180" s="11">
+        <v>8.8</v>
+      </c>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
@@ -9308,17 +9423,40 @@
       <c r="Y180" s="4"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
+      <c r="A181" s="10">
+        <v>45555.0</v>
+      </c>
+      <c r="B181" s="10">
+        <v>45556.0</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F181" s="2">
+        <v>34.2</v>
+      </c>
+      <c r="G181" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H181" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="I181" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="J181" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K181" s="11">
+        <v>7.2</v>
+      </c>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
@@ -9335,17 +9473,40 @@
       <c r="Y181" s="4"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
+      <c r="A182" s="10">
+        <v>45562.0</v>
+      </c>
+      <c r="B182" s="10">
+        <v>45564.0</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F182" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G182" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H182" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="I182" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="J182" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="K182" s="11">
+        <v>5.5</v>
+      </c>
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
@@ -9362,17 +9523,40 @@
       <c r="Y182" s="4"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="A183" s="10">
+        <v>45564.0</v>
+      </c>
+      <c r="B183" s="10">
+        <v>45565.0</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="F183" s="2">
+        <v>33.99</v>
+      </c>
+      <c r="G183" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="H183" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="I183" s="2">
+        <v>12.44</v>
+      </c>
+      <c r="J183" s="3">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="K183" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J183" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J200" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -9573,17 +9573,40 @@
       <c r="Y183" s="4"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
+      <c r="A184" s="10">
+        <v>45570.0</v>
+      </c>
+      <c r="B184" s="10">
+        <v>45571.0</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="F184" s="2">
+        <v>31.94</v>
+      </c>
+      <c r="G184" s="2">
+        <v>10.69</v>
+      </c>
+      <c r="H184" s="2">
+        <v>8.72</v>
+      </c>
+      <c r="I184" s="2">
+        <v>13.69</v>
+      </c>
+      <c r="J184" s="3">
+        <f t="shared" si="2"/>
+        <v>3.56</v>
+      </c>
+      <c r="K184" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
@@ -9600,17 +9623,40 @@
       <c r="Y184" s="4"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
+      <c r="A185" s="10">
+        <v>45572.0</v>
+      </c>
+      <c r="B185" s="10">
+        <v>45574.0</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F185" s="2">
+        <v>35.3</v>
+      </c>
+      <c r="G185" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="H185" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="I185" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="J185" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K185" s="11">
+        <v>3.7</v>
+      </c>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
@@ -9627,17 +9673,40 @@
       <c r="Y185" s="4"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="A186" s="10">
+        <v>45572.0</v>
+      </c>
+      <c r="B186" s="10">
+        <v>45575.0</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="F186" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G186" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H186" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J186" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K186" s="11">
+        <v>14.0</v>
+      </c>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
@@ -9654,17 +9723,40 @@
       <c r="Y186" s="4"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
+      <c r="A187" s="10">
+        <v>45576.0</v>
+      </c>
+      <c r="B187" s="10">
+        <v>45578.0</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="F187" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="G187" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H187" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="I187" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J187" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="11">
+        <v>5.8</v>
+      </c>
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
@@ -9681,17 +9773,40 @@
       <c r="Y187" s="4"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
+      <c r="A188" s="10">
+        <v>45576.0</v>
+      </c>
+      <c r="B188" s="10">
+        <v>45610.0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="F188" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G188" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="H188" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="I188" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="J188" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K188" s="11">
+        <v>11.5</v>
+      </c>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
@@ -9708,17 +9823,40 @@
       <c r="Y188" s="4"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
+      <c r="A189" s="10">
+        <v>45580.0</v>
+      </c>
+      <c r="B189" s="10">
+        <v>45583.0</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F189" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="G189" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H189" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="I189" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="J189" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K189" s="11">
+        <v>5.0</v>
+      </c>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
@@ -9735,17 +9873,40 @@
       <c r="Y189" s="4"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
+      <c r="A190" s="10">
+        <v>45586.0</v>
+      </c>
+      <c r="B190" s="10">
+        <v>45589.0</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F190" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G190" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H190" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I190" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J190" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K190" s="11">
+        <v>11.0</v>
+      </c>
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
@@ -9762,17 +9923,40 @@
       <c r="Y190" s="4"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
+      <c r="A191" s="10">
+        <v>45590.0</v>
+      </c>
+      <c r="B191" s="10">
+        <v>45591.0</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="F191" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G191" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="H191" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="I191" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="J191" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K191" s="11">
+        <v>11.2</v>
+      </c>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
@@ -9789,17 +9973,40 @@
       <c r="Y191" s="4"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
+      <c r="A192" s="10">
+        <v>45590.0</v>
+      </c>
+      <c r="B192" s="10">
+        <v>45592.0</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="F192" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="G192" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="H192" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="I192" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="J192" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="11">
+        <v>7.6</v>
+      </c>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
@@ -9816,17 +10023,40 @@
       <c r="Y192" s="4"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
+      <c r="A193" s="10">
+        <v>45600.0</v>
+      </c>
+      <c r="B193" s="10">
+        <v>45602.0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F193" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G193" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J193" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K193" s="11">
+        <v>14.0</v>
+      </c>
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
@@ -9843,17 +10073,40 @@
       <c r="Y193" s="4"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
+      <c r="A194" s="10">
+        <v>45604.0</v>
+      </c>
+      <c r="B194" s="10">
+        <v>45606.0</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="F194" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="G194" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H194" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="I194" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="J194" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K194" s="11">
+        <v>9.1</v>
+      </c>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
@@ -9870,17 +10123,40 @@
       <c r="Y194" s="4"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
+      <c r="A195" s="10">
+        <v>45604.0</v>
+      </c>
+      <c r="B195" s="10">
+        <v>45606.0</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="F195" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G195" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H195" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I195" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="J195" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K195" s="11">
+        <v>7.1</v>
+      </c>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
@@ -9897,17 +10173,40 @@
       <c r="Y195" s="4"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
+      <c r="A196" s="10">
+        <v>45604.0</v>
+      </c>
+      <c r="B196" s="10">
+        <v>45607.0</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="F196" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G196" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H196" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="I196" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="J196" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="K196" s="11">
+        <v>9.1</v>
+      </c>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
@@ -9924,17 +10223,40 @@
       <c r="Y196" s="4"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
+      <c r="A197" s="10">
+        <v>45608.0</v>
+      </c>
+      <c r="B197" s="10">
+        <v>45609.0</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="F197" s="2">
+        <v>32.32</v>
+      </c>
+      <c r="G197" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="H197" s="2">
+        <v>5.82</v>
+      </c>
+      <c r="I197" s="2">
+        <v>13.51</v>
+      </c>
+      <c r="J197" s="3">
+        <f t="shared" si="2"/>
+        <v>6.37</v>
+      </c>
+      <c r="K197" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
@@ -9951,17 +10273,40 @@
       <c r="Y197" s="4"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
+      <c r="A198" s="10">
+        <v>45608.0</v>
+      </c>
+      <c r="B198" s="10">
+        <v>45611.0</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F198" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G198" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H198" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I198" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J198" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="K198" s="11">
+        <v>5.6</v>
+      </c>
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
@@ -9978,17 +10323,40 @@
       <c r="Y198" s="4"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
+      <c r="A199" s="10">
+        <v>45611.0</v>
+      </c>
+      <c r="B199" s="10">
+        <v>45614.0</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F199" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G199" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H199" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I199" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J199" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K199" s="11">
+        <v>4.0</v>
+      </c>
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
@@ -10005,17 +10373,40 @@
       <c r="Y199" s="4"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="A200" s="10">
+        <v>45614.0</v>
+      </c>
+      <c r="B200" s="10">
+        <v>45616.0</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F200" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G200" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H200" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I200" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J200" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K200" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J200" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J206" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -10423,17 +10423,40 @@
       <c r="Y200" s="4"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
+      <c r="A201" s="10">
+        <v>45618.0</v>
+      </c>
+      <c r="B201" s="10">
+        <v>45620.0</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F201" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="G201" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H201" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I201" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="J201" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K201" s="11">
+        <v>8.9</v>
+      </c>
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
@@ -10450,17 +10473,40 @@
       <c r="Y201" s="4"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
+      <c r="A202" s="10">
+        <v>45620.0</v>
+      </c>
+      <c r="B202" s="10">
+        <v>45620.0</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F202" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="G202" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H202" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I202" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J202" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K202" s="11">
+        <v>4.0</v>
+      </c>
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
@@ -10477,17 +10523,40 @@
       <c r="Y202" s="4"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="A203" s="10">
+        <v>45621.0</v>
+      </c>
+      <c r="B203" s="10">
+        <v>45622.0</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="F203" s="2">
+        <v>32.86</v>
+      </c>
+      <c r="G203" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="H203" s="2">
+        <v>8.21</v>
+      </c>
+      <c r="I203" s="2">
+        <v>13.06</v>
+      </c>
+      <c r="J203" s="3">
+        <f t="shared" si="2"/>
+        <v>6.31</v>
+      </c>
+      <c r="K203" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -10504,17 +10573,40 @@
       <c r="Y203" s="4"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
+      <c r="A204" s="10">
+        <v>45628.0</v>
+      </c>
+      <c r="B204" s="10">
+        <v>45630.0</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F204" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G204" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H204" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I204" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J204" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K204" s="11">
+        <v>8.0</v>
+      </c>
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
@@ -10531,17 +10623,40 @@
       <c r="Y204" s="4"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="A205" s="10">
+        <v>45629.0</v>
+      </c>
+      <c r="B205" s="10">
+        <v>45632.0</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="F205" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G205" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H205" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="I205" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="J205" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K205" s="11">
+        <v>4.4</v>
+      </c>
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
@@ -10558,17 +10673,40 @@
       <c r="Y205" s="4"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="A206" s="10">
+        <v>45632.0</v>
+      </c>
+      <c r="B206" s="10">
+        <v>45633.0</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" s="2">
+        <v>34.8</v>
+      </c>
+      <c r="F206" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G206" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="H206" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I206" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="J206" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K206" s="11">
+        <v>6.6</v>
+      </c>
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J206" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J212" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -10723,17 +10723,40 @@
       <c r="Y206" s="4"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
+      <c r="A207" s="10">
+        <v>45632.0</v>
+      </c>
+      <c r="B207" s="10">
+        <v>45634.0</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="2">
+        <v>32.2</v>
+      </c>
+      <c r="F207" s="2">
+        <v>33.2</v>
+      </c>
+      <c r="G207" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H207" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I207" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="J207" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K207" s="11">
+        <v>6.3</v>
+      </c>
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
@@ -10750,17 +10773,40 @@
       <c r="Y207" s="4"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
+      <c r="A208" s="10">
+        <v>45636.0</v>
+      </c>
+      <c r="B208" s="10">
+        <v>45637.0</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" s="2">
+        <v>32.38</v>
+      </c>
+      <c r="F208" s="2">
+        <v>33.19</v>
+      </c>
+      <c r="G208" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="H208" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="I208" s="2">
+        <v>13.18</v>
+      </c>
+      <c r="J208" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="K208" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
@@ -10777,17 +10823,40 @@
       <c r="Y208" s="4"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
+      <c r="A209" s="10">
+        <v>45632.0</v>
+      </c>
+      <c r="B209" s="10">
+        <v>45632.0</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="F209" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="G209" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H209" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="I209" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="J209" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="K209" s="11">
+        <v>7.5</v>
+      </c>
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
@@ -10804,17 +10873,40 @@
       <c r="Y209" s="4"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
+      <c r="A210" s="10">
+        <v>45643.0</v>
+      </c>
+      <c r="B210" s="10">
+        <v>45644.0</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F210" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G210" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H210" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I210" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J210" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K210" s="11">
+        <v>7.0</v>
+      </c>
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
@@ -10831,17 +10923,40 @@
       <c r="Y210" s="4"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
+      <c r="A211" s="10">
+        <v>45646.0</v>
+      </c>
+      <c r="B211" s="10">
+        <v>45648.0</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="F211" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G211" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="H211" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="J211" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K211" s="11">
+        <v>11.0</v>
+      </c>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
@@ -10858,17 +10973,40 @@
       <c r="Y211" s="4"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
+      <c r="A212" s="10">
+        <v>45664.0</v>
+      </c>
+      <c r="B212" s="10">
+        <v>45665.0</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F212" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G212" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H212" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I212" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J212" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K212" s="11">
+        <v>5.0</v>
+      </c>
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J212" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J217" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -11023,17 +11023,40 @@
       <c r="Y212" s="4"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
+      <c r="A213" s="10">
+        <v>45664.0</v>
+      </c>
+      <c r="B213" s="10">
+        <v>45666.0</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="F213" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="G213" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="H213" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I213" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J213" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="K213" s="11">
+        <v>7.3</v>
+      </c>
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
@@ -11050,17 +11073,40 @@
       <c r="Y213" s="4"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
+      <c r="A214" s="10">
+        <v>45667.0</v>
+      </c>
+      <c r="B214" s="10">
+        <v>45668.0</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="2">
+        <v>33.2</v>
+      </c>
+      <c r="F214" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="G214" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H214" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I214" s="2">
+        <v>12.41</v>
+      </c>
+      <c r="J214" s="3">
+        <f t="shared" si="2"/>
+        <v>1.59</v>
+      </c>
+      <c r="K214" s="11">
+        <v>7.0</v>
+      </c>
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
@@ -11077,17 +11123,40 @@
       <c r="Y214" s="4"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
+      <c r="A215" s="10">
+        <v>45667.0</v>
+      </c>
+      <c r="B215" s="10">
+        <v>45669.0</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F215" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="G215" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H215" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="I215" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J215" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="K215" s="11">
+        <v>5.4</v>
+      </c>
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
@@ -11104,17 +11173,40 @@
       <c r="Y215" s="4"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
+      <c r="A216" s="10">
+        <v>45671.0</v>
+      </c>
+      <c r="B216" s="10">
+        <v>45673.0</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F216" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G216" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H216" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I216" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J216" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K216" s="11">
+        <v>8.0</v>
+      </c>
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
@@ -11131,17 +11223,40 @@
       <c r="Y216" s="4"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
+      <c r="A217" s="10">
+        <v>45674.0</v>
+      </c>
+      <c r="B217" s="10">
+        <v>45675.0</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="2">
+        <v>33.63</v>
+      </c>
+      <c r="F217" s="2">
+        <v>31.63</v>
+      </c>
+      <c r="G217" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="H217" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="I217" s="2">
+        <v>14.24</v>
+      </c>
+      <c r="J217" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="K217" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J217" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J218" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -11273,17 +11273,40 @@
       <c r="Y217" s="4"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
+      <c r="A218" s="10">
+        <v>45677.0</v>
+      </c>
+      <c r="B218" s="10">
+        <v>45681.0</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="F218" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G218" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H218" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I218" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J218" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="K218" s="11">
+        <v>4.0</v>
+      </c>
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J218" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J221" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -11323,17 +11323,40 @@
       <c r="Y218" s="4"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
+      <c r="A219" s="10">
+        <v>45681.0</v>
+      </c>
+      <c r="B219" s="10">
+        <v>45683.0</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="F219" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G219" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H219" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I219" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="J219" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K219" s="11">
+        <v>7.8</v>
+      </c>
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
@@ -11350,17 +11373,40 @@
       <c r="Y219" s="4"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
+      <c r="A220" s="10">
+        <v>45681.0</v>
+      </c>
+      <c r="B220" s="10">
+        <v>45684.0</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F220" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G220" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H220" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I220" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="J220" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="K220" s="11">
+        <v>7.8</v>
+      </c>
       <c r="L220" s="4"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
@@ -11377,17 +11423,40 @@
       <c r="Y220" s="4"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
+      <c r="A221" s="10">
+        <v>45688.0</v>
+      </c>
+      <c r="B221" s="10">
+        <v>45690.0</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="F221" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G221" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="H221" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="I221" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="J221" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="K221" s="11">
+        <v>13.9</v>
+      </c>
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J221" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J226" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -11473,17 +11473,40 @@
       <c r="Y221" s="4"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
+      <c r="A222" s="10">
+        <v>45691.0</v>
+      </c>
+      <c r="B222" s="10">
+        <v>45693.0</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F222" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G222" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H222" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J222" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K222" s="11">
+        <v>13.0</v>
+      </c>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
@@ -11500,17 +11523,40 @@
       <c r="Y222" s="4"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="A223" s="10">
+        <v>45695.0</v>
+      </c>
+      <c r="B223" s="10">
+        <v>45696.0</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="F223" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="G223" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H223" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="I223" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="J223" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K223" s="11">
+        <v>4.7</v>
+      </c>
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
@@ -11527,17 +11573,40 @@
       <c r="Y223" s="4"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
+      <c r="A224" s="10">
+        <v>45696.0</v>
+      </c>
+      <c r="B224" s="10">
+        <v>45698.0</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" s="2">
+        <v>33.21</v>
+      </c>
+      <c r="F224" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="G224" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H224" s="2">
+        <v>6.85</v>
+      </c>
+      <c r="I224" s="2">
+        <v>15.71</v>
+      </c>
+      <c r="J224" s="3">
+        <f t="shared" si="2"/>
+        <v>3.96</v>
+      </c>
+      <c r="K224" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
@@ -11554,17 +11623,40 @@
       <c r="Y224" s="4"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
+      <c r="A225" s="10">
+        <v>45698.0</v>
+      </c>
+      <c r="B225" s="10">
+        <v>45701.0</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="F225" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="G225" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I225" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="J225" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K225" s="11">
+        <v>4.6</v>
+      </c>
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
@@ -11581,17 +11673,40 @@
       <c r="Y225" s="4"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
+      <c r="A226" s="10">
+        <v>45705.0</v>
+      </c>
+      <c r="B226" s="10">
+        <v>45706.0</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F226" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G226" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H226" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I226" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J226" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K226" s="11">
+        <v>6.0</v>
+      </c>
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J226" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J228" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -11723,17 +11723,40 @@
       <c r="Y226" s="4"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
+      <c r="A227" s="10">
+        <v>45705.0</v>
+      </c>
+      <c r="B227" s="10">
+        <v>45708.0</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F227" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G227" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I227" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="J227" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K227" s="11">
+        <v>8.0</v>
+      </c>
       <c r="L227" s="4"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
@@ -11750,17 +11773,40 @@
       <c r="Y227" s="4"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
+      <c r="A228" s="10">
+        <v>45705.0</v>
+      </c>
+      <c r="B228" s="10">
+        <v>45709.0</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="F228" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G228" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H228" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="I228" s="2">
+        <v>16.6</v>
+      </c>
+      <c r="J228" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="K228" s="11">
+        <v>3.8</v>
+      </c>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J228" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J238" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -11483,7 +11483,7 @@
         <v>21</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E222" s="2">
         <v>30.0</v>
@@ -11733,7 +11733,7 @@
         <v>21</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E227" s="2">
         <v>29.0</v>
@@ -11823,17 +11823,40 @@
       <c r="Y228" s="4"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
+      <c r="A229" s="10">
+        <v>45707.0</v>
+      </c>
+      <c r="B229" s="10">
+        <v>45709.0</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F229" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G229" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I229" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J229" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K229" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
@@ -11850,17 +11873,40 @@
       <c r="Y229" s="4"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
+      <c r="A230" s="10">
+        <v>45709.0</v>
+      </c>
+      <c r="B230" s="10">
+        <v>45712.0</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="F230" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="G230" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H230" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="I230" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="J230" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3</v>
+      </c>
+      <c r="K230" s="11">
+        <v>7.9</v>
+      </c>
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
@@ -11877,17 +11923,40 @@
       <c r="Y230" s="4"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
+      <c r="A231" s="10">
+        <v>45709.0</v>
+      </c>
+      <c r="B231" s="10">
+        <v>45712.0</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="F231" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="G231" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="I231" s="2">
+        <v>16.1</v>
+      </c>
+      <c r="J231" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3</v>
+      </c>
+      <c r="K231" s="11">
+        <v>5.6</v>
+      </c>
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
@@ -11904,17 +11973,40 @@
       <c r="Y231" s="4"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
+      <c r="A232" s="10">
+        <v>45707.0</v>
+      </c>
+      <c r="B232" s="10">
+        <v>45714.0</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="2">
+        <v>32.7</v>
+      </c>
+      <c r="F232" s="2">
+        <v>36.52</v>
+      </c>
+      <c r="G232" s="2">
+        <v>5.18</v>
+      </c>
+      <c r="H232" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="I232" s="2">
+        <v>19.03</v>
+      </c>
+      <c r="J232" s="3">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="K232" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
@@ -11931,17 +12023,40 @@
       <c r="Y232" s="4"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
+      <c r="A233" s="10">
+        <v>45719.0</v>
+      </c>
+      <c r="B233" s="10">
+        <v>45722.0</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="F233" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G233" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H233" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I233" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="J233" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K233" s="11">
+        <v>11.0</v>
+      </c>
       <c r="L233" s="4"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
@@ -11958,17 +12073,40 @@
       <c r="Y233" s="4"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
+      <c r="A234" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="B234" s="10">
+        <v>45724.0</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F234" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="G234" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H234" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I234" s="2">
+        <v>17.1</v>
+      </c>
+      <c r="J234" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="K234" s="11">
+        <v>12.1</v>
+      </c>
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
@@ -11985,17 +12123,40 @@
       <c r="Y234" s="4"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
+      <c r="A235" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="B235" s="10">
+        <v>45725.0</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F235" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="G235" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H235" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="I235" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="J235" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="K235" s="11">
+        <v>11.3</v>
+      </c>
       <c r="L235" s="4"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
@@ -12012,17 +12173,40 @@
       <c r="Y235" s="4"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
+      <c r="A236" s="10">
+        <v>45723.0</v>
+      </c>
+      <c r="B236" s="10">
+        <v>45725.0</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" s="2">
+        <v>31.82</v>
+      </c>
+      <c r="F236" s="2">
+        <v>33.02</v>
+      </c>
+      <c r="G236" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="H236" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="I236" s="2">
+        <v>17.17</v>
+      </c>
+      <c r="J236" s="3">
+        <f t="shared" si="2"/>
+        <v>3.02</v>
+      </c>
+      <c r="K236" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L236" s="4"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
@@ -12039,17 +12223,40 @@
       <c r="Y236" s="4"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
+      <c r="A237" s="10">
+        <v>45726.0</v>
+      </c>
+      <c r="B237" s="10">
+        <v>45729.0</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="F237" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G237" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="H237" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="I237" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="J237" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K237" s="11">
+        <v>4.3</v>
+      </c>
       <c r="L237" s="4"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
@@ -12066,17 +12273,40 @@
       <c r="Y237" s="4"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
+      <c r="A238" s="10">
+        <v>45727.0</v>
+      </c>
+      <c r="B238" s="10">
+        <v>45729.0</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="F238" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G238" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H238" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I238" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J238" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K238" s="11">
+        <v>7.0</v>
+      </c>
       <c r="L238" s="4"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J238" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J243" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -12323,17 +12323,40 @@
       <c r="Y238" s="4"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
+      <c r="A239" s="10">
+        <v>45733.0</v>
+      </c>
+      <c r="B239" s="10">
+        <v>45737.0</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="F239" s="2">
+        <v>34.8</v>
+      </c>
+      <c r="G239" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="H239" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="I239" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="J239" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="K239" s="11">
+        <v>4.9</v>
+      </c>
       <c r="L239" s="4"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
@@ -12350,17 +12373,40 @@
       <c r="Y239" s="4"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
+      <c r="A240" s="10">
+        <v>45737.0</v>
+      </c>
+      <c r="B240" s="10">
+        <v>45739.0</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="F240" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G240" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="H240" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="I240" s="2">
+        <v>16.4</v>
+      </c>
+      <c r="J240" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K240" s="11">
+        <v>13.9</v>
+      </c>
       <c r="L240" s="4"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
@@ -12377,17 +12423,40 @@
       <c r="Y240" s="4"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
+      <c r="A241" s="10">
+        <v>45737.0</v>
+      </c>
+      <c r="B241" s="10">
+        <v>45740.0</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="F241" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G241" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H241" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I241" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="J241" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="K241" s="11">
+        <v>9.1</v>
+      </c>
       <c r="L241" s="4"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
@@ -12404,17 +12473,40 @@
       <c r="Y241" s="4"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="A242" s="12"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
+      <c r="A242" s="10">
+        <v>45747.0</v>
+      </c>
+      <c r="B242" s="10">
+        <v>45748.0</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" s="2">
+        <v>31.76</v>
+      </c>
+      <c r="F242" s="2">
+        <v>32.35</v>
+      </c>
+      <c r="G242" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="H242" s="2">
+        <v>5.02</v>
+      </c>
+      <c r="I242" s="2">
+        <v>18.08</v>
+      </c>
+      <c r="J242" s="3">
+        <f t="shared" si="2"/>
+        <v>4.73</v>
+      </c>
+      <c r="K242" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
@@ -12431,17 +12523,40 @@
       <c r="Y242" s="4"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
+      <c r="A243" s="10">
+        <v>45750.0</v>
+      </c>
+      <c r="B243" s="10">
+        <v>45751.0</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F243" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G243" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H243" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I243" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="J243" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K243" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L243" s="4"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J243" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J246" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -12573,17 +12573,40 @@
       <c r="Y243" s="4"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
+      <c r="A244" s="10">
+        <v>45751.0</v>
+      </c>
+      <c r="B244" s="10">
+        <v>45753.0</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="F244" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="G244" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H244" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I244" s="2">
+        <v>16.4</v>
+      </c>
+      <c r="J244" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K244" s="11">
+        <v>7.5</v>
+      </c>
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
@@ -12600,17 +12623,40 @@
       <c r="Y244" s="4"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
+      <c r="A245" s="10">
+        <v>45754.0</v>
+      </c>
+      <c r="B245" s="10">
+        <v>45756.0</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="F245" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G245" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H245" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I245" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J245" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K245" s="11">
+        <v>9.0</v>
+      </c>
       <c r="L245" s="4"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
@@ -12627,17 +12673,40 @@
       <c r="Y245" s="4"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
+      <c r="A246" s="10">
+        <v>45754.0</v>
+      </c>
+      <c r="B246" s="10">
+        <v>45756.0</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="F246" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="G246" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H246" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I246" s="2">
+        <v>16.4</v>
+      </c>
+      <c r="J246" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1</v>
+      </c>
+      <c r="K246" s="11">
+        <v>4.8</v>
+      </c>
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5401,7 +5401,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J246" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J251" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -12723,17 +12723,40 @@
       <c r="Y246" s="4"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
+      <c r="A247" s="10">
+        <v>45756.0</v>
+      </c>
+      <c r="B247" s="10">
+        <v>45761.0</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" s="2">
+        <v>31.46</v>
+      </c>
+      <c r="F247" s="2">
+        <v>33.95</v>
+      </c>
+      <c r="G247" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="H247" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I247" s="2">
+        <v>21.74</v>
+      </c>
+      <c r="J247" s="3">
+        <f t="shared" si="2"/>
+        <v>3.23</v>
+      </c>
+      <c r="K247" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
@@ -12750,17 +12773,40 @@
       <c r="Y247" s="4"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
+      <c r="A248" s="10">
+        <v>45761.0</v>
+      </c>
+      <c r="B248" s="10">
+        <v>45763.0</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="F248" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="G248" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="H248" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="I248" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="J248" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K248" s="11">
+        <v>5.8</v>
+      </c>
       <c r="L248" s="4"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
@@ -12777,17 +12823,40 @@
       <c r="Y248" s="4"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
+      <c r="A249" s="10">
+        <v>45761.0</v>
+      </c>
+      <c r="B249" s="10">
+        <v>45763.0</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="F249" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G249" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H249" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I249" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="J249" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K249" s="11">
+        <v>10.0</v>
+      </c>
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
@@ -12804,17 +12873,40 @@
       <c r="Y249" s="4"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
+      <c r="A250" s="10">
+        <v>45762.0</v>
+      </c>
+      <c r="B250" s="10">
+        <v>45763.0</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" s="2">
+        <v>31.36</v>
+      </c>
+      <c r="F250" s="2">
+        <v>32.92</v>
+      </c>
+      <c r="G250" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="H250" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="I250" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="J250" s="3">
+        <f t="shared" si="2"/>
+        <v>5.34</v>
+      </c>
+      <c r="K250" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
@@ -12831,17 +12923,40 @@
       <c r="Y250" s="4"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
+      <c r="A251" s="10">
+        <v>45764.0</v>
+      </c>
+      <c r="B251" s="10">
+        <v>45766.0</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="F251" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="G251" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="H251" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I251" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="J251" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K251" s="11">
+        <v>8.4</v>
+      </c>
       <c r="L251" s="4"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -180,8 +180,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -5401,7 +5402,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:J251" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J258" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="11">
@@ -12973,17 +12974,40 @@
       <c r="Y251" s="4"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
+      <c r="A252" s="10">
+        <v>45769.0</v>
+      </c>
+      <c r="B252" s="10">
+        <v>45771.0</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F252" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G252" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H252" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I252" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J252" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K252" s="11">
+        <v>7.0</v>
+      </c>
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
@@ -13000,17 +13024,40 @@
       <c r="Y252" s="4"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
+      <c r="A253" s="10">
+        <v>45770.0</v>
+      </c>
+      <c r="B253" s="10">
+        <v>45772.0</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="F253" s="2">
+        <v>33.31</v>
+      </c>
+      <c r="G253" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H253" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="I253" s="2">
+        <v>16.62</v>
+      </c>
+      <c r="J253" s="3">
+        <f t="shared" si="2"/>
+        <v>2.89</v>
+      </c>
+      <c r="K253" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
@@ -13027,17 +13074,40 @@
       <c r="Y253" s="4"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="A254" s="12"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
+      <c r="A254" s="10">
+        <v>45775.0</v>
+      </c>
+      <c r="B254" s="10">
+        <v>45776.0</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="F254" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="G254" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H254" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="I254" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="J254" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9</v>
+      </c>
+      <c r="K254" s="11">
+        <v>7.4</v>
+      </c>
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
@@ -13054,17 +13124,40 @@
       <c r="Y254" s="4"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
+      <c r="A255" s="10">
+        <v>45775.0</v>
+      </c>
+      <c r="B255" s="10">
+        <v>45776.0</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="2">
+        <v>31.05</v>
+      </c>
+      <c r="F255" s="2">
+        <v>31.28</v>
+      </c>
+      <c r="G255" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="H255" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="I255" s="2">
+        <v>16.66</v>
+      </c>
+      <c r="J255" s="3">
+        <f t="shared" si="2"/>
+        <v>5.51</v>
+      </c>
+      <c r="K255" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L255" s="4"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
@@ -13081,17 +13174,40 @@
       <c r="Y255" s="4"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
-      <c r="A256" s="12"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
+      <c r="A256" s="10">
+        <v>45782.0</v>
+      </c>
+      <c r="B256" s="10">
+        <v>45784.0</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F256" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G256" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H256" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I256" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J256" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K256" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
@@ -13108,17 +13224,40 @@
       <c r="Y256" s="4"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-      <c r="I257" s="1"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
+      <c r="A257" s="12">
+        <v>45783.0</v>
+      </c>
+      <c r="B257" s="12">
+        <v>45784.0</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="F257" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="G257" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H257" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I257" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J257" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K257" s="11">
+        <v>2.0</v>
+      </c>
       <c r="L257" s="4"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
@@ -13135,17 +13274,40 @@
       <c r="Y257" s="4"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
-      <c r="A258" s="14"/>
-      <c r="B258" s="14"/>
-      <c r="C258" s="15"/>
-      <c r="D258" s="15"/>
-      <c r="E258" s="15"/>
-      <c r="F258" s="15"/>
-      <c r="G258" s="15"/>
-      <c r="H258" s="15"/>
-      <c r="I258" s="15"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="11"/>
+      <c r="A258" s="13">
+        <v>45784.0</v>
+      </c>
+      <c r="B258" s="13">
+        <v>45785.0</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" s="14">
+        <v>32.26</v>
+      </c>
+      <c r="F258" s="14">
+        <v>31.11</v>
+      </c>
+      <c r="G258" s="14">
+        <v>9.51</v>
+      </c>
+      <c r="H258" s="14">
+        <v>5.91</v>
+      </c>
+      <c r="I258" s="14">
+        <v>15.13</v>
+      </c>
+      <c r="J258" s="3">
+        <f t="shared" si="2"/>
+        <v>6.08</v>
+      </c>
+      <c r="K258" s="11">
+        <v>0.0</v>
+      </c>
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
@@ -13162,15 +13324,15 @@
       <c r="Y258" s="4"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
-      <c r="A259" s="14"/>
-      <c r="B259" s="16"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="15"/>
-      <c r="E259" s="15"/>
-      <c r="F259" s="15"/>
-      <c r="G259" s="15"/>
-      <c r="H259" s="15"/>
-      <c r="I259" s="15"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="14"/>
       <c r="J259" s="3"/>
       <c r="K259" s="11"/>
       <c r="L259" s="4"/>
@@ -13189,15 +13351,15 @@
       <c r="Y259" s="4"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="A260" s="16"/>
-      <c r="B260" s="16"/>
-      <c r="C260" s="15"/>
-      <c r="D260" s="15"/>
-      <c r="E260" s="15"/>
-      <c r="F260" s="15"/>
-      <c r="G260" s="15"/>
-      <c r="H260" s="15"/>
-      <c r="I260" s="15"/>
+      <c r="A260" s="15"/>
+      <c r="B260" s="15"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
       <c r="J260" s="3"/>
       <c r="K260" s="11"/>
       <c r="L260" s="4"/>
@@ -13216,15 +13378,15 @@
       <c r="Y260" s="4"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
-      <c r="A261" s="16"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
-      <c r="H261" s="15"/>
-      <c r="I261" s="15"/>
+      <c r="A261" s="15"/>
+      <c r="B261" s="15"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
       <c r="J261" s="3"/>
       <c r="K261" s="11"/>
       <c r="L261" s="4"/>
@@ -13243,15 +13405,15 @@
       <c r="Y261" s="4"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="A262" s="16"/>
-      <c r="B262" s="16"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="15"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="15"/>
-      <c r="G262" s="15"/>
-      <c r="H262" s="15"/>
-      <c r="I262" s="15"/>
+      <c r="A262" s="15"/>
+      <c r="B262" s="15"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
       <c r="J262" s="3"/>
       <c r="K262" s="11"/>
       <c r="L262" s="4"/>
@@ -13270,15 +13432,15 @@
       <c r="Y262" s="4"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="A263" s="16"/>
-      <c r="B263" s="16"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="15"/>
-      <c r="E263" s="15"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="15"/>
-      <c r="H263" s="15"/>
-      <c r="I263" s="15"/>
+      <c r="A263" s="15"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="14"/>
       <c r="J263" s="3"/>
       <c r="K263" s="11"/>
       <c r="L263" s="4"/>
@@ -13297,15 +13459,15 @@
       <c r="Y263" s="4"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="A264" s="16"/>
-      <c r="B264" s="16"/>
-      <c r="C264" s="15"/>
-      <c r="D264" s="15"/>
-      <c r="E264" s="15"/>
-      <c r="F264" s="15"/>
-      <c r="G264" s="15"/>
-      <c r="H264" s="15"/>
-      <c r="I264" s="15"/>
+      <c r="A264" s="15"/>
+      <c r="B264" s="15"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
       <c r="J264" s="3"/>
       <c r="K264" s="11"/>
       <c r="L264" s="4"/>
@@ -13324,15 +13486,15 @@
       <c r="Y264" s="4"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="A265" s="16"/>
-      <c r="B265" s="16"/>
-      <c r="C265" s="15"/>
-      <c r="D265" s="15"/>
-      <c r="E265" s="15"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
-      <c r="H265" s="15"/>
-      <c r="I265" s="15"/>
+      <c r="A265" s="15"/>
+      <c r="B265" s="15"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
       <c r="J265" s="3"/>
       <c r="K265" s="11"/>
       <c r="L265" s="4"/>
@@ -13351,15 +13513,15 @@
       <c r="Y265" s="4"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
-      <c r="A266" s="16"/>
-      <c r="B266" s="16"/>
-      <c r="C266" s="15"/>
-      <c r="D266" s="15"/>
-      <c r="E266" s="15"/>
-      <c r="F266" s="15"/>
-      <c r="G266" s="15"/>
-      <c r="H266" s="15"/>
-      <c r="I266" s="15"/>
+      <c r="A266" s="15"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="14"/>
       <c r="J266" s="3"/>
       <c r="K266" s="11"/>
       <c r="L266" s="4"/>
@@ -13378,15 +13540,15 @@
       <c r="Y266" s="4"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="A267" s="16"/>
-      <c r="B267" s="16"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="15"/>
-      <c r="I267" s="15"/>
+      <c r="A267" s="15"/>
+      <c r="B267" s="15"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
       <c r="J267" s="3"/>
       <c r="K267" s="11"/>
       <c r="L267" s="4"/>
@@ -13405,15 +13567,15 @@
       <c r="Y267" s="4"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="A268" s="16"/>
-      <c r="B268" s="16"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="15"/>
-      <c r="E268" s="15"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="15"/>
-      <c r="I268" s="15"/>
+      <c r="A268" s="15"/>
+      <c r="B268" s="15"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
       <c r="J268" s="3"/>
       <c r="K268" s="11"/>
       <c r="L268" s="4"/>
@@ -13432,15 +13594,15 @@
       <c r="Y268" s="4"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="A269" s="16"/>
-      <c r="B269" s="16"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="15"/>
-      <c r="I269" s="15"/>
+      <c r="A269" s="15"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="14"/>
       <c r="J269" s="3"/>
       <c r="K269" s="11"/>
       <c r="L269" s="4"/>
@@ -13459,15 +13621,15 @@
       <c r="Y269" s="4"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="A270" s="16"/>
-      <c r="B270" s="16"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="15"/>
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="15"/>
-      <c r="I270" s="15"/>
+      <c r="A270" s="15"/>
+      <c r="B270" s="15"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="14"/>
       <c r="J270" s="3"/>
       <c r="K270" s="11"/>
       <c r="L270" s="4"/>
@@ -13486,15 +13648,15 @@
       <c r="Y270" s="4"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="A271" s="16"/>
-      <c r="B271" s="16"/>
-      <c r="C271" s="15"/>
-      <c r="D271" s="15"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="15"/>
-      <c r="I271" s="15"/>
+      <c r="A271" s="15"/>
+      <c r="B271" s="15"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
       <c r="J271" s="3"/>
       <c r="K271" s="11"/>
       <c r="L271" s="4"/>
@@ -13513,15 +13675,15 @@
       <c r="Y271" s="4"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="A272" s="16"/>
-      <c r="B272" s="16"/>
-      <c r="C272" s="15"/>
-      <c r="D272" s="15"/>
-      <c r="E272" s="15"/>
-      <c r="F272" s="15"/>
-      <c r="G272" s="15"/>
-      <c r="H272" s="15"/>
-      <c r="I272" s="15"/>
+      <c r="A272" s="15"/>
+      <c r="B272" s="15"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
       <c r="J272" s="3"/>
       <c r="K272" s="11"/>
       <c r="L272" s="4"/>
@@ -13540,15 +13702,15 @@
       <c r="Y272" s="4"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="A273" s="16"/>
-      <c r="B273" s="16"/>
-      <c r="C273" s="15"/>
-      <c r="D273" s="15"/>
-      <c r="E273" s="15"/>
-      <c r="F273" s="15"/>
-      <c r="G273" s="15"/>
-      <c r="H273" s="15"/>
-      <c r="I273" s="15"/>
+      <c r="A273" s="15"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
       <c r="J273" s="3"/>
       <c r="K273" s="11"/>
       <c r="L273" s="4"/>
@@ -13567,15 +13729,15 @@
       <c r="Y273" s="4"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="A274" s="16"/>
-      <c r="B274" s="16"/>
-      <c r="C274" s="15"/>
-      <c r="D274" s="15"/>
-      <c r="E274" s="15"/>
-      <c r="F274" s="15"/>
-      <c r="G274" s="15"/>
-      <c r="H274" s="15"/>
-      <c r="I274" s="15"/>
+      <c r="A274" s="15"/>
+      <c r="B274" s="15"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
       <c r="J274" s="3"/>
       <c r="K274" s="11"/>
       <c r="L274" s="4"/>
@@ -13594,15 +13756,15 @@
       <c r="Y274" s="4"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="A275" s="16"/>
-      <c r="B275" s="16"/>
-      <c r="C275" s="15"/>
-      <c r="D275" s="15"/>
-      <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
-      <c r="H275" s="15"/>
-      <c r="I275" s="15"/>
+      <c r="A275" s="15"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
       <c r="J275" s="3"/>
       <c r="K275" s="11"/>
       <c r="L275" s="4"/>
@@ -13621,15 +13783,15 @@
       <c r="Y275" s="4"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="A276" s="16"/>
-      <c r="B276" s="16"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="15"/>
-      <c r="E276" s="15"/>
-      <c r="F276" s="15"/>
-      <c r="G276" s="15"/>
-      <c r="H276" s="15"/>
-      <c r="I276" s="15"/>
+      <c r="A276" s="15"/>
+      <c r="B276" s="15"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
       <c r="J276" s="3"/>
       <c r="K276" s="11"/>
       <c r="L276" s="4"/>
@@ -13648,15 +13810,15 @@
       <c r="Y276" s="4"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="A277" s="16"/>
-      <c r="B277" s="16"/>
-      <c r="C277" s="15"/>
-      <c r="D277" s="15"/>
-      <c r="E277" s="15"/>
-      <c r="F277" s="15"/>
-      <c r="G277" s="15"/>
-      <c r="H277" s="15"/>
-      <c r="I277" s="15"/>
+      <c r="A277" s="15"/>
+      <c r="B277" s="15"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
       <c r="J277" s="3"/>
       <c r="K277" s="11"/>
       <c r="L277" s="4"/>
@@ -13675,15 +13837,15 @@
       <c r="Y277" s="4"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="A278" s="16"/>
-      <c r="B278" s="16"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="15"/>
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="15"/>
-      <c r="H278" s="15"/>
-      <c r="I278" s="15"/>
+      <c r="A278" s="15"/>
+      <c r="B278" s="15"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="14"/>
       <c r="J278" s="3"/>
       <c r="K278" s="11"/>
       <c r="L278" s="4"/>
@@ -13702,15 +13864,15 @@
       <c r="Y278" s="4"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="A279" s="16"/>
-      <c r="B279" s="16"/>
-      <c r="C279" s="15"/>
-      <c r="D279" s="15"/>
-      <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
-      <c r="H279" s="15"/>
-      <c r="I279" s="15"/>
+      <c r="A279" s="15"/>
+      <c r="B279" s="15"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="14"/>
       <c r="J279" s="3"/>
       <c r="K279" s="11"/>
       <c r="L279" s="4"/>
@@ -13729,15 +13891,15 @@
       <c r="Y279" s="4"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="A280" s="16"/>
-      <c r="B280" s="16"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="15"/>
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="15"/>
-      <c r="I280" s="15"/>
+      <c r="A280" s="15"/>
+      <c r="B280" s="15"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
       <c r="J280" s="3"/>
       <c r="K280" s="11"/>
       <c r="L280" s="4"/>
@@ -13756,15 +13918,15 @@
       <c r="Y280" s="4"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="A281" s="16"/>
-      <c r="B281" s="16"/>
-      <c r="C281" s="15"/>
-      <c r="D281" s="15"/>
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
-      <c r="H281" s="15"/>
-      <c r="I281" s="15"/>
+      <c r="A281" s="15"/>
+      <c r="B281" s="15"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="14"/>
       <c r="J281" s="3"/>
       <c r="K281" s="11"/>
       <c r="L281" s="4"/>
@@ -13783,15 +13945,15 @@
       <c r="Y281" s="4"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="A282" s="16"/>
-      <c r="B282" s="16"/>
-      <c r="C282" s="15"/>
-      <c r="D282" s="15"/>
-      <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15"/>
-      <c r="H282" s="15"/>
-      <c r="I282" s="15"/>
+      <c r="A282" s="15"/>
+      <c r="B282" s="15"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="14"/>
       <c r="J282" s="3"/>
       <c r="K282" s="11"/>
       <c r="L282" s="4"/>
@@ -13810,15 +13972,15 @@
       <c r="Y282" s="4"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="A283" s="16"/>
-      <c r="B283" s="16"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="15"/>
-      <c r="I283" s="15"/>
+      <c r="A283" s="15"/>
+      <c r="B283" s="15"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="14"/>
       <c r="J283" s="3"/>
       <c r="K283" s="11"/>
       <c r="L283" s="4"/>
@@ -13837,15 +13999,15 @@
       <c r="Y283" s="4"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
-      <c r="A284" s="16"/>
-      <c r="B284" s="16"/>
-      <c r="C284" s="15"/>
-      <c r="D284" s="15"/>
-      <c r="E284" s="15"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="15"/>
-      <c r="H284" s="15"/>
-      <c r="I284" s="15"/>
+      <c r="A284" s="15"/>
+      <c r="B284" s="15"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="14"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="14"/>
       <c r="J284" s="3"/>
       <c r="K284" s="11"/>
       <c r="L284" s="4"/>
@@ -13864,15 +14026,15 @@
       <c r="Y284" s="4"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="A285" s="16"/>
-      <c r="B285" s="16"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="15"/>
-      <c r="E285" s="15"/>
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="15"/>
-      <c r="I285" s="15"/>
+      <c r="A285" s="15"/>
+      <c r="B285" s="15"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="14"/>
       <c r="J285" s="3"/>
       <c r="K285" s="11"/>
       <c r="L285" s="4"/>
@@ -13891,15 +14053,15 @@
       <c r="Y285" s="4"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
-      <c r="A286" s="16"/>
-      <c r="B286" s="16"/>
-      <c r="C286" s="15"/>
-      <c r="D286" s="15"/>
-      <c r="E286" s="15"/>
-      <c r="F286" s="15"/>
-      <c r="G286" s="15"/>
-      <c r="H286" s="15"/>
-      <c r="I286" s="15"/>
+      <c r="A286" s="15"/>
+      <c r="B286" s="15"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="14"/>
       <c r="J286" s="3"/>
       <c r="K286" s="11"/>
       <c r="L286" s="4"/>
@@ -13918,15 +14080,15 @@
       <c r="Y286" s="4"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
-      <c r="A287" s="16"/>
-      <c r="B287" s="16"/>
-      <c r="C287" s="15"/>
-      <c r="D287" s="15"/>
-      <c r="E287" s="15"/>
-      <c r="F287" s="15"/>
-      <c r="G287" s="15"/>
-      <c r="H287" s="15"/>
-      <c r="I287" s="15"/>
+      <c r="A287" s="15"/>
+      <c r="B287" s="15"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="14"/>
       <c r="J287" s="3"/>
       <c r="K287" s="11"/>
       <c r="L287" s="4"/>
@@ -13945,15 +14107,15 @@
       <c r="Y287" s="4"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
-      <c r="A288" s="16"/>
-      <c r="B288" s="16"/>
-      <c r="C288" s="15"/>
-      <c r="D288" s="15"/>
-      <c r="E288" s="15"/>
-      <c r="F288" s="15"/>
-      <c r="G288" s="15"/>
-      <c r="H288" s="15"/>
-      <c r="I288" s="15"/>
+      <c r="A288" s="15"/>
+      <c r="B288" s="15"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="14"/>
       <c r="J288" s="3"/>
       <c r="K288" s="11"/>
       <c r="L288" s="4"/>
@@ -13972,15 +14134,15 @@
       <c r="Y288" s="4"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="A289" s="16"/>
-      <c r="B289" s="16"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="15"/>
-      <c r="E289" s="15"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
-      <c r="H289" s="15"/>
-      <c r="I289" s="15"/>
+      <c r="A289" s="15"/>
+      <c r="B289" s="15"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
       <c r="J289" s="3"/>
       <c r="K289" s="11"/>
       <c r="L289" s="4"/>
@@ -13999,15 +14161,15 @@
       <c r="Y289" s="4"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="A290" s="16"/>
-      <c r="B290" s="16"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="15"/>
-      <c r="E290" s="15"/>
-      <c r="F290" s="15"/>
-      <c r="G290" s="15"/>
-      <c r="H290" s="15"/>
-      <c r="I290" s="15"/>
+      <c r="A290" s="15"/>
+      <c r="B290" s="15"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="14"/>
       <c r="J290" s="3"/>
       <c r="K290" s="11"/>
       <c r="L290" s="4"/>
@@ -14026,15 +14188,15 @@
       <c r="Y290" s="4"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="A291" s="16"/>
-      <c r="B291" s="16"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="15"/>
-      <c r="E291" s="15"/>
-      <c r="F291" s="15"/>
-      <c r="G291" s="15"/>
-      <c r="H291" s="15"/>
-      <c r="I291" s="15"/>
+      <c r="A291" s="15"/>
+      <c r="B291" s="15"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
       <c r="J291" s="3"/>
       <c r="K291" s="11"/>
       <c r="L291" s="4"/>
@@ -14053,15 +14215,15 @@
       <c r="Y291" s="4"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="A292" s="16"/>
-      <c r="B292" s="16"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="15"/>
-      <c r="E292" s="15"/>
-      <c r="F292" s="15"/>
-      <c r="G292" s="15"/>
-      <c r="H292" s="15"/>
-      <c r="I292" s="15"/>
+      <c r="A292" s="15"/>
+      <c r="B292" s="15"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
       <c r="J292" s="3"/>
       <c r="K292" s="11"/>
       <c r="L292" s="4"/>
@@ -14080,15 +14242,15 @@
       <c r="Y292" s="4"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
-      <c r="A293" s="16"/>
-      <c r="B293" s="16"/>
-      <c r="C293" s="15"/>
-      <c r="D293" s="15"/>
-      <c r="E293" s="15"/>
-      <c r="F293" s="15"/>
-      <c r="G293" s="15"/>
-      <c r="H293" s="15"/>
-      <c r="I293" s="15"/>
+      <c r="A293" s="15"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
       <c r="J293" s="3"/>
       <c r="K293" s="11"/>
       <c r="L293" s="4"/>
@@ -14107,15 +14269,15 @@
       <c r="Y293" s="4"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
-      <c r="A294" s="16"/>
-      <c r="B294" s="16"/>
-      <c r="C294" s="15"/>
-      <c r="D294" s="15"/>
-      <c r="E294" s="15"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
-      <c r="H294" s="15"/>
-      <c r="I294" s="15"/>
+      <c r="A294" s="15"/>
+      <c r="B294" s="15"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
       <c r="J294" s="3"/>
       <c r="K294" s="11"/>
       <c r="L294" s="4"/>
@@ -14134,15 +14296,15 @@
       <c r="Y294" s="4"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
-      <c r="A295" s="16"/>
-      <c r="B295" s="16"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="15"/>
-      <c r="E295" s="15"/>
-      <c r="F295" s="15"/>
-      <c r="G295" s="15"/>
-      <c r="H295" s="15"/>
-      <c r="I295" s="15"/>
+      <c r="A295" s="15"/>
+      <c r="B295" s="15"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
       <c r="J295" s="3"/>
       <c r="K295" s="11"/>
       <c r="L295" s="4"/>
@@ -14161,15 +14323,15 @@
       <c r="Y295" s="4"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
-      <c r="A296" s="16"/>
-      <c r="B296" s="16"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="15"/>
-      <c r="E296" s="15"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
-      <c r="H296" s="15"/>
-      <c r="I296" s="15"/>
+      <c r="A296" s="15"/>
+      <c r="B296" s="15"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
       <c r="J296" s="3"/>
       <c r="K296" s="11"/>
       <c r="L296" s="4"/>
@@ -14188,15 +14350,15 @@
       <c r="Y296" s="4"/>
     </row>
     <row r="297" ht="12.75" customHeight="1">
-      <c r="A297" s="16"/>
-      <c r="B297" s="16"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
-      <c r="I297" s="15"/>
+      <c r="A297" s="15"/>
+      <c r="B297" s="15"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
       <c r="J297" s="3"/>
       <c r="K297" s="11"/>
       <c r="L297" s="4"/>
@@ -14215,15 +14377,15 @@
       <c r="Y297" s="4"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
-      <c r="A298" s="16"/>
-      <c r="B298" s="16"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
-      <c r="H298" s="15"/>
-      <c r="I298" s="15"/>
+      <c r="A298" s="15"/>
+      <c r="B298" s="15"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
       <c r="J298" s="3"/>
       <c r="K298" s="11"/>
       <c r="L298" s="4"/>
@@ -14242,15 +14404,15 @@
       <c r="Y298" s="4"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
-      <c r="A299" s="16"/>
-      <c r="B299" s="16"/>
-      <c r="C299" s="15"/>
-      <c r="D299" s="15"/>
-      <c r="E299" s="15"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
-      <c r="H299" s="15"/>
-      <c r="I299" s="15"/>
+      <c r="A299" s="15"/>
+      <c r="B299" s="15"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="14"/>
       <c r="J299" s="3"/>
       <c r="K299" s="11"/>
       <c r="L299" s="4"/>
@@ -14269,15 +14431,15 @@
       <c r="Y299" s="4"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
-      <c r="A300" s="16"/>
-      <c r="B300" s="16"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="15"/>
-      <c r="E300" s="15"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
-      <c r="H300" s="15"/>
-      <c r="I300" s="15"/>
+      <c r="A300" s="15"/>
+      <c r="B300" s="15"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
       <c r="J300" s="3"/>
       <c r="K300" s="11"/>
       <c r="L300" s="4"/>
@@ -14296,15 +14458,15 @@
       <c r="Y300" s="4"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="A301" s="16"/>
-      <c r="B301" s="16"/>
-      <c r="C301" s="15"/>
-      <c r="D301" s="15"/>
-      <c r="E301" s="15"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
-      <c r="H301" s="15"/>
-      <c r="I301" s="15"/>
+      <c r="A301" s="15"/>
+      <c r="B301" s="15"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
       <c r="J301" s="3"/>
       <c r="K301" s="11"/>
       <c r="L301" s="4"/>
@@ -14323,15 +14485,15 @@
       <c r="Y301" s="4"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
-      <c r="A302" s="16"/>
-      <c r="B302" s="16"/>
-      <c r="C302" s="15"/>
-      <c r="D302" s="15"/>
-      <c r="E302" s="15"/>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
-      <c r="H302" s="15"/>
-      <c r="I302" s="15"/>
+      <c r="A302" s="15"/>
+      <c r="B302" s="15"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14"/>
       <c r="J302" s="3"/>
       <c r="K302" s="11"/>
       <c r="L302" s="4"/>
@@ -14350,15 +14512,15 @@
       <c r="Y302" s="4"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
-      <c r="A303" s="16"/>
-      <c r="B303" s="16"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
-      <c r="I303" s="15"/>
+      <c r="A303" s="15"/>
+      <c r="B303" s="15"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14"/>
       <c r="J303" s="3"/>
       <c r="K303" s="11"/>
       <c r="L303" s="4"/>
@@ -14377,15 +14539,15 @@
       <c r="Y303" s="4"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
-      <c r="A304" s="16"/>
-      <c r="B304" s="16"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="15"/>
-      <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
-      <c r="I304" s="15"/>
+      <c r="A304" s="15"/>
+      <c r="B304" s="15"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14"/>
       <c r="J304" s="3"/>
       <c r="K304" s="11"/>
       <c r="L304" s="4"/>
@@ -14404,15 +14566,15 @@
       <c r="Y304" s="4"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
-      <c r="A305" s="16"/>
-      <c r="B305" s="16"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="15"/>
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="15"/>
-      <c r="I305" s="15"/>
+      <c r="A305" s="15"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
       <c r="J305" s="3"/>
       <c r="K305" s="11"/>
       <c r="L305" s="4"/>
@@ -14431,15 +14593,15 @@
       <c r="Y305" s="4"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
-      <c r="A306" s="16"/>
-      <c r="B306" s="16"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="15"/>
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="G306" s="15"/>
-      <c r="H306" s="15"/>
-      <c r="I306" s="15"/>
+      <c r="A306" s="15"/>
+      <c r="B306" s="15"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14"/>
       <c r="J306" s="3"/>
       <c r="K306" s="11"/>
       <c r="L306" s="4"/>
@@ -14458,15 +14620,15 @@
       <c r="Y306" s="4"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="A307" s="16"/>
-      <c r="B307" s="16"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="15"/>
-      <c r="I307" s="15"/>
+      <c r="A307" s="15"/>
+      <c r="B307" s="15"/>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14"/>
       <c r="J307" s="3"/>
       <c r="K307" s="11"/>
       <c r="L307" s="4"/>
@@ -14485,15 +14647,15 @@
       <c r="Y307" s="4"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="A308" s="16"/>
-      <c r="B308" s="16"/>
-      <c r="C308" s="15"/>
-      <c r="D308" s="15"/>
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="G308" s="15"/>
-      <c r="H308" s="15"/>
-      <c r="I308" s="15"/>
+      <c r="A308" s="15"/>
+      <c r="B308" s="15"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14"/>
       <c r="J308" s="3"/>
       <c r="K308" s="11"/>
       <c r="L308" s="4"/>
@@ -14512,15 +14674,15 @@
       <c r="Y308" s="4"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
-      <c r="A309" s="16"/>
-      <c r="B309" s="16"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="G309" s="15"/>
-      <c r="H309" s="15"/>
-      <c r="I309" s="15"/>
+      <c r="A309" s="15"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14"/>
       <c r="J309" s="3"/>
       <c r="K309" s="11"/>
       <c r="L309" s="4"/>
@@ -14539,15 +14701,15 @@
       <c r="Y309" s="4"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
-      <c r="A310" s="16"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="15"/>
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-      <c r="F310" s="15"/>
-      <c r="G310" s="15"/>
-      <c r="H310" s="15"/>
-      <c r="I310" s="15"/>
+      <c r="A310" s="15"/>
+      <c r="B310" s="15"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14"/>
       <c r="J310" s="3"/>
       <c r="K310" s="11"/>
       <c r="L310" s="4"/>
@@ -14566,15 +14728,15 @@
       <c r="Y310" s="4"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
-      <c r="A311" s="16"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="15"/>
-      <c r="D311" s="15"/>
-      <c r="E311" s="15"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
-      <c r="H311" s="15"/>
-      <c r="I311" s="15"/>
+      <c r="A311" s="15"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14"/>
       <c r="J311" s="3"/>
       <c r="K311" s="11"/>
       <c r="L311" s="4"/>
@@ -14593,15 +14755,15 @@
       <c r="Y311" s="4"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
-      <c r="A312" s="16"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="15"/>
-      <c r="D312" s="15"/>
-      <c r="E312" s="15"/>
-      <c r="F312" s="15"/>
-      <c r="G312" s="15"/>
-      <c r="H312" s="15"/>
-      <c r="I312" s="15"/>
+      <c r="A312" s="15"/>
+      <c r="B312" s="15"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14"/>
       <c r="J312" s="3"/>
       <c r="K312" s="11"/>
       <c r="L312" s="4"/>
@@ -14620,15 +14782,15 @@
       <c r="Y312" s="4"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
-      <c r="A313" s="16"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="15"/>
-      <c r="D313" s="15"/>
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
-      <c r="H313" s="15"/>
-      <c r="I313" s="15"/>
+      <c r="A313" s="15"/>
+      <c r="B313" s="15"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
       <c r="J313" s="3"/>
       <c r="K313" s="11"/>
       <c r="L313" s="4"/>
@@ -14647,15 +14809,15 @@
       <c r="Y313" s="4"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
-      <c r="A314" s="16"/>
-      <c r="B314" s="16"/>
-      <c r="C314" s="15"/>
-      <c r="D314" s="15"/>
-      <c r="E314" s="15"/>
-      <c r="F314" s="15"/>
-      <c r="G314" s="15"/>
-      <c r="H314" s="15"/>
-      <c r="I314" s="15"/>
+      <c r="A314" s="15"/>
+      <c r="B314" s="15"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14"/>
       <c r="J314" s="3"/>
       <c r="K314" s="11"/>
       <c r="L314" s="4"/>
@@ -14674,15 +14836,15 @@
       <c r="Y314" s="4"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
-      <c r="A315" s="16"/>
-      <c r="B315" s="16"/>
-      <c r="C315" s="15"/>
-      <c r="D315" s="15"/>
-      <c r="E315" s="15"/>
-      <c r="F315" s="15"/>
-      <c r="G315" s="15"/>
-      <c r="H315" s="15"/>
-      <c r="I315" s="15"/>
+      <c r="A315" s="15"/>
+      <c r="B315" s="15"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14"/>
       <c r="J315" s="3"/>
       <c r="K315" s="11"/>
       <c r="L315" s="4"/>
@@ -14701,15 +14863,15 @@
       <c r="Y315" s="4"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
-      <c r="A316" s="16"/>
-      <c r="B316" s="16"/>
-      <c r="C316" s="15"/>
-      <c r="D316" s="15"/>
-      <c r="E316" s="15"/>
-      <c r="F316" s="15"/>
-      <c r="G316" s="15"/>
-      <c r="H316" s="15"/>
-      <c r="I316" s="15"/>
+      <c r="A316" s="15"/>
+      <c r="B316" s="15"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14"/>
       <c r="J316" s="3"/>
       <c r="K316" s="11"/>
       <c r="L316" s="4"/>
@@ -14728,15 +14890,15 @@
       <c r="Y316" s="4"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
-      <c r="A317" s="16"/>
-      <c r="B317" s="16"/>
-      <c r="C317" s="15"/>
-      <c r="D317" s="15"/>
-      <c r="E317" s="15"/>
-      <c r="F317" s="15"/>
-      <c r="G317" s="15"/>
-      <c r="H317" s="15"/>
-      <c r="I317" s="15"/>
+      <c r="A317" s="15"/>
+      <c r="B317" s="15"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14"/>
       <c r="J317" s="3"/>
       <c r="K317" s="11"/>
       <c r="L317" s="4"/>
@@ -14755,15 +14917,15 @@
       <c r="Y317" s="4"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
-      <c r="A318" s="16"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="15"/>
-      <c r="E318" s="15"/>
-      <c r="F318" s="15"/>
-      <c r="G318" s="15"/>
-      <c r="H318" s="15"/>
-      <c r="I318" s="15"/>
+      <c r="A318" s="15"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14"/>
       <c r="J318" s="3"/>
       <c r="K318" s="11"/>
       <c r="L318" s="4"/>
@@ -14782,15 +14944,15 @@
       <c r="Y318" s="4"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
-      <c r="A319" s="16"/>
-      <c r="B319" s="16"/>
-      <c r="C319" s="15"/>
-      <c r="D319" s="15"/>
-      <c r="E319" s="15"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="15"/>
-      <c r="H319" s="15"/>
-      <c r="I319" s="15"/>
+      <c r="A319" s="15"/>
+      <c r="B319" s="15"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14"/>
       <c r="J319" s="3"/>
       <c r="K319" s="11"/>
       <c r="L319" s="4"/>
@@ -14809,15 +14971,15 @@
       <c r="Y319" s="4"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
-      <c r="A320" s="16"/>
-      <c r="B320" s="16"/>
-      <c r="C320" s="15"/>
-      <c r="D320" s="15"/>
-      <c r="E320" s="15"/>
-      <c r="F320" s="15"/>
-      <c r="G320" s="15"/>
-      <c r="H320" s="15"/>
-      <c r="I320" s="15"/>
+      <c r="A320" s="15"/>
+      <c r="B320" s="15"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14"/>
       <c r="J320" s="3"/>
       <c r="K320" s="11"/>
       <c r="L320" s="4"/>
@@ -14836,15 +14998,15 @@
       <c r="Y320" s="4"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
-      <c r="A321" s="16"/>
-      <c r="B321" s="16"/>
-      <c r="C321" s="15"/>
-      <c r="D321" s="15"/>
-      <c r="E321" s="15"/>
-      <c r="F321" s="15"/>
-      <c r="G321" s="15"/>
-      <c r="H321" s="15"/>
-      <c r="I321" s="15"/>
+      <c r="A321" s="15"/>
+      <c r="B321" s="15"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="14"/>
       <c r="J321" s="3"/>
       <c r="K321" s="11"/>
       <c r="L321" s="4"/>
@@ -14863,15 +15025,15 @@
       <c r="Y321" s="4"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
-      <c r="A322" s="16"/>
-      <c r="B322" s="16"/>
-      <c r="C322" s="15"/>
-      <c r="D322" s="15"/>
-      <c r="E322" s="15"/>
-      <c r="F322" s="15"/>
-      <c r="G322" s="15"/>
-      <c r="H322" s="15"/>
-      <c r="I322" s="15"/>
+      <c r="A322" s="15"/>
+      <c r="B322" s="15"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="14"/>
+      <c r="I322" s="14"/>
       <c r="J322" s="3"/>
       <c r="K322" s="11"/>
       <c r="L322" s="4"/>
@@ -14890,15 +15052,15 @@
       <c r="Y322" s="4"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
-      <c r="A323" s="16"/>
-      <c r="B323" s="16"/>
-      <c r="C323" s="15"/>
-      <c r="D323" s="15"/>
-      <c r="E323" s="15"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="15"/>
-      <c r="H323" s="15"/>
-      <c r="I323" s="15"/>
+      <c r="A323" s="15"/>
+      <c r="B323" s="15"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
       <c r="J323" s="3"/>
       <c r="K323" s="11"/>
       <c r="L323" s="4"/>
@@ -14917,15 +15079,15 @@
       <c r="Y323" s="4"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
-      <c r="A324" s="16"/>
-      <c r="B324" s="16"/>
-      <c r="C324" s="15"/>
-      <c r="D324" s="15"/>
-      <c r="E324" s="15"/>
-      <c r="F324" s="15"/>
-      <c r="G324" s="15"/>
-      <c r="H324" s="15"/>
-      <c r="I324" s="15"/>
+      <c r="A324" s="15"/>
+      <c r="B324" s="15"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
       <c r="J324" s="3"/>
       <c r="K324" s="11"/>
       <c r="L324" s="4"/>
@@ -14944,15 +15106,15 @@
       <c r="Y324" s="4"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
-      <c r="A325" s="16"/>
-      <c r="B325" s="16"/>
-      <c r="C325" s="15"/>
-      <c r="D325" s="15"/>
-      <c r="E325" s="15"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15"/>
-      <c r="H325" s="15"/>
-      <c r="I325" s="15"/>
+      <c r="A325" s="15"/>
+      <c r="B325" s="15"/>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="14"/>
+      <c r="H325" s="14"/>
+      <c r="I325" s="14"/>
       <c r="J325" s="3"/>
       <c r="K325" s="11"/>
       <c r="L325" s="4"/>
@@ -14971,15 +15133,15 @@
       <c r="Y325" s="4"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
-      <c r="A326" s="16"/>
-      <c r="B326" s="16"/>
-      <c r="C326" s="15"/>
-      <c r="D326" s="15"/>
-      <c r="E326" s="15"/>
-      <c r="F326" s="15"/>
-      <c r="G326" s="15"/>
-      <c r="H326" s="15"/>
-      <c r="I326" s="15"/>
+      <c r="A326" s="15"/>
+      <c r="B326" s="15"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="14"/>
+      <c r="H326" s="14"/>
+      <c r="I326" s="14"/>
       <c r="J326" s="3"/>
       <c r="K326" s="11"/>
       <c r="L326" s="4"/>
@@ -14998,15 +15160,15 @@
       <c r="Y326" s="4"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="A327" s="16"/>
-      <c r="B327" s="16"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="15"/>
-      <c r="E327" s="15"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
-      <c r="H327" s="15"/>
-      <c r="I327" s="15"/>
+      <c r="A327" s="15"/>
+      <c r="B327" s="15"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
+      <c r="H327" s="14"/>
+      <c r="I327" s="14"/>
       <c r="J327" s="3"/>
       <c r="K327" s="11"/>
       <c r="L327" s="4"/>
@@ -15025,15 +15187,15 @@
       <c r="Y327" s="4"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
-      <c r="A328" s="16"/>
-      <c r="B328" s="16"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="15"/>
-      <c r="E328" s="15"/>
-      <c r="F328" s="15"/>
-      <c r="G328" s="15"/>
-      <c r="H328" s="15"/>
-      <c r="I328" s="15"/>
+      <c r="A328" s="15"/>
+      <c r="B328" s="15"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="14"/>
+      <c r="H328" s="14"/>
+      <c r="I328" s="14"/>
       <c r="J328" s="3"/>
       <c r="K328" s="11"/>
       <c r="L328" s="4"/>
@@ -15052,15 +15214,15 @@
       <c r="Y328" s="4"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
-      <c r="A329" s="16"/>
-      <c r="B329" s="16"/>
-      <c r="C329" s="15"/>
-      <c r="D329" s="15"/>
-      <c r="E329" s="15"/>
-      <c r="F329" s="15"/>
-      <c r="G329" s="15"/>
-      <c r="H329" s="15"/>
-      <c r="I329" s="15"/>
+      <c r="A329" s="15"/>
+      <c r="B329" s="15"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="14"/>
+      <c r="H329" s="14"/>
+      <c r="I329" s="14"/>
       <c r="J329" s="3"/>
       <c r="K329" s="11"/>
       <c r="L329" s="4"/>
@@ -15079,15 +15241,15 @@
       <c r="Y329" s="4"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
-      <c r="A330" s="16"/>
-      <c r="B330" s="16"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="15"/>
-      <c r="E330" s="15"/>
-      <c r="F330" s="15"/>
-      <c r="G330" s="15"/>
-      <c r="H330" s="15"/>
-      <c r="I330" s="15"/>
+      <c r="A330" s="15"/>
+      <c r="B330" s="15"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="14"/>
+      <c r="H330" s="14"/>
+      <c r="I330" s="14"/>
       <c r="J330" s="3"/>
       <c r="K330" s="11"/>
       <c r="L330" s="4"/>
@@ -15106,15 +15268,15 @@
       <c r="Y330" s="4"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
-      <c r="A331" s="16"/>
-      <c r="B331" s="16"/>
-      <c r="C331" s="15"/>
-      <c r="D331" s="15"/>
-      <c r="E331" s="15"/>
-      <c r="F331" s="15"/>
-      <c r="G331" s="15"/>
-      <c r="H331" s="15"/>
-      <c r="I331" s="15"/>
+      <c r="A331" s="15"/>
+      <c r="B331" s="15"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="14"/>
+      <c r="I331" s="14"/>
       <c r="J331" s="3"/>
       <c r="K331" s="11"/>
       <c r="L331" s="4"/>
@@ -15133,15 +15295,15 @@
       <c r="Y331" s="4"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
-      <c r="A332" s="16"/>
-      <c r="B332" s="16"/>
-      <c r="C332" s="15"/>
-      <c r="D332" s="15"/>
-      <c r="E332" s="15"/>
-      <c r="F332" s="15"/>
-      <c r="G332" s="15"/>
-      <c r="H332" s="15"/>
-      <c r="I332" s="15"/>
+      <c r="A332" s="15"/>
+      <c r="B332" s="15"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="14"/>
+      <c r="F332" s="14"/>
+      <c r="G332" s="14"/>
+      <c r="H332" s="14"/>
+      <c r="I332" s="14"/>
       <c r="J332" s="3"/>
       <c r="K332" s="11"/>
       <c r="L332" s="4"/>
@@ -15160,15 +15322,15 @@
       <c r="Y332" s="4"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
-      <c r="A333" s="16"/>
-      <c r="B333" s="16"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="15"/>
-      <c r="E333" s="15"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="15"/>
-      <c r="H333" s="15"/>
-      <c r="I333" s="15"/>
+      <c r="A333" s="15"/>
+      <c r="B333" s="15"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="14"/>
+      <c r="H333" s="14"/>
+      <c r="I333" s="14"/>
       <c r="J333" s="3"/>
       <c r="K333" s="11"/>
       <c r="L333" s="4"/>
@@ -15187,15 +15349,15 @@
       <c r="Y333" s="4"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
-      <c r="A334" s="16"/>
-      <c r="B334" s="16"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="15"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="15"/>
-      <c r="H334" s="15"/>
-      <c r="I334" s="15"/>
+      <c r="A334" s="15"/>
+      <c r="B334" s="15"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="14"/>
+      <c r="H334" s="14"/>
+      <c r="I334" s="14"/>
       <c r="J334" s="3"/>
       <c r="K334" s="11"/>
       <c r="L334" s="4"/>
@@ -15214,15 +15376,15 @@
       <c r="Y334" s="4"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
-      <c r="A335" s="16"/>
-      <c r="B335" s="16"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="15"/>
-      <c r="E335" s="15"/>
-      <c r="F335" s="15"/>
-      <c r="G335" s="15"/>
-      <c r="H335" s="15"/>
-      <c r="I335" s="15"/>
+      <c r="A335" s="15"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
+      <c r="E335" s="14"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="14"/>
+      <c r="H335" s="14"/>
+      <c r="I335" s="14"/>
       <c r="J335" s="3"/>
       <c r="K335" s="11"/>
       <c r="L335" s="4"/>
@@ -15241,15 +15403,15 @@
       <c r="Y335" s="4"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
-      <c r="A336" s="16"/>
-      <c r="B336" s="16"/>
-      <c r="C336" s="15"/>
-      <c r="D336" s="15"/>
-      <c r="E336" s="15"/>
-      <c r="F336" s="15"/>
-      <c r="G336" s="15"/>
-      <c r="H336" s="15"/>
-      <c r="I336" s="15"/>
+      <c r="A336" s="15"/>
+      <c r="B336" s="15"/>
+      <c r="C336" s="14"/>
+      <c r="D336" s="14"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="14"/>
+      <c r="G336" s="14"/>
+      <c r="H336" s="14"/>
+      <c r="I336" s="14"/>
       <c r="J336" s="3"/>
       <c r="K336" s="11"/>
       <c r="L336" s="4"/>
@@ -15268,15 +15430,15 @@
       <c r="Y336" s="4"/>
     </row>
     <row r="337" ht="12.75" customHeight="1">
-      <c r="A337" s="16"/>
-      <c r="B337" s="16"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="15"/>
-      <c r="E337" s="15"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="15"/>
-      <c r="I337" s="15"/>
+      <c r="A337" s="15"/>
+      <c r="B337" s="15"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="14"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="14"/>
+      <c r="H337" s="14"/>
+      <c r="I337" s="14"/>
       <c r="J337" s="3"/>
       <c r="K337" s="11"/>
       <c r="L337" s="4"/>
@@ -15295,15 +15457,15 @@
       <c r="Y337" s="4"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
-      <c r="A338" s="16"/>
-      <c r="B338" s="16"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="15"/>
-      <c r="E338" s="15"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15"/>
-      <c r="H338" s="15"/>
-      <c r="I338" s="15"/>
+      <c r="A338" s="15"/>
+      <c r="B338" s="15"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="14"/>
+      <c r="F338" s="14"/>
+      <c r="G338" s="14"/>
+      <c r="H338" s="14"/>
+      <c r="I338" s="14"/>
       <c r="J338" s="3"/>
       <c r="K338" s="11"/>
       <c r="L338" s="4"/>
@@ -15322,15 +15484,15 @@
       <c r="Y338" s="4"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
-      <c r="A339" s="16"/>
-      <c r="B339" s="16"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="15"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="15"/>
-      <c r="I339" s="15"/>
+      <c r="A339" s="15"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="14"/>
+      <c r="H339" s="14"/>
+      <c r="I339" s="14"/>
       <c r="J339" s="3"/>
       <c r="K339" s="11"/>
       <c r="L339" s="4"/>
@@ -15349,15 +15511,15 @@
       <c r="Y339" s="4"/>
     </row>
     <row r="340" ht="12.75" customHeight="1">
-      <c r="A340" s="16"/>
-      <c r="B340" s="16"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="15"/>
-      <c r="E340" s="15"/>
-      <c r="F340" s="15"/>
-      <c r="G340" s="15"/>
-      <c r="H340" s="15"/>
-      <c r="I340" s="15"/>
+      <c r="A340" s="15"/>
+      <c r="B340" s="15"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="14"/>
+      <c r="F340" s="14"/>
+      <c r="G340" s="14"/>
+      <c r="H340" s="14"/>
+      <c r="I340" s="14"/>
       <c r="J340" s="3"/>
       <c r="K340" s="11"/>
       <c r="L340" s="4"/>
@@ -15376,15 +15538,15 @@
       <c r="Y340" s="4"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
-      <c r="A341" s="16"/>
-      <c r="B341" s="16"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="15"/>
-      <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="15"/>
-      <c r="I341" s="15"/>
+      <c r="A341" s="15"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="14"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="14"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="14"/>
+      <c r="H341" s="14"/>
+      <c r="I341" s="14"/>
       <c r="J341" s="3"/>
       <c r="K341" s="11"/>
       <c r="L341" s="4"/>
@@ -15403,15 +15565,15 @@
       <c r="Y341" s="4"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
-      <c r="A342" s="16"/>
-      <c r="B342" s="16"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="15"/>
-      <c r="E342" s="15"/>
-      <c r="F342" s="15"/>
-      <c r="G342" s="15"/>
-      <c r="H342" s="15"/>
-      <c r="I342" s="15"/>
+      <c r="A342" s="15"/>
+      <c r="B342" s="15"/>
+      <c r="C342" s="14"/>
+      <c r="D342" s="14"/>
+      <c r="E342" s="14"/>
+      <c r="F342" s="14"/>
+      <c r="G342" s="14"/>
+      <c r="H342" s="14"/>
+      <c r="I342" s="14"/>
       <c r="J342" s="3"/>
       <c r="K342" s="11"/>
       <c r="L342" s="4"/>
@@ -15430,15 +15592,15 @@
       <c r="Y342" s="4"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
-      <c r="A343" s="16"/>
-      <c r="B343" s="16"/>
-      <c r="C343" s="15"/>
-      <c r="D343" s="15"/>
-      <c r="E343" s="15"/>
-      <c r="F343" s="15"/>
-      <c r="G343" s="15"/>
-      <c r="H343" s="15"/>
-      <c r="I343" s="15"/>
+      <c r="A343" s="15"/>
+      <c r="B343" s="15"/>
+      <c r="C343" s="14"/>
+      <c r="D343" s="14"/>
+      <c r="E343" s="14"/>
+      <c r="F343" s="14"/>
+      <c r="G343" s="14"/>
+      <c r="H343" s="14"/>
+      <c r="I343" s="14"/>
       <c r="J343" s="3"/>
       <c r="K343" s="11"/>
       <c r="L343" s="4"/>
@@ -15457,15 +15619,15 @@
       <c r="Y343" s="4"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
-      <c r="A344" s="16"/>
-      <c r="B344" s="16"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="15"/>
-      <c r="E344" s="15"/>
-      <c r="F344" s="15"/>
-      <c r="G344" s="15"/>
-      <c r="H344" s="15"/>
-      <c r="I344" s="15"/>
+      <c r="A344" s="15"/>
+      <c r="B344" s="15"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="14"/>
+      <c r="E344" s="14"/>
+      <c r="F344" s="14"/>
+      <c r="G344" s="14"/>
+      <c r="H344" s="14"/>
+      <c r="I344" s="14"/>
       <c r="J344" s="3"/>
       <c r="K344" s="11"/>
       <c r="L344" s="4"/>
@@ -15484,15 +15646,15 @@
       <c r="Y344" s="4"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
-      <c r="A345" s="16"/>
-      <c r="B345" s="16"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="15"/>
-      <c r="E345" s="15"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
-      <c r="H345" s="15"/>
-      <c r="I345" s="15"/>
+      <c r="A345" s="15"/>
+      <c r="B345" s="15"/>
+      <c r="C345" s="14"/>
+      <c r="D345" s="14"/>
+      <c r="E345" s="14"/>
+      <c r="F345" s="14"/>
+      <c r="G345" s="14"/>
+      <c r="H345" s="14"/>
+      <c r="I345" s="14"/>
       <c r="J345" s="3"/>
       <c r="K345" s="11"/>
       <c r="L345" s="4"/>
@@ -15511,15 +15673,15 @@
       <c r="Y345" s="4"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="A346" s="16"/>
-      <c r="B346" s="16"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="15"/>
-      <c r="E346" s="15"/>
-      <c r="F346" s="15"/>
-      <c r="G346" s="15"/>
-      <c r="H346" s="15"/>
-      <c r="I346" s="15"/>
+      <c r="A346" s="15"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="14"/>
+      <c r="F346" s="14"/>
+      <c r="G346" s="14"/>
+      <c r="H346" s="14"/>
+      <c r="I346" s="14"/>
       <c r="J346" s="3"/>
       <c r="K346" s="11"/>
       <c r="L346" s="4"/>
@@ -15538,15 +15700,15 @@
       <c r="Y346" s="4"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="A347" s="16"/>
-      <c r="B347" s="16"/>
-      <c r="C347" s="15"/>
-      <c r="D347" s="15"/>
-      <c r="E347" s="15"/>
-      <c r="F347" s="15"/>
-      <c r="G347" s="15"/>
-      <c r="H347" s="15"/>
-      <c r="I347" s="15"/>
+      <c r="A347" s="15"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="14"/>
+      <c r="D347" s="14"/>
+      <c r="E347" s="14"/>
+      <c r="F347" s="14"/>
+      <c r="G347" s="14"/>
+      <c r="H347" s="14"/>
+      <c r="I347" s="14"/>
       <c r="J347" s="3"/>
       <c r="K347" s="11"/>
       <c r="L347" s="4"/>
@@ -15565,15 +15727,15 @@
       <c r="Y347" s="4"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
-      <c r="A348" s="16"/>
-      <c r="B348" s="16"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="15"/>
-      <c r="E348" s="15"/>
-      <c r="F348" s="15"/>
-      <c r="G348" s="15"/>
-      <c r="H348" s="15"/>
-      <c r="I348" s="15"/>
+      <c r="A348" s="15"/>
+      <c r="B348" s="15"/>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14"/>
+      <c r="E348" s="14"/>
+      <c r="F348" s="14"/>
+      <c r="G348" s="14"/>
+      <c r="H348" s="14"/>
+      <c r="I348" s="14"/>
       <c r="J348" s="3"/>
       <c r="K348" s="11"/>
       <c r="L348" s="4"/>
@@ -15592,15 +15754,15 @@
       <c r="Y348" s="4"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
-      <c r="A349" s="16"/>
-      <c r="B349" s="16"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="15"/>
-      <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
-      <c r="H349" s="15"/>
-      <c r="I349" s="15"/>
+      <c r="A349" s="15"/>
+      <c r="B349" s="15"/>
+      <c r="C349" s="14"/>
+      <c r="D349" s="14"/>
+      <c r="E349" s="14"/>
+      <c r="F349" s="14"/>
+      <c r="G349" s="14"/>
+      <c r="H349" s="14"/>
+      <c r="I349" s="14"/>
       <c r="J349" s="3"/>
       <c r="K349" s="11"/>
       <c r="L349" s="4"/>
@@ -15619,15 +15781,15 @@
       <c r="Y349" s="4"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
-      <c r="A350" s="16"/>
-      <c r="B350" s="16"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="15"/>
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="15"/>
-      <c r="I350" s="15"/>
+      <c r="A350" s="15"/>
+      <c r="B350" s="15"/>
+      <c r="C350" s="14"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="14"/>
+      <c r="F350" s="14"/>
+      <c r="G350" s="14"/>
+      <c r="H350" s="14"/>
+      <c r="I350" s="14"/>
       <c r="J350" s="3"/>
       <c r="K350" s="11"/>
       <c r="L350" s="4"/>
@@ -15646,15 +15808,15 @@
       <c r="Y350" s="4"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
-      <c r="A351" s="16"/>
-      <c r="B351" s="16"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
-      <c r="I351" s="15"/>
+      <c r="A351" s="15"/>
+      <c r="B351" s="15"/>
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="14"/>
+      <c r="F351" s="14"/>
+      <c r="G351" s="14"/>
+      <c r="H351" s="14"/>
+      <c r="I351" s="14"/>
       <c r="J351" s="3"/>
       <c r="K351" s="11"/>
       <c r="L351" s="4"/>
@@ -15673,15 +15835,15 @@
       <c r="Y351" s="4"/>
     </row>
     <row r="352" ht="12.75" customHeight="1">
-      <c r="A352" s="16"/>
-      <c r="B352" s="16"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
-      <c r="H352" s="15"/>
-      <c r="I352" s="15"/>
+      <c r="A352" s="15"/>
+      <c r="B352" s="15"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="14"/>
+      <c r="F352" s="14"/>
+      <c r="G352" s="14"/>
+      <c r="H352" s="14"/>
+      <c r="I352" s="14"/>
       <c r="J352" s="3"/>
       <c r="K352" s="11"/>
       <c r="L352" s="4"/>
@@ -15700,15 +15862,15 @@
       <c r="Y352" s="4"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
-      <c r="A353" s="16"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="15"/>
-      <c r="D353" s="15"/>
-      <c r="E353" s="15"/>
-      <c r="F353" s="15"/>
-      <c r="G353" s="15"/>
-      <c r="H353" s="15"/>
-      <c r="I353" s="15"/>
+      <c r="A353" s="15"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="14"/>
+      <c r="F353" s="14"/>
+      <c r="G353" s="14"/>
+      <c r="H353" s="14"/>
+      <c r="I353" s="14"/>
       <c r="J353" s="3"/>
       <c r="K353" s="11"/>
       <c r="L353" s="4"/>
@@ -15727,15 +15889,15 @@
       <c r="Y353" s="4"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
-      <c r="A354" s="16"/>
-      <c r="B354" s="16"/>
-      <c r="C354" s="15"/>
-      <c r="D354" s="15"/>
-      <c r="E354" s="15"/>
-      <c r="F354" s="15"/>
-      <c r="G354" s="15"/>
-      <c r="H354" s="15"/>
-      <c r="I354" s="15"/>
+      <c r="A354" s="15"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="14"/>
+      <c r="F354" s="14"/>
+      <c r="G354" s="14"/>
+      <c r="H354" s="14"/>
+      <c r="I354" s="14"/>
       <c r="J354" s="3"/>
       <c r="K354" s="11"/>
       <c r="L354" s="4"/>
@@ -15754,15 +15916,15 @@
       <c r="Y354" s="4"/>
     </row>
     <row r="355" ht="12.75" customHeight="1">
-      <c r="A355" s="16"/>
-      <c r="B355" s="16"/>
-      <c r="C355" s="15"/>
-      <c r="D355" s="15"/>
-      <c r="E355" s="15"/>
-      <c r="F355" s="15"/>
-      <c r="G355" s="15"/>
-      <c r="H355" s="15"/>
-      <c r="I355" s="15"/>
+      <c r="A355" s="15"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="14"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="14"/>
+      <c r="F355" s="14"/>
+      <c r="G355" s="14"/>
+      <c r="H355" s="14"/>
+      <c r="I355" s="14"/>
       <c r="J355" s="3"/>
       <c r="K355" s="11"/>
       <c r="L355" s="4"/>
@@ -15781,15 +15943,15 @@
       <c r="Y355" s="4"/>
     </row>
     <row r="356" ht="12.75" customHeight="1">
-      <c r="A356" s="16"/>
-      <c r="B356" s="16"/>
-      <c r="C356" s="15"/>
-      <c r="D356" s="15"/>
-      <c r="E356" s="15"/>
-      <c r="F356" s="15"/>
-      <c r="G356" s="15"/>
-      <c r="H356" s="15"/>
-      <c r="I356" s="15"/>
+      <c r="A356" s="15"/>
+      <c r="B356" s="15"/>
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="E356" s="14"/>
+      <c r="F356" s="14"/>
+      <c r="G356" s="14"/>
+      <c r="H356" s="14"/>
+      <c r="I356" s="14"/>
       <c r="J356" s="3"/>
       <c r="K356" s="11"/>
       <c r="L356" s="4"/>
@@ -15808,15 +15970,15 @@
       <c r="Y356" s="4"/>
     </row>
     <row r="357" ht="12.75" customHeight="1">
-      <c r="A357" s="16"/>
-      <c r="B357" s="16"/>
-      <c r="C357" s="15"/>
-      <c r="D357" s="15"/>
-      <c r="E357" s="15"/>
-      <c r="F357" s="15"/>
-      <c r="G357" s="15"/>
-      <c r="H357" s="15"/>
-      <c r="I357" s="15"/>
+      <c r="A357" s="15"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="14"/>
+      <c r="F357" s="14"/>
+      <c r="G357" s="14"/>
+      <c r="H357" s="14"/>
+      <c r="I357" s="14"/>
       <c r="J357" s="3"/>
       <c r="K357" s="11"/>
       <c r="L357" s="4"/>
@@ -15835,15 +15997,15 @@
       <c r="Y357" s="4"/>
     </row>
     <row r="358" ht="12.75" customHeight="1">
-      <c r="A358" s="16"/>
-      <c r="B358" s="16"/>
-      <c r="C358" s="15"/>
-      <c r="D358" s="15"/>
-      <c r="E358" s="15"/>
-      <c r="F358" s="15"/>
-      <c r="G358" s="15"/>
-      <c r="H358" s="15"/>
-      <c r="I358" s="15"/>
+      <c r="A358" s="15"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="14"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="14"/>
+      <c r="H358" s="14"/>
+      <c r="I358" s="14"/>
       <c r="J358" s="3"/>
       <c r="K358" s="11"/>
       <c r="L358" s="4"/>
@@ -15862,15 +16024,15 @@
       <c r="Y358" s="4"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
-      <c r="A359" s="16"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="15"/>
-      <c r="D359" s="15"/>
-      <c r="E359" s="15"/>
-      <c r="F359" s="15"/>
-      <c r="G359" s="15"/>
-      <c r="H359" s="15"/>
-      <c r="I359" s="15"/>
+      <c r="A359" s="15"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="14"/>
+      <c r="F359" s="14"/>
+      <c r="G359" s="14"/>
+      <c r="H359" s="14"/>
+      <c r="I359" s="14"/>
       <c r="J359" s="3"/>
       <c r="K359" s="11"/>
       <c r="L359" s="4"/>
@@ -15889,15 +16051,15 @@
       <c r="Y359" s="4"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
-      <c r="A360" s="16"/>
-      <c r="B360" s="16"/>
-      <c r="C360" s="15"/>
-      <c r="D360" s="15"/>
-      <c r="E360" s="15"/>
-      <c r="F360" s="15"/>
-      <c r="G360" s="15"/>
-      <c r="H360" s="15"/>
-      <c r="I360" s="15"/>
+      <c r="A360" s="15"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="14"/>
+      <c r="F360" s="14"/>
+      <c r="G360" s="14"/>
+      <c r="H360" s="14"/>
+      <c r="I360" s="14"/>
       <c r="J360" s="3"/>
       <c r="K360" s="11"/>
       <c r="L360" s="4"/>
@@ -15916,15 +16078,15 @@
       <c r="Y360" s="4"/>
     </row>
     <row r="361" ht="12.75" customHeight="1">
-      <c r="A361" s="16"/>
-      <c r="B361" s="16"/>
-      <c r="C361" s="15"/>
-      <c r="D361" s="15"/>
-      <c r="E361" s="15"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
-      <c r="H361" s="15"/>
-      <c r="I361" s="15"/>
+      <c r="A361" s="15"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="14"/>
+      <c r="F361" s="14"/>
+      <c r="G361" s="14"/>
+      <c r="H361" s="14"/>
+      <c r="I361" s="14"/>
       <c r="J361" s="3"/>
       <c r="K361" s="11"/>
       <c r="L361" s="4"/>
@@ -15943,15 +16105,15 @@
       <c r="Y361" s="4"/>
     </row>
     <row r="362" ht="12.75" customHeight="1">
-      <c r="A362" s="16"/>
-      <c r="B362" s="16"/>
-      <c r="C362" s="15"/>
-      <c r="D362" s="15"/>
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="15"/>
-      <c r="H362" s="15"/>
-      <c r="I362" s="15"/>
+      <c r="A362" s="15"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="E362" s="14"/>
+      <c r="F362" s="14"/>
+      <c r="G362" s="14"/>
+      <c r="H362" s="14"/>
+      <c r="I362" s="14"/>
       <c r="J362" s="3"/>
       <c r="K362" s="11"/>
       <c r="L362" s="4"/>
@@ -15970,15 +16132,15 @@
       <c r="Y362" s="4"/>
     </row>
     <row r="363" ht="12.75" customHeight="1">
-      <c r="A363" s="16"/>
-      <c r="B363" s="16"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="15"/>
-      <c r="E363" s="15"/>
-      <c r="F363" s="15"/>
-      <c r="G363" s="15"/>
-      <c r="H363" s="15"/>
-      <c r="I363" s="15"/>
+      <c r="A363" s="15"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="14"/>
+      <c r="F363" s="14"/>
+      <c r="G363" s="14"/>
+      <c r="H363" s="14"/>
+      <c r="I363" s="14"/>
       <c r="J363" s="3"/>
       <c r="K363" s="11"/>
       <c r="L363" s="4"/>
@@ -15997,15 +16159,15 @@
       <c r="Y363" s="4"/>
     </row>
     <row r="364" ht="12.75" customHeight="1">
-      <c r="A364" s="16"/>
-      <c r="B364" s="16"/>
-      <c r="C364" s="15"/>
-      <c r="D364" s="15"/>
-      <c r="E364" s="15"/>
-      <c r="F364" s="15"/>
-      <c r="G364" s="15"/>
-      <c r="H364" s="15"/>
-      <c r="I364" s="15"/>
+      <c r="A364" s="15"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="14"/>
+      <c r="F364" s="14"/>
+      <c r="G364" s="14"/>
+      <c r="H364" s="14"/>
+      <c r="I364" s="14"/>
       <c r="J364" s="3"/>
       <c r="K364" s="11"/>
       <c r="L364" s="4"/>
@@ -16024,15 +16186,15 @@
       <c r="Y364" s="4"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
-      <c r="A365" s="16"/>
-      <c r="B365" s="16"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="15"/>
-      <c r="E365" s="15"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="15"/>
-      <c r="I365" s="15"/>
+      <c r="A365" s="15"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="14"/>
+      <c r="D365" s="14"/>
+      <c r="E365" s="14"/>
+      <c r="F365" s="14"/>
+      <c r="G365" s="14"/>
+      <c r="H365" s="14"/>
+      <c r="I365" s="14"/>
       <c r="J365" s="3"/>
       <c r="K365" s="11"/>
       <c r="L365" s="4"/>
@@ -16051,15 +16213,15 @@
       <c r="Y365" s="4"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
-      <c r="A366" s="16"/>
-      <c r="B366" s="16"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="15"/>
-      <c r="I366" s="15"/>
+      <c r="A366" s="15"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+      <c r="E366" s="14"/>
+      <c r="F366" s="14"/>
+      <c r="G366" s="14"/>
+      <c r="H366" s="14"/>
+      <c r="I366" s="14"/>
       <c r="J366" s="3"/>
       <c r="K366" s="11"/>
       <c r="L366" s="4"/>
@@ -16078,15 +16240,15 @@
       <c r="Y366" s="4"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
-      <c r="A367" s="16"/>
-      <c r="B367" s="16"/>
-      <c r="C367" s="15"/>
-      <c r="D367" s="15"/>
-      <c r="E367" s="15"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="15"/>
-      <c r="I367" s="15"/>
+      <c r="A367" s="15"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="14"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="14"/>
+      <c r="F367" s="14"/>
+      <c r="G367" s="14"/>
+      <c r="H367" s="14"/>
+      <c r="I367" s="14"/>
       <c r="J367" s="3"/>
       <c r="K367" s="11"/>
       <c r="L367" s="4"/>
@@ -16105,15 +16267,15 @@
       <c r="Y367" s="4"/>
     </row>
     <row r="368" ht="12.75" customHeight="1">
-      <c r="A368" s="16"/>
-      <c r="B368" s="16"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
-      <c r="I368" s="15"/>
+      <c r="A368" s="15"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="14"/>
+      <c r="F368" s="14"/>
+      <c r="G368" s="14"/>
+      <c r="H368" s="14"/>
+      <c r="I368" s="14"/>
       <c r="J368" s="3"/>
       <c r="K368" s="11"/>
       <c r="L368" s="4"/>
@@ -16132,15 +16294,15 @@
       <c r="Y368" s="4"/>
     </row>
     <row r="369" ht="12.75" customHeight="1">
-      <c r="A369" s="16"/>
-      <c r="B369" s="16"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="15"/>
+      <c r="A369" s="15"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="14"/>
+      <c r="F369" s="14"/>
+      <c r="G369" s="14"/>
+      <c r="H369" s="14"/>
+      <c r="I369" s="14"/>
       <c r="J369" s="3"/>
       <c r="K369" s="11"/>
       <c r="L369" s="4"/>
@@ -16159,15 +16321,15 @@
       <c r="Y369" s="4"/>
     </row>
     <row r="370" ht="12.75" customHeight="1">
-      <c r="A370" s="16"/>
-      <c r="B370" s="16"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
-      <c r="I370" s="15"/>
+      <c r="A370" s="15"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="14"/>
+      <c r="F370" s="14"/>
+      <c r="G370" s="14"/>
+      <c r="H370" s="14"/>
+      <c r="I370" s="14"/>
       <c r="J370" s="3"/>
       <c r="K370" s="11"/>
       <c r="L370" s="4"/>
@@ -16186,15 +16348,15 @@
       <c r="Y370" s="4"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
-      <c r="A371" s="16"/>
-      <c r="B371" s="16"/>
-      <c r="C371" s="15"/>
-      <c r="D371" s="15"/>
-      <c r="E371" s="15"/>
-      <c r="F371" s="15"/>
-      <c r="G371" s="15"/>
-      <c r="H371" s="15"/>
-      <c r="I371" s="15"/>
+      <c r="A371" s="15"/>
+      <c r="B371" s="15"/>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="14"/>
+      <c r="F371" s="14"/>
+      <c r="G371" s="14"/>
+      <c r="H371" s="14"/>
+      <c r="I371" s="14"/>
       <c r="J371" s="3"/>
       <c r="K371" s="11"/>
       <c r="L371" s="4"/>
@@ -16213,15 +16375,15 @@
       <c r="Y371" s="4"/>
     </row>
     <row r="372" ht="12.75" customHeight="1">
-      <c r="A372" s="16"/>
-      <c r="B372" s="16"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="15"/>
-      <c r="E372" s="15"/>
-      <c r="F372" s="15"/>
-      <c r="G372" s="15"/>
-      <c r="H372" s="15"/>
-      <c r="I372" s="15"/>
+      <c r="A372" s="15"/>
+      <c r="B372" s="15"/>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="14"/>
+      <c r="F372" s="14"/>
+      <c r="G372" s="14"/>
+      <c r="H372" s="14"/>
+      <c r="I372" s="14"/>
       <c r="J372" s="3"/>
       <c r="K372" s="11"/>
       <c r="L372" s="4"/>
@@ -16240,15 +16402,15 @@
       <c r="Y372" s="4"/>
     </row>
     <row r="373" ht="12.75" customHeight="1">
-      <c r="A373" s="16"/>
-      <c r="B373" s="16"/>
-      <c r="C373" s="15"/>
-      <c r="D373" s="15"/>
-      <c r="E373" s="15"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="15"/>
-      <c r="H373" s="15"/>
-      <c r="I373" s="15"/>
+      <c r="A373" s="15"/>
+      <c r="B373" s="15"/>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="14"/>
+      <c r="F373" s="14"/>
+      <c r="G373" s="14"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="14"/>
       <c r="J373" s="3"/>
       <c r="K373" s="11"/>
       <c r="L373" s="4"/>
@@ -16267,15 +16429,15 @@
       <c r="Y373" s="4"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
-      <c r="A374" s="16"/>
-      <c r="B374" s="16"/>
-      <c r="C374" s="15"/>
-      <c r="D374" s="15"/>
-      <c r="E374" s="15"/>
-      <c r="F374" s="15"/>
-      <c r="G374" s="15"/>
-      <c r="H374" s="15"/>
-      <c r="I374" s="15"/>
+      <c r="A374" s="15"/>
+      <c r="B374" s="15"/>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="14"/>
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
+      <c r="H374" s="14"/>
+      <c r="I374" s="14"/>
       <c r="J374" s="3"/>
       <c r="K374" s="11"/>
       <c r="L374" s="4"/>
@@ -16294,15 +16456,15 @@
       <c r="Y374" s="4"/>
     </row>
     <row r="375" ht="12.75" customHeight="1">
-      <c r="A375" s="16"/>
-      <c r="B375" s="16"/>
-      <c r="C375" s="15"/>
-      <c r="D375" s="15"/>
-      <c r="E375" s="15"/>
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
-      <c r="H375" s="15"/>
-      <c r="I375" s="15"/>
+      <c r="A375" s="15"/>
+      <c r="B375" s="15"/>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
+      <c r="H375" s="14"/>
+      <c r="I375" s="14"/>
       <c r="J375" s="3"/>
       <c r="K375" s="11"/>
       <c r="L375" s="4"/>
@@ -16321,15 +16483,15 @@
       <c r="Y375" s="4"/>
     </row>
     <row r="376" ht="12.75" customHeight="1">
-      <c r="A376" s="16"/>
-      <c r="B376" s="16"/>
-      <c r="C376" s="15"/>
-      <c r="D376" s="15"/>
-      <c r="E376" s="15"/>
-      <c r="F376" s="15"/>
-      <c r="G376" s="15"/>
-      <c r="H376" s="15"/>
-      <c r="I376" s="15"/>
+      <c r="A376" s="15"/>
+      <c r="B376" s="15"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="14"/>
+      <c r="G376" s="14"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="14"/>
       <c r="J376" s="3"/>
       <c r="K376" s="11"/>
       <c r="L376" s="4"/>
@@ -16348,15 +16510,15 @@
       <c r="Y376" s="4"/>
     </row>
     <row r="377" ht="12.75" customHeight="1">
-      <c r="A377" s="16"/>
-      <c r="B377" s="16"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="15"/>
-      <c r="I377" s="15"/>
+      <c r="A377" s="15"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="14"/>
+      <c r="F377" s="14"/>
+      <c r="G377" s="14"/>
+      <c r="H377" s="14"/>
+      <c r="I377" s="14"/>
       <c r="J377" s="3"/>
       <c r="K377" s="11"/>
       <c r="L377" s="4"/>
@@ -16375,15 +16537,15 @@
       <c r="Y377" s="4"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
-      <c r="A378" s="16"/>
-      <c r="B378" s="16"/>
-      <c r="C378" s="15"/>
-      <c r="D378" s="15"/>
-      <c r="E378" s="15"/>
-      <c r="F378" s="15"/>
-      <c r="G378" s="15"/>
-      <c r="H378" s="15"/>
-      <c r="I378" s="15"/>
+      <c r="A378" s="15"/>
+      <c r="B378" s="15"/>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14"/>
+      <c r="F378" s="14"/>
+      <c r="G378" s="14"/>
+      <c r="H378" s="14"/>
+      <c r="I378" s="14"/>
       <c r="J378" s="3"/>
       <c r="K378" s="11"/>
       <c r="L378" s="4"/>
@@ -16402,15 +16564,15 @@
       <c r="Y378" s="4"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
-      <c r="A379" s="16"/>
-      <c r="B379" s="16"/>
-      <c r="C379" s="15"/>
-      <c r="D379" s="15"/>
-      <c r="E379" s="15"/>
-      <c r="F379" s="15"/>
-      <c r="G379" s="15"/>
-      <c r="H379" s="15"/>
-      <c r="I379" s="15"/>
+      <c r="A379" s="15"/>
+      <c r="B379" s="15"/>
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="14"/>
+      <c r="F379" s="14"/>
+      <c r="G379" s="14"/>
+      <c r="H379" s="14"/>
+      <c r="I379" s="14"/>
       <c r="J379" s="3"/>
       <c r="K379" s="11"/>
       <c r="L379" s="4"/>
@@ -16429,15 +16591,15 @@
       <c r="Y379" s="4"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
-      <c r="A380" s="16"/>
-      <c r="B380" s="16"/>
-      <c r="C380" s="15"/>
-      <c r="D380" s="15"/>
-      <c r="E380" s="15"/>
-      <c r="F380" s="15"/>
-      <c r="G380" s="15"/>
-      <c r="H380" s="15"/>
-      <c r="I380" s="15"/>
+      <c r="A380" s="15"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="14"/>
+      <c r="F380" s="14"/>
+      <c r="G380" s="14"/>
+      <c r="H380" s="14"/>
+      <c r="I380" s="14"/>
       <c r="J380" s="3"/>
       <c r="K380" s="11"/>
       <c r="L380" s="4"/>
@@ -16456,15 +16618,15 @@
       <c r="Y380" s="4"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
-      <c r="A381" s="16"/>
-      <c r="B381" s="16"/>
-      <c r="C381" s="15"/>
-      <c r="D381" s="15"/>
-      <c r="E381" s="15"/>
-      <c r="F381" s="15"/>
-      <c r="G381" s="15"/>
-      <c r="H381" s="15"/>
-      <c r="I381" s="15"/>
+      <c r="A381" s="15"/>
+      <c r="B381" s="15"/>
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="14"/>
+      <c r="F381" s="14"/>
+      <c r="G381" s="14"/>
+      <c r="H381" s="14"/>
+      <c r="I381" s="14"/>
       <c r="J381" s="3"/>
       <c r="K381" s="11"/>
       <c r="L381" s="4"/>
@@ -16483,15 +16645,15 @@
       <c r="Y381" s="4"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
-      <c r="A382" s="16"/>
-      <c r="B382" s="16"/>
-      <c r="C382" s="15"/>
-      <c r="D382" s="15"/>
-      <c r="E382" s="15"/>
-      <c r="F382" s="15"/>
-      <c r="G382" s="15"/>
-      <c r="H382" s="15"/>
-      <c r="I382" s="15"/>
+      <c r="A382" s="15"/>
+      <c r="B382" s="15"/>
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="14"/>
+      <c r="F382" s="14"/>
+      <c r="G382" s="14"/>
+      <c r="H382" s="14"/>
+      <c r="I382" s="14"/>
       <c r="J382" s="3"/>
       <c r="K382" s="11"/>
       <c r="L382" s="4"/>
@@ -16510,15 +16672,15 @@
       <c r="Y382" s="4"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
-      <c r="A383" s="16"/>
-      <c r="B383" s="16"/>
-      <c r="C383" s="15"/>
-      <c r="D383" s="15"/>
-      <c r="E383" s="15"/>
-      <c r="F383" s="15"/>
-      <c r="G383" s="15"/>
-      <c r="H383" s="15"/>
-      <c r="I383" s="15"/>
+      <c r="A383" s="15"/>
+      <c r="B383" s="15"/>
+      <c r="C383" s="14"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="14"/>
+      <c r="F383" s="14"/>
+      <c r="G383" s="14"/>
+      <c r="H383" s="14"/>
+      <c r="I383" s="14"/>
       <c r="J383" s="3"/>
       <c r="K383" s="11"/>
       <c r="L383" s="4"/>
@@ -16537,15 +16699,15 @@
       <c r="Y383" s="4"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
-      <c r="A384" s="16"/>
-      <c r="B384" s="16"/>
-      <c r="C384" s="15"/>
-      <c r="D384" s="15"/>
-      <c r="E384" s="15"/>
-      <c r="F384" s="15"/>
-      <c r="G384" s="15"/>
-      <c r="H384" s="15"/>
-      <c r="I384" s="15"/>
+      <c r="A384" s="15"/>
+      <c r="B384" s="15"/>
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="14"/>
+      <c r="F384" s="14"/>
+      <c r="G384" s="14"/>
+      <c r="H384" s="14"/>
+      <c r="I384" s="14"/>
       <c r="J384" s="3"/>
       <c r="K384" s="11"/>
       <c r="L384" s="4"/>
@@ -16564,15 +16726,15 @@
       <c r="Y384" s="4"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
-      <c r="A385" s="16"/>
-      <c r="B385" s="16"/>
-      <c r="C385" s="15"/>
-      <c r="D385" s="15"/>
-      <c r="E385" s="15"/>
-      <c r="F385" s="15"/>
-      <c r="G385" s="15"/>
-      <c r="H385" s="15"/>
-      <c r="I385" s="15"/>
+      <c r="A385" s="15"/>
+      <c r="B385" s="15"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="14"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="14"/>
       <c r="J385" s="3"/>
       <c r="K385" s="11"/>
       <c r="L385" s="4"/>
@@ -16591,15 +16753,15 @@
       <c r="Y385" s="4"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
-      <c r="A386" s="16"/>
-      <c r="B386" s="16"/>
-      <c r="C386" s="15"/>
-      <c r="D386" s="15"/>
-      <c r="E386" s="15"/>
-      <c r="F386" s="15"/>
-      <c r="G386" s="15"/>
-      <c r="H386" s="15"/>
-      <c r="I386" s="15"/>
+      <c r="A386" s="15"/>
+      <c r="B386" s="15"/>
+      <c r="C386" s="14"/>
+      <c r="D386" s="14"/>
+      <c r="E386" s="14"/>
+      <c r="F386" s="14"/>
+      <c r="G386" s="14"/>
+      <c r="H386" s="14"/>
+      <c r="I386" s="14"/>
       <c r="J386" s="3"/>
       <c r="K386" s="11"/>
       <c r="L386" s="4"/>
@@ -16618,15 +16780,15 @@
       <c r="Y386" s="4"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
-      <c r="A387" s="16"/>
-      <c r="B387" s="16"/>
-      <c r="C387" s="15"/>
-      <c r="D387" s="15"/>
-      <c r="E387" s="15"/>
-      <c r="F387" s="15"/>
-      <c r="G387" s="15"/>
-      <c r="H387" s="15"/>
-      <c r="I387" s="15"/>
+      <c r="A387" s="15"/>
+      <c r="B387" s="15"/>
+      <c r="C387" s="14"/>
+      <c r="D387" s="14"/>
+      <c r="E387" s="14"/>
+      <c r="F387" s="14"/>
+      <c r="G387" s="14"/>
+      <c r="H387" s="14"/>
+      <c r="I387" s="14"/>
       <c r="J387" s="3"/>
       <c r="K387" s="11"/>
       <c r="L387" s="4"/>
@@ -16645,15 +16807,15 @@
       <c r="Y387" s="4"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
-      <c r="A388" s="16"/>
-      <c r="B388" s="16"/>
-      <c r="C388" s="15"/>
-      <c r="D388" s="15"/>
-      <c r="E388" s="15"/>
-      <c r="F388" s="15"/>
-      <c r="G388" s="15"/>
-      <c r="H388" s="15"/>
-      <c r="I388" s="15"/>
+      <c r="A388" s="15"/>
+      <c r="B388" s="15"/>
+      <c r="C388" s="14"/>
+      <c r="D388" s="14"/>
+      <c r="E388" s="14"/>
+      <c r="F388" s="14"/>
+      <c r="G388" s="14"/>
+      <c r="H388" s="14"/>
+      <c r="I388" s="14"/>
       <c r="J388" s="3"/>
       <c r="K388" s="11"/>
       <c r="L388" s="4"/>
@@ -16672,15 +16834,15 @@
       <c r="Y388" s="4"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
-      <c r="A389" s="16"/>
-      <c r="B389" s="16"/>
-      <c r="C389" s="15"/>
-      <c r="D389" s="15"/>
-      <c r="E389" s="15"/>
-      <c r="F389" s="15"/>
-      <c r="G389" s="15"/>
-      <c r="H389" s="15"/>
-      <c r="I389" s="15"/>
+      <c r="A389" s="15"/>
+      <c r="B389" s="15"/>
+      <c r="C389" s="14"/>
+      <c r="D389" s="14"/>
+      <c r="E389" s="14"/>
+      <c r="F389" s="14"/>
+      <c r="G389" s="14"/>
+      <c r="H389" s="14"/>
+      <c r="I389" s="14"/>
       <c r="J389" s="3"/>
       <c r="K389" s="11"/>
       <c r="L389" s="4"/>
@@ -16699,15 +16861,15 @@
       <c r="Y389" s="4"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
-      <c r="A390" s="16"/>
-      <c r="B390" s="16"/>
-      <c r="C390" s="15"/>
-      <c r="D390" s="15"/>
-      <c r="E390" s="15"/>
-      <c r="F390" s="15"/>
-      <c r="G390" s="15"/>
-      <c r="H390" s="15"/>
-      <c r="I390" s="15"/>
+      <c r="A390" s="15"/>
+      <c r="B390" s="15"/>
+      <c r="C390" s="14"/>
+      <c r="D390" s="14"/>
+      <c r="E390" s="14"/>
+      <c r="F390" s="14"/>
+      <c r="G390" s="14"/>
+      <c r="H390" s="14"/>
+      <c r="I390" s="14"/>
       <c r="J390" s="3"/>
       <c r="K390" s="11"/>
       <c r="L390" s="4"/>
@@ -16726,15 +16888,15 @@
       <c r="Y390" s="4"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
-      <c r="A391" s="16"/>
-      <c r="B391" s="16"/>
-      <c r="C391" s="15"/>
-      <c r="D391" s="15"/>
-      <c r="E391" s="15"/>
-      <c r="F391" s="15"/>
-      <c r="G391" s="15"/>
-      <c r="H391" s="15"/>
-      <c r="I391" s="15"/>
+      <c r="A391" s="15"/>
+      <c r="B391" s="15"/>
+      <c r="C391" s="14"/>
+      <c r="D391" s="14"/>
+      <c r="E391" s="14"/>
+      <c r="F391" s="14"/>
+      <c r="G391" s="14"/>
+      <c r="H391" s="14"/>
+      <c r="I391" s="14"/>
       <c r="J391" s="3"/>
       <c r="K391" s="11"/>
       <c r="L391" s="4"/>
@@ -16753,15 +16915,15 @@
       <c r="Y391" s="4"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
-      <c r="A392" s="16"/>
-      <c r="B392" s="16"/>
-      <c r="C392" s="15"/>
-      <c r="D392" s="15"/>
-      <c r="E392" s="15"/>
-      <c r="F392" s="15"/>
-      <c r="G392" s="15"/>
-      <c r="H392" s="15"/>
-      <c r="I392" s="15"/>
+      <c r="A392" s="15"/>
+      <c r="B392" s="15"/>
+      <c r="C392" s="14"/>
+      <c r="D392" s="14"/>
+      <c r="E392" s="14"/>
+      <c r="F392" s="14"/>
+      <c r="G392" s="14"/>
+      <c r="H392" s="14"/>
+      <c r="I392" s="14"/>
       <c r="J392" s="3"/>
       <c r="K392" s="11"/>
       <c r="L392" s="4"/>
@@ -16780,15 +16942,15 @@
       <c r="Y392" s="4"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
-      <c r="A393" s="16"/>
-      <c r="B393" s="16"/>
-      <c r="C393" s="15"/>
-      <c r="D393" s="15"/>
-      <c r="E393" s="15"/>
-      <c r="F393" s="15"/>
-      <c r="G393" s="15"/>
-      <c r="H393" s="15"/>
-      <c r="I393" s="15"/>
+      <c r="A393" s="15"/>
+      <c r="B393" s="15"/>
+      <c r="C393" s="14"/>
+      <c r="D393" s="14"/>
+      <c r="E393" s="14"/>
+      <c r="F393" s="14"/>
+      <c r="G393" s="14"/>
+      <c r="H393" s="14"/>
+      <c r="I393" s="14"/>
       <c r="J393" s="3"/>
       <c r="K393" s="11"/>
       <c r="L393" s="4"/>
@@ -16807,15 +16969,15 @@
       <c r="Y393" s="4"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
-      <c r="A394" s="16"/>
-      <c r="B394" s="16"/>
-      <c r="C394" s="15"/>
-      <c r="D394" s="15"/>
-      <c r="E394" s="15"/>
-      <c r="F394" s="15"/>
-      <c r="G394" s="15"/>
-      <c r="H394" s="15"/>
-      <c r="I394" s="15"/>
+      <c r="A394" s="15"/>
+      <c r="B394" s="15"/>
+      <c r="C394" s="14"/>
+      <c r="D394" s="14"/>
+      <c r="E394" s="14"/>
+      <c r="F394" s="14"/>
+      <c r="G394" s="14"/>
+      <c r="H394" s="14"/>
+      <c r="I394" s="14"/>
       <c r="J394" s="3"/>
       <c r="K394" s="11"/>
       <c r="L394" s="4"/>
@@ -16834,15 +16996,15 @@
       <c r="Y394" s="4"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
-      <c r="A395" s="16"/>
-      <c r="B395" s="16"/>
-      <c r="C395" s="15"/>
-      <c r="D395" s="15"/>
-      <c r="E395" s="15"/>
-      <c r="F395" s="15"/>
-      <c r="G395" s="15"/>
-      <c r="H395" s="15"/>
-      <c r="I395" s="15"/>
+      <c r="A395" s="15"/>
+      <c r="B395" s="15"/>
+      <c r="C395" s="14"/>
+      <c r="D395" s="14"/>
+      <c r="E395" s="14"/>
+      <c r="F395" s="14"/>
+      <c r="G395" s="14"/>
+      <c r="H395" s="14"/>
+      <c r="I395" s="14"/>
       <c r="J395" s="3"/>
       <c r="K395" s="11"/>
       <c r="L395" s="4"/>
@@ -16861,15 +17023,15 @@
       <c r="Y395" s="4"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
-      <c r="A396" s="16"/>
-      <c r="B396" s="16"/>
-      <c r="C396" s="15"/>
-      <c r="D396" s="15"/>
-      <c r="E396" s="15"/>
-      <c r="F396" s="15"/>
-      <c r="G396" s="15"/>
-      <c r="H396" s="15"/>
-      <c r="I396" s="15"/>
+      <c r="A396" s="15"/>
+      <c r="B396" s="15"/>
+      <c r="C396" s="14"/>
+      <c r="D396" s="14"/>
+      <c r="E396" s="14"/>
+      <c r="F396" s="14"/>
+      <c r="G396" s="14"/>
+      <c r="H396" s="14"/>
+      <c r="I396" s="14"/>
       <c r="J396" s="3"/>
       <c r="K396" s="11"/>
       <c r="L396" s="4"/>
@@ -16888,15 +17050,15 @@
       <c r="Y396" s="4"/>
     </row>
     <row r="397" ht="12.75" customHeight="1">
-      <c r="A397" s="16"/>
-      <c r="B397" s="16"/>
-      <c r="C397" s="15"/>
-      <c r="D397" s="15"/>
-      <c r="E397" s="15"/>
-      <c r="F397" s="15"/>
-      <c r="G397" s="15"/>
-      <c r="H397" s="15"/>
-      <c r="I397" s="15"/>
+      <c r="A397" s="15"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="14"/>
+      <c r="D397" s="14"/>
+      <c r="E397" s="14"/>
+      <c r="F397" s="14"/>
+      <c r="G397" s="14"/>
+      <c r="H397" s="14"/>
+      <c r="I397" s="14"/>
       <c r="J397" s="3"/>
       <c r="K397" s="11"/>
       <c r="L397" s="4"/>
@@ -16915,15 +17077,15 @@
       <c r="Y397" s="4"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
-      <c r="A398" s="16"/>
-      <c r="B398" s="16"/>
-      <c r="C398" s="15"/>
-      <c r="D398" s="15"/>
-      <c r="E398" s="15"/>
-      <c r="F398" s="15"/>
-      <c r="G398" s="15"/>
-      <c r="H398" s="15"/>
-      <c r="I398" s="15"/>
+      <c r="A398" s="15"/>
+      <c r="B398" s="15"/>
+      <c r="C398" s="14"/>
+      <c r="D398" s="14"/>
+      <c r="E398" s="14"/>
+      <c r="F398" s="14"/>
+      <c r="G398" s="14"/>
+      <c r="H398" s="14"/>
+      <c r="I398" s="14"/>
       <c r="J398" s="3"/>
       <c r="K398" s="11"/>
       <c r="L398" s="4"/>
@@ -16942,15 +17104,15 @@
       <c r="Y398" s="4"/>
     </row>
     <row r="399" ht="12.75" customHeight="1">
-      <c r="A399" s="16"/>
-      <c r="B399" s="16"/>
-      <c r="C399" s="15"/>
-      <c r="D399" s="15"/>
-      <c r="E399" s="15"/>
-      <c r="F399" s="15"/>
-      <c r="G399" s="15"/>
-      <c r="H399" s="15"/>
-      <c r="I399" s="15"/>
+      <c r="A399" s="15"/>
+      <c r="B399" s="15"/>
+      <c r="C399" s="14"/>
+      <c r="D399" s="14"/>
+      <c r="E399" s="14"/>
+      <c r="F399" s="14"/>
+      <c r="G399" s="14"/>
+      <c r="H399" s="14"/>
+      <c r="I399" s="14"/>
       <c r="J399" s="3"/>
       <c r="K399" s="11"/>
       <c r="L399" s="4"/>
@@ -16969,15 +17131,15 @@
       <c r="Y399" s="4"/>
     </row>
     <row r="400" ht="12.75" customHeight="1">
-      <c r="A400" s="16"/>
-      <c r="B400" s="16"/>
-      <c r="C400" s="15"/>
-      <c r="D400" s="15"/>
-      <c r="E400" s="15"/>
-      <c r="F400" s="15"/>
-      <c r="G400" s="15"/>
-      <c r="H400" s="15"/>
-      <c r="I400" s="15"/>
+      <c r="A400" s="15"/>
+      <c r="B400" s="15"/>
+      <c r="C400" s="14"/>
+      <c r="D400" s="14"/>
+      <c r="E400" s="14"/>
+      <c r="F400" s="14"/>
+      <c r="G400" s="14"/>
+      <c r="H400" s="14"/>
+      <c r="I400" s="14"/>
       <c r="J400" s="3"/>
       <c r="K400" s="11"/>
       <c r="L400" s="4"/>
@@ -16996,15 +17158,15 @@
       <c r="Y400" s="4"/>
     </row>
     <row r="401" ht="12.75" customHeight="1">
-      <c r="A401" s="16"/>
-      <c r="B401" s="16"/>
-      <c r="C401" s="15"/>
-      <c r="D401" s="15"/>
-      <c r="E401" s="15"/>
-      <c r="F401" s="15"/>
-      <c r="G401" s="15"/>
-      <c r="H401" s="15"/>
-      <c r="I401" s="15"/>
+      <c r="A401" s="15"/>
+      <c r="B401" s="15"/>
+      <c r="C401" s="14"/>
+      <c r="D401" s="14"/>
+      <c r="E401" s="14"/>
+      <c r="F401" s="14"/>
+      <c r="G401" s="14"/>
+      <c r="H401" s="14"/>
+      <c r="I401" s="14"/>
       <c r="J401" s="3"/>
       <c r="K401" s="11"/>
       <c r="L401" s="4"/>
@@ -17023,15 +17185,15 @@
       <c r="Y401" s="4"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
-      <c r="A402" s="16"/>
-      <c r="B402" s="16"/>
-      <c r="C402" s="15"/>
-      <c r="D402" s="15"/>
-      <c r="E402" s="15"/>
-      <c r="F402" s="15"/>
-      <c r="G402" s="15"/>
-      <c r="H402" s="15"/>
-      <c r="I402" s="15"/>
+      <c r="A402" s="15"/>
+      <c r="B402" s="15"/>
+      <c r="C402" s="14"/>
+      <c r="D402" s="14"/>
+      <c r="E402" s="14"/>
+      <c r="F402" s="14"/>
+      <c r="G402" s="14"/>
+      <c r="H402" s="14"/>
+      <c r="I402" s="14"/>
       <c r="J402" s="3"/>
       <c r="K402" s="11"/>
       <c r="L402" s="4"/>
@@ -17050,15 +17212,15 @@
       <c r="Y402" s="4"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
-      <c r="A403" s="16"/>
-      <c r="B403" s="16"/>
-      <c r="C403" s="15"/>
-      <c r="D403" s="15"/>
-      <c r="E403" s="15"/>
-      <c r="F403" s="15"/>
-      <c r="G403" s="15"/>
-      <c r="H403" s="15"/>
-      <c r="I403" s="15"/>
+      <c r="A403" s="15"/>
+      <c r="B403" s="15"/>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14"/>
+      <c r="E403" s="14"/>
+      <c r="F403" s="14"/>
+      <c r="G403" s="14"/>
+      <c r="H403" s="14"/>
+      <c r="I403" s="14"/>
       <c r="J403" s="3"/>
       <c r="K403" s="11"/>
       <c r="L403" s="4"/>
@@ -17077,15 +17239,15 @@
       <c r="Y403" s="4"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
-      <c r="A404" s="16"/>
-      <c r="B404" s="16"/>
-      <c r="C404" s="15"/>
-      <c r="D404" s="15"/>
-      <c r="E404" s="15"/>
-      <c r="F404" s="15"/>
-      <c r="G404" s="15"/>
-      <c r="H404" s="15"/>
-      <c r="I404" s="15"/>
+      <c r="A404" s="15"/>
+      <c r="B404" s="15"/>
+      <c r="C404" s="14"/>
+      <c r="D404" s="14"/>
+      <c r="E404" s="14"/>
+      <c r="F404" s="14"/>
+      <c r="G404" s="14"/>
+      <c r="H404" s="14"/>
+      <c r="I404" s="14"/>
       <c r="J404" s="3"/>
       <c r="K404" s="11"/>
       <c r="L404" s="4"/>
@@ -17104,15 +17266,15 @@
       <c r="Y404" s="4"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
-      <c r="A405" s="16"/>
-      <c r="B405" s="16"/>
-      <c r="C405" s="15"/>
-      <c r="D405" s="15"/>
-      <c r="E405" s="15"/>
-      <c r="F405" s="15"/>
-      <c r="G405" s="15"/>
-      <c r="H405" s="15"/>
-      <c r="I405" s="15"/>
+      <c r="A405" s="15"/>
+      <c r="B405" s="15"/>
+      <c r="C405" s="14"/>
+      <c r="D405" s="14"/>
+      <c r="E405" s="14"/>
+      <c r="F405" s="14"/>
+      <c r="G405" s="14"/>
+      <c r="H405" s="14"/>
+      <c r="I405" s="14"/>
       <c r="J405" s="3"/>
       <c r="K405" s="11"/>
       <c r="L405" s="4"/>
@@ -17131,15 +17293,15 @@
       <c r="Y405" s="4"/>
     </row>
     <row r="406" ht="12.75" customHeight="1">
-      <c r="A406" s="16"/>
-      <c r="B406" s="16"/>
-      <c r="C406" s="15"/>
-      <c r="D406" s="15"/>
-      <c r="E406" s="15"/>
-      <c r="F406" s="15"/>
-      <c r="G406" s="15"/>
-      <c r="H406" s="15"/>
-      <c r="I406" s="15"/>
+      <c r="A406" s="15"/>
+      <c r="B406" s="15"/>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14"/>
+      <c r="E406" s="14"/>
+      <c r="F406" s="14"/>
+      <c r="G406" s="14"/>
+      <c r="H406" s="14"/>
+      <c r="I406" s="14"/>
       <c r="J406" s="3"/>
       <c r="K406" s="11"/>
       <c r="L406" s="4"/>
@@ -17158,15 +17320,15 @@
       <c r="Y406" s="4"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
-      <c r="A407" s="16"/>
-      <c r="B407" s="16"/>
-      <c r="C407" s="15"/>
-      <c r="D407" s="15"/>
-      <c r="E407" s="15"/>
-      <c r="F407" s="15"/>
-      <c r="G407" s="15"/>
-      <c r="H407" s="15"/>
-      <c r="I407" s="15"/>
+      <c r="A407" s="15"/>
+      <c r="B407" s="15"/>
+      <c r="C407" s="14"/>
+      <c r="D407" s="14"/>
+      <c r="E407" s="14"/>
+      <c r="F407" s="14"/>
+      <c r="G407" s="14"/>
+      <c r="H407" s="14"/>
+      <c r="I407" s="14"/>
       <c r="J407" s="3"/>
       <c r="K407" s="11"/>
       <c r="L407" s="4"/>
@@ -17185,15 +17347,15 @@
       <c r="Y407" s="4"/>
     </row>
     <row r="408" ht="12.75" customHeight="1">
-      <c r="A408" s="16"/>
-      <c r="B408" s="16"/>
-      <c r="C408" s="15"/>
-      <c r="D408" s="15"/>
-      <c r="E408" s="15"/>
-      <c r="F408" s="15"/>
-      <c r="G408" s="15"/>
-      <c r="H408" s="15"/>
-      <c r="I408" s="15"/>
+      <c r="A408" s="15"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="14"/>
+      <c r="D408" s="14"/>
+      <c r="E408" s="14"/>
+      <c r="F408" s="14"/>
+      <c r="G408" s="14"/>
+      <c r="H408" s="14"/>
+      <c r="I408" s="14"/>
       <c r="J408" s="3"/>
       <c r="K408" s="11"/>
       <c r="L408" s="4"/>
@@ -17212,15 +17374,15 @@
       <c r="Y408" s="4"/>
     </row>
     <row r="409" ht="12.75" customHeight="1">
-      <c r="A409" s="16"/>
-      <c r="B409" s="14"/>
-      <c r="C409" s="15"/>
-      <c r="D409" s="15"/>
-      <c r="E409" s="15"/>
-      <c r="F409" s="15"/>
-      <c r="G409" s="15"/>
-      <c r="H409" s="15"/>
-      <c r="I409" s="15"/>
+      <c r="A409" s="15"/>
+      <c r="B409" s="13"/>
+      <c r="C409" s="14"/>
+      <c r="D409" s="14"/>
+      <c r="E409" s="14"/>
+      <c r="F409" s="14"/>
+      <c r="G409" s="14"/>
+      <c r="H409" s="14"/>
+      <c r="I409" s="14"/>
       <c r="J409" s="3"/>
       <c r="K409" s="11"/>
       <c r="L409" s="4"/>
@@ -17239,15 +17401,15 @@
       <c r="Y409" s="4"/>
     </row>
     <row r="410" ht="12.75" customHeight="1">
-      <c r="A410" s="16"/>
-      <c r="B410" s="14"/>
-      <c r="C410" s="15"/>
-      <c r="D410" s="15"/>
-      <c r="E410" s="15"/>
-      <c r="F410" s="15"/>
-      <c r="G410" s="15"/>
-      <c r="H410" s="15"/>
-      <c r="I410" s="15"/>
+      <c r="A410" s="15"/>
+      <c r="B410" s="13"/>
+      <c r="C410" s="14"/>
+      <c r="D410" s="14"/>
+      <c r="E410" s="14"/>
+      <c r="F410" s="14"/>
+      <c r="G410" s="14"/>
+      <c r="H410" s="14"/>
+      <c r="I410" s="14"/>
       <c r="J410" s="3"/>
       <c r="K410" s="11"/>
       <c r="L410" s="4"/>
@@ -17266,15 +17428,15 @@
       <c r="Y410" s="4"/>
     </row>
     <row r="411" ht="12.75" customHeight="1">
-      <c r="A411" s="14"/>
-      <c r="B411" s="14"/>
-      <c r="C411" s="15"/>
-      <c r="D411" s="15"/>
-      <c r="E411" s="15"/>
-      <c r="F411" s="15"/>
-      <c r="G411" s="15"/>
-      <c r="H411" s="15"/>
-      <c r="I411" s="15"/>
+      <c r="A411" s="13"/>
+      <c r="B411" s="13"/>
+      <c r="C411" s="14"/>
+      <c r="D411" s="14"/>
+      <c r="E411" s="14"/>
+      <c r="F411" s="14"/>
+      <c r="G411" s="14"/>
+      <c r="H411" s="14"/>
+      <c r="I411" s="14"/>
       <c r="J411" s="3"/>
       <c r="K411" s="11"/>
       <c r="L411" s="4"/>
@@ -17293,15 +17455,15 @@
       <c r="Y411" s="4"/>
     </row>
     <row r="412" ht="12.75" customHeight="1">
-      <c r="A412" s="14"/>
-      <c r="B412" s="14"/>
-      <c r="C412" s="15"/>
-      <c r="D412" s="15"/>
-      <c r="E412" s="15"/>
-      <c r="F412" s="15"/>
-      <c r="G412" s="15"/>
-      <c r="H412" s="15"/>
-      <c r="I412" s="15"/>
+      <c r="A412" s="13"/>
+      <c r="B412" s="13"/>
+      <c r="C412" s="14"/>
+      <c r="D412" s="14"/>
+      <c r="E412" s="14"/>
+      <c r="F412" s="14"/>
+      <c r="G412" s="14"/>
+      <c r="H412" s="14"/>
+      <c r="I412" s="14"/>
       <c r="J412" s="3"/>
       <c r="K412" s="11"/>
       <c r="L412" s="4"/>
@@ -17320,15 +17482,15 @@
       <c r="Y412" s="4"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="A413" s="14"/>
-      <c r="B413" s="14"/>
-      <c r="C413" s="15"/>
-      <c r="D413" s="15"/>
-      <c r="E413" s="15"/>
-      <c r="F413" s="15"/>
-      <c r="G413" s="15"/>
-      <c r="H413" s="15"/>
-      <c r="I413" s="15"/>
+      <c r="A413" s="13"/>
+      <c r="B413" s="13"/>
+      <c r="C413" s="14"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="14"/>
+      <c r="F413" s="14"/>
+      <c r="G413" s="14"/>
+      <c r="H413" s="14"/>
+      <c r="I413" s="14"/>
       <c r="J413" s="3"/>
       <c r="K413" s="11"/>
       <c r="L413" s="4"/>
@@ -17347,15 +17509,15 @@
       <c r="Y413" s="4"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
-      <c r="A414" s="14"/>
-      <c r="B414" s="14"/>
-      <c r="C414" s="15"/>
-      <c r="D414" s="15"/>
-      <c r="E414" s="15"/>
-      <c r="F414" s="15"/>
-      <c r="G414" s="15"/>
-      <c r="H414" s="15"/>
-      <c r="I414" s="15"/>
+      <c r="A414" s="13"/>
+      <c r="B414" s="13"/>
+      <c r="C414" s="14"/>
+      <c r="D414" s="14"/>
+      <c r="E414" s="14"/>
+      <c r="F414" s="14"/>
+      <c r="G414" s="14"/>
+      <c r="H414" s="14"/>
+      <c r="I414" s="14"/>
       <c r="J414" s="3"/>
       <c r="K414" s="11"/>
       <c r="L414" s="4"/>
@@ -17374,15 +17536,15 @@
       <c r="Y414" s="4"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
-      <c r="A415" s="14"/>
-      <c r="B415" s="14"/>
-      <c r="C415" s="15"/>
-      <c r="D415" s="15"/>
-      <c r="E415" s="15"/>
-      <c r="F415" s="15"/>
-      <c r="G415" s="15"/>
-      <c r="H415" s="15"/>
-      <c r="I415" s="15"/>
+      <c r="A415" s="13"/>
+      <c r="B415" s="13"/>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="14"/>
+      <c r="F415" s="14"/>
+      <c r="G415" s="14"/>
+      <c r="H415" s="14"/>
+      <c r="I415" s="14"/>
       <c r="J415" s="3"/>
       <c r="K415" s="11"/>
       <c r="L415" s="4"/>
@@ -17401,15 +17563,15 @@
       <c r="Y415" s="4"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
-      <c r="A416" s="14"/>
-      <c r="B416" s="14"/>
-      <c r="C416" s="15"/>
-      <c r="D416" s="15"/>
-      <c r="E416" s="15"/>
-      <c r="F416" s="15"/>
-      <c r="G416" s="15"/>
-      <c r="H416" s="15"/>
-      <c r="I416" s="15"/>
+      <c r="A416" s="13"/>
+      <c r="B416" s="13"/>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+      <c r="E416" s="14"/>
+      <c r="F416" s="14"/>
+      <c r="G416" s="14"/>
+      <c r="H416" s="14"/>
+      <c r="I416" s="14"/>
       <c r="J416" s="3"/>
       <c r="K416" s="11"/>
       <c r="L416" s="4"/>
@@ -17428,15 +17590,15 @@
       <c r="Y416" s="4"/>
     </row>
     <row r="417" ht="12.75" customHeight="1">
-      <c r="A417" s="14"/>
-      <c r="B417" s="14"/>
-      <c r="C417" s="15"/>
-      <c r="D417" s="15"/>
-      <c r="E417" s="15"/>
-      <c r="F417" s="15"/>
-      <c r="G417" s="15"/>
-      <c r="H417" s="15"/>
-      <c r="I417" s="15"/>
+      <c r="A417" s="13"/>
+      <c r="B417" s="13"/>
+      <c r="C417" s="14"/>
+      <c r="D417" s="14"/>
+      <c r="E417" s="14"/>
+      <c r="F417" s="14"/>
+      <c r="G417" s="14"/>
+      <c r="H417" s="14"/>
+      <c r="I417" s="14"/>
       <c r="J417" s="3"/>
       <c r="K417" s="11"/>
       <c r="L417" s="4"/>
@@ -17455,15 +17617,15 @@
       <c r="Y417" s="4"/>
     </row>
     <row r="418" ht="12.75" customHeight="1">
-      <c r="A418" s="14"/>
-      <c r="B418" s="14"/>
-      <c r="C418" s="15"/>
-      <c r="D418" s="15"/>
-      <c r="E418" s="15"/>
-      <c r="F418" s="15"/>
-      <c r="G418" s="15"/>
-      <c r="H418" s="15"/>
-      <c r="I418" s="15"/>
+      <c r="A418" s="13"/>
+      <c r="B418" s="13"/>
+      <c r="C418" s="14"/>
+      <c r="D418" s="14"/>
+      <c r="E418" s="14"/>
+      <c r="F418" s="14"/>
+      <c r="G418" s="14"/>
+      <c r="H418" s="14"/>
+      <c r="I418" s="14"/>
       <c r="J418" s="3"/>
       <c r="K418" s="11"/>
       <c r="L418" s="4"/>
@@ -17482,15 +17644,15 @@
       <c r="Y418" s="4"/>
     </row>
     <row r="419" ht="12.75" customHeight="1">
-      <c r="A419" s="14"/>
-      <c r="B419" s="14"/>
-      <c r="C419" s="15"/>
-      <c r="D419" s="15"/>
-      <c r="E419" s="15"/>
-      <c r="F419" s="15"/>
-      <c r="G419" s="15"/>
-      <c r="H419" s="15"/>
-      <c r="I419" s="15"/>
+      <c r="A419" s="13"/>
+      <c r="B419" s="13"/>
+      <c r="C419" s="14"/>
+      <c r="D419" s="14"/>
+      <c r="E419" s="14"/>
+      <c r="F419" s="14"/>
+      <c r="G419" s="14"/>
+      <c r="H419" s="14"/>
+      <c r="I419" s="14"/>
       <c r="J419" s="3"/>
       <c r="K419" s="11"/>
       <c r="L419" s="4"/>
@@ -17509,15 +17671,15 @@
       <c r="Y419" s="4"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
-      <c r="A420" s="14"/>
-      <c r="B420" s="14"/>
-      <c r="C420" s="15"/>
-      <c r="D420" s="15"/>
-      <c r="E420" s="15"/>
-      <c r="F420" s="15"/>
-      <c r="G420" s="15"/>
-      <c r="H420" s="15"/>
-      <c r="I420" s="15"/>
+      <c r="A420" s="13"/>
+      <c r="B420" s="13"/>
+      <c r="C420" s="14"/>
+      <c r="D420" s="14"/>
+      <c r="E420" s="14"/>
+      <c r="F420" s="14"/>
+      <c r="G420" s="14"/>
+      <c r="H420" s="14"/>
+      <c r="I420" s="14"/>
       <c r="J420" s="3"/>
       <c r="K420" s="11"/>
       <c r="L420" s="4"/>
@@ -17536,15 +17698,15 @@
       <c r="Y420" s="4"/>
     </row>
     <row r="421" ht="12.75" customHeight="1">
-      <c r="A421" s="14"/>
-      <c r="B421" s="14"/>
-      <c r="C421" s="15"/>
-      <c r="D421" s="15"/>
-      <c r="E421" s="15"/>
-      <c r="F421" s="15"/>
-      <c r="G421" s="15"/>
-      <c r="H421" s="15"/>
-      <c r="I421" s="15"/>
+      <c r="A421" s="13"/>
+      <c r="B421" s="13"/>
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
+      <c r="E421" s="14"/>
+      <c r="F421" s="14"/>
+      <c r="G421" s="14"/>
+      <c r="H421" s="14"/>
+      <c r="I421" s="14"/>
       <c r="J421" s="3"/>
       <c r="K421" s="11"/>
       <c r="L421" s="4"/>
@@ -17563,15 +17725,15 @@
       <c r="Y421" s="4"/>
     </row>
     <row r="422" ht="12.75" customHeight="1">
-      <c r="A422" s="14"/>
-      <c r="B422" s="14"/>
-      <c r="C422" s="15"/>
-      <c r="D422" s="15"/>
-      <c r="E422" s="15"/>
-      <c r="F422" s="15"/>
-      <c r="G422" s="15"/>
-      <c r="H422" s="15"/>
-      <c r="I422" s="15"/>
+      <c r="A422" s="13"/>
+      <c r="B422" s="13"/>
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="14"/>
+      <c r="F422" s="14"/>
+      <c r="G422" s="14"/>
+      <c r="H422" s="14"/>
+      <c r="I422" s="14"/>
       <c r="J422" s="3"/>
       <c r="K422" s="11"/>
       <c r="L422" s="4"/>
@@ -17590,15 +17752,15 @@
       <c r="Y422" s="4"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
-      <c r="A423" s="14"/>
-      <c r="B423" s="14"/>
-      <c r="C423" s="15"/>
-      <c r="D423" s="15"/>
-      <c r="E423" s="15"/>
-      <c r="F423" s="15"/>
-      <c r="G423" s="15"/>
-      <c r="H423" s="15"/>
-      <c r="I423" s="15"/>
+      <c r="A423" s="13"/>
+      <c r="B423" s="13"/>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="14"/>
+      <c r="F423" s="14"/>
+      <c r="G423" s="14"/>
+      <c r="H423" s="14"/>
+      <c r="I423" s="14"/>
       <c r="J423" s="3"/>
       <c r="K423" s="11"/>
       <c r="L423" s="4"/>
@@ -17617,15 +17779,15 @@
       <c r="Y423" s="4"/>
     </row>
     <row r="424" ht="12.75" customHeight="1">
-      <c r="A424" s="16"/>
-      <c r="B424" s="16"/>
-      <c r="C424" s="15"/>
-      <c r="D424" s="15"/>
-      <c r="E424" s="15"/>
-      <c r="F424" s="15"/>
-      <c r="G424" s="15"/>
-      <c r="H424" s="15"/>
-      <c r="I424" s="15"/>
+      <c r="A424" s="15"/>
+      <c r="B424" s="15"/>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="14"/>
+      <c r="F424" s="14"/>
+      <c r="G424" s="14"/>
+      <c r="H424" s="14"/>
+      <c r="I424" s="14"/>
       <c r="J424" s="3"/>
       <c r="K424" s="11"/>
       <c r="L424" s="4"/>
@@ -17644,15 +17806,15 @@
       <c r="Y424" s="4"/>
     </row>
     <row r="425" ht="12.75" customHeight="1">
-      <c r="A425" s="16"/>
-      <c r="B425" s="16"/>
-      <c r="C425" s="15"/>
-      <c r="D425" s="15"/>
-      <c r="E425" s="15"/>
-      <c r="F425" s="15"/>
-      <c r="G425" s="15"/>
-      <c r="H425" s="15"/>
-      <c r="I425" s="15"/>
+      <c r="A425" s="15"/>
+      <c r="B425" s="15"/>
+      <c r="C425" s="14"/>
+      <c r="D425" s="14"/>
+      <c r="E425" s="14"/>
+      <c r="F425" s="14"/>
+      <c r="G425" s="14"/>
+      <c r="H425" s="14"/>
+      <c r="I425" s="14"/>
       <c r="J425" s="3"/>
       <c r="K425" s="11"/>
       <c r="L425" s="4"/>
@@ -17671,15 +17833,15 @@
       <c r="Y425" s="4"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="A426" s="16"/>
-      <c r="B426" s="16"/>
-      <c r="C426" s="15"/>
-      <c r="D426" s="15"/>
-      <c r="E426" s="15"/>
-      <c r="F426" s="15"/>
-      <c r="G426" s="15"/>
-      <c r="H426" s="15"/>
-      <c r="I426" s="15"/>
+      <c r="A426" s="15"/>
+      <c r="B426" s="15"/>
+      <c r="C426" s="14"/>
+      <c r="D426" s="14"/>
+      <c r="E426" s="14"/>
+      <c r="F426" s="14"/>
+      <c r="G426" s="14"/>
+      <c r="H426" s="14"/>
+      <c r="I426" s="14"/>
       <c r="J426" s="3"/>
       <c r="K426" s="11"/>
       <c r="L426" s="4"/>
@@ -17698,15 +17860,15 @@
       <c r="Y426" s="4"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
-      <c r="A427" s="16"/>
-      <c r="B427" s="16"/>
-      <c r="C427" s="15"/>
-      <c r="D427" s="15"/>
-      <c r="E427" s="15"/>
-      <c r="F427" s="15"/>
-      <c r="G427" s="15"/>
-      <c r="H427" s="15"/>
-      <c r="I427" s="15"/>
+      <c r="A427" s="15"/>
+      <c r="B427" s="15"/>
+      <c r="C427" s="14"/>
+      <c r="D427" s="14"/>
+      <c r="E427" s="14"/>
+      <c r="F427" s="14"/>
+      <c r="G427" s="14"/>
+      <c r="H427" s="14"/>
+      <c r="I427" s="14"/>
       <c r="J427" s="3"/>
       <c r="K427" s="11"/>
       <c r="L427" s="4"/>
@@ -17725,15 +17887,15 @@
       <c r="Y427" s="4"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
-      <c r="A428" s="16"/>
-      <c r="B428" s="16"/>
-      <c r="C428" s="15"/>
-      <c r="D428" s="15"/>
-      <c r="E428" s="15"/>
-      <c r="F428" s="15"/>
-      <c r="G428" s="15"/>
-      <c r="H428" s="15"/>
-      <c r="I428" s="15"/>
+      <c r="A428" s="15"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="14"/>
+      <c r="D428" s="14"/>
+      <c r="E428" s="14"/>
+      <c r="F428" s="14"/>
+      <c r="G428" s="14"/>
+      <c r="H428" s="14"/>
+      <c r="I428" s="14"/>
       <c r="J428" s="3"/>
       <c r="K428" s="11"/>
       <c r="L428" s="4"/>
@@ -17752,15 +17914,15 @@
       <c r="Y428" s="4"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
-      <c r="A429" s="16"/>
-      <c r="B429" s="14"/>
-      <c r="C429" s="15"/>
-      <c r="D429" s="15"/>
-      <c r="E429" s="15"/>
-      <c r="F429" s="15"/>
-      <c r="G429" s="15"/>
-      <c r="H429" s="15"/>
-      <c r="I429" s="15"/>
+      <c r="A429" s="15"/>
+      <c r="B429" s="13"/>
+      <c r="C429" s="14"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="14"/>
+      <c r="F429" s="14"/>
+      <c r="G429" s="14"/>
+      <c r="H429" s="14"/>
+      <c r="I429" s="14"/>
       <c r="J429" s="3"/>
       <c r="K429" s="11"/>
       <c r="L429" s="4"/>
@@ -17779,15 +17941,15 @@
       <c r="Y429" s="4"/>
     </row>
     <row r="430" ht="12.75" customHeight="1">
-      <c r="A430" s="14"/>
-      <c r="B430" s="14"/>
-      <c r="C430" s="15"/>
-      <c r="D430" s="15"/>
-      <c r="E430" s="15"/>
-      <c r="F430" s="15"/>
-      <c r="G430" s="15"/>
-      <c r="H430" s="15"/>
-      <c r="I430" s="15"/>
+      <c r="A430" s="13"/>
+      <c r="B430" s="13"/>
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="14"/>
+      <c r="F430" s="14"/>
+      <c r="G430" s="14"/>
+      <c r="H430" s="14"/>
+      <c r="I430" s="14"/>
       <c r="J430" s="3"/>
       <c r="K430" s="11"/>
       <c r="L430" s="4"/>
@@ -17806,15 +17968,15 @@
       <c r="Y430" s="4"/>
     </row>
     <row r="431" ht="12.75" customHeight="1">
-      <c r="A431" s="14"/>
-      <c r="B431" s="14"/>
-      <c r="C431" s="15"/>
-      <c r="D431" s="15"/>
-      <c r="E431" s="15"/>
-      <c r="F431" s="15"/>
-      <c r="G431" s="15"/>
-      <c r="H431" s="15"/>
-      <c r="I431" s="15"/>
+      <c r="A431" s="13"/>
+      <c r="B431" s="13"/>
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="14"/>
+      <c r="F431" s="14"/>
+      <c r="G431" s="14"/>
+      <c r="H431" s="14"/>
+      <c r="I431" s="14"/>
       <c r="J431" s="3"/>
       <c r="K431" s="11"/>
       <c r="L431" s="4"/>
@@ -17833,15 +17995,15 @@
       <c r="Y431" s="4"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="15"/>
-      <c r="D432" s="15"/>
-      <c r="E432" s="15"/>
-      <c r="F432" s="15"/>
-      <c r="G432" s="15"/>
-      <c r="H432" s="15"/>
-      <c r="I432" s="15"/>
+      <c r="A432" s="13"/>
+      <c r="B432" s="13"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
+      <c r="F432" s="14"/>
+      <c r="G432" s="14"/>
+      <c r="H432" s="14"/>
+      <c r="I432" s="14"/>
       <c r="J432" s="3"/>
       <c r="K432" s="11"/>
       <c r="L432" s="4"/>
@@ -17860,15 +18022,15 @@
       <c r="Y432" s="4"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
-      <c r="A433" s="14"/>
-      <c r="B433" s="14"/>
-      <c r="C433" s="15"/>
-      <c r="D433" s="15"/>
-      <c r="E433" s="15"/>
-      <c r="F433" s="15"/>
-      <c r="G433" s="15"/>
-      <c r="H433" s="15"/>
-      <c r="I433" s="15"/>
+      <c r="A433" s="13"/>
+      <c r="B433" s="13"/>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="14"/>
+      <c r="H433" s="14"/>
+      <c r="I433" s="14"/>
       <c r="J433" s="3"/>
       <c r="K433" s="11"/>
       <c r="L433" s="4"/>
@@ -17887,15 +18049,15 @@
       <c r="Y433" s="4"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
-      <c r="A434" s="16"/>
-      <c r="B434" s="14"/>
-      <c r="C434" s="15"/>
-      <c r="D434" s="15"/>
-      <c r="E434" s="15"/>
-      <c r="F434" s="15"/>
-      <c r="G434" s="15"/>
-      <c r="H434" s="15"/>
-      <c r="I434" s="15"/>
+      <c r="A434" s="15"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="14"/>
+      <c r="F434" s="14"/>
+      <c r="G434" s="14"/>
+      <c r="H434" s="14"/>
+      <c r="I434" s="14"/>
       <c r="J434" s="3"/>
       <c r="K434" s="11"/>
       <c r="L434" s="4"/>
@@ -17914,15 +18076,15 @@
       <c r="Y434" s="4"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
-      <c r="A435" s="14"/>
-      <c r="B435" s="14"/>
-      <c r="C435" s="15"/>
-      <c r="D435" s="15"/>
-      <c r="E435" s="15"/>
-      <c r="F435" s="15"/>
-      <c r="G435" s="15"/>
-      <c r="H435" s="15"/>
-      <c r="I435" s="15"/>
+      <c r="A435" s="13"/>
+      <c r="B435" s="13"/>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14"/>
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
+      <c r="H435" s="14"/>
+      <c r="I435" s="14"/>
       <c r="J435" s="3"/>
       <c r="K435" s="11"/>
       <c r="L435" s="4"/>
@@ -17941,15 +18103,15 @@
       <c r="Y435" s="4"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
-      <c r="A436" s="14"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="15"/>
-      <c r="D436" s="15"/>
-      <c r="E436" s="15"/>
-      <c r="F436" s="15"/>
-      <c r="G436" s="15"/>
-      <c r="H436" s="15"/>
-      <c r="I436" s="15"/>
+      <c r="A436" s="13"/>
+      <c r="B436" s="13"/>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="14"/>
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
+      <c r="H436" s="14"/>
+      <c r="I436" s="14"/>
       <c r="J436" s="3"/>
       <c r="K436" s="11"/>
       <c r="L436" s="4"/>
@@ -17968,15 +18130,15 @@
       <c r="Y436" s="4"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="A437" s="14"/>
-      <c r="B437" s="14"/>
-      <c r="C437" s="15"/>
-      <c r="D437" s="15"/>
-      <c r="E437" s="15"/>
-      <c r="F437" s="15"/>
-      <c r="G437" s="15"/>
-      <c r="H437" s="15"/>
-      <c r="I437" s="15"/>
+      <c r="A437" s="13"/>
+      <c r="B437" s="13"/>
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="14"/>
+      <c r="F437" s="14"/>
+      <c r="G437" s="14"/>
+      <c r="H437" s="14"/>
+      <c r="I437" s="14"/>
       <c r="J437" s="3"/>
       <c r="K437" s="11"/>
       <c r="L437" s="4"/>
@@ -17995,15 +18157,15 @@
       <c r="Y437" s="4"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
-      <c r="A438" s="14"/>
-      <c r="B438" s="14"/>
-      <c r="C438" s="15"/>
-      <c r="D438" s="15"/>
-      <c r="E438" s="15"/>
-      <c r="F438" s="15"/>
-      <c r="G438" s="15"/>
-      <c r="H438" s="15"/>
-      <c r="I438" s="15"/>
+      <c r="A438" s="13"/>
+      <c r="B438" s="13"/>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="14"/>
+      <c r="F438" s="14"/>
+      <c r="G438" s="14"/>
+      <c r="H438" s="14"/>
+      <c r="I438" s="14"/>
       <c r="J438" s="3"/>
       <c r="K438" s="11"/>
       <c r="L438" s="4"/>
@@ -18022,15 +18184,15 @@
       <c r="Y438" s="4"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
-      <c r="A439" s="14"/>
-      <c r="B439" s="14"/>
-      <c r="C439" s="15"/>
-      <c r="D439" s="15"/>
-      <c r="E439" s="15"/>
-      <c r="F439" s="15"/>
-      <c r="G439" s="15"/>
-      <c r="H439" s="15"/>
-      <c r="I439" s="15"/>
+      <c r="A439" s="13"/>
+      <c r="B439" s="13"/>
+      <c r="C439" s="14"/>
+      <c r="D439" s="14"/>
+      <c r="E439" s="14"/>
+      <c r="F439" s="14"/>
+      <c r="G439" s="14"/>
+      <c r="H439" s="14"/>
+      <c r="I439" s="14"/>
       <c r="J439" s="3"/>
       <c r="K439" s="11"/>
       <c r="L439" s="4"/>
@@ -18049,15 +18211,15 @@
       <c r="Y439" s="4"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
-      <c r="A440" s="14"/>
-      <c r="B440" s="14"/>
-      <c r="C440" s="15"/>
-      <c r="D440" s="15"/>
-      <c r="E440" s="15"/>
-      <c r="F440" s="15"/>
-      <c r="G440" s="15"/>
-      <c r="H440" s="15"/>
-      <c r="I440" s="15"/>
+      <c r="A440" s="13"/>
+      <c r="B440" s="13"/>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="14"/>
+      <c r="F440" s="14"/>
+      <c r="G440" s="14"/>
+      <c r="H440" s="14"/>
+      <c r="I440" s="14"/>
       <c r="J440" s="3"/>
       <c r="K440" s="11"/>
       <c r="L440" s="4"/>
@@ -18076,15 +18238,15 @@
       <c r="Y440" s="4"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
-      <c r="A441" s="16"/>
-      <c r="B441" s="16"/>
-      <c r="C441" s="15"/>
-      <c r="D441" s="15"/>
-      <c r="E441" s="15"/>
-      <c r="F441" s="15"/>
-      <c r="G441" s="15"/>
-      <c r="H441" s="15"/>
-      <c r="I441" s="15"/>
+      <c r="A441" s="15"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="14"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+      <c r="I441" s="14"/>
       <c r="J441" s="3"/>
       <c r="K441" s="11"/>
       <c r="L441" s="4"/>
@@ -18103,15 +18265,15 @@
       <c r="Y441" s="4"/>
     </row>
     <row r="442" ht="12.75" customHeight="1">
-      <c r="A442" s="16"/>
-      <c r="B442" s="16"/>
-      <c r="C442" s="15"/>
-      <c r="D442" s="15"/>
-      <c r="E442" s="15"/>
-      <c r="F442" s="15"/>
-      <c r="G442" s="15"/>
-      <c r="H442" s="15"/>
-      <c r="I442" s="15"/>
+      <c r="A442" s="15"/>
+      <c r="B442" s="15"/>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="14"/>
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
+      <c r="H442" s="14"/>
+      <c r="I442" s="14"/>
       <c r="J442" s="3"/>
       <c r="K442" s="11"/>
       <c r="L442" s="4"/>
@@ -18130,15 +18292,15 @@
       <c r="Y442" s="4"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
-      <c r="A443" s="16"/>
-      <c r="B443" s="16"/>
-      <c r="C443" s="15"/>
-      <c r="D443" s="15"/>
-      <c r="E443" s="15"/>
-      <c r="F443" s="15"/>
-      <c r="G443" s="15"/>
-      <c r="H443" s="15"/>
-      <c r="I443" s="15"/>
+      <c r="A443" s="15"/>
+      <c r="B443" s="15"/>
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="14"/>
+      <c r="F443" s="14"/>
+      <c r="G443" s="14"/>
+      <c r="H443" s="14"/>
+      <c r="I443" s="14"/>
       <c r="J443" s="3"/>
       <c r="K443" s="11"/>
       <c r="L443" s="4"/>
@@ -18157,15 +18319,15 @@
       <c r="Y443" s="4"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
-      <c r="A444" s="16"/>
-      <c r="B444" s="16"/>
-      <c r="C444" s="15"/>
-      <c r="D444" s="15"/>
-      <c r="E444" s="15"/>
-      <c r="F444" s="15"/>
-      <c r="G444" s="15"/>
-      <c r="H444" s="15"/>
-      <c r="I444" s="15"/>
+      <c r="A444" s="15"/>
+      <c r="B444" s="15"/>
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="14"/>
+      <c r="F444" s="14"/>
+      <c r="G444" s="14"/>
+      <c r="H444" s="14"/>
+      <c r="I444" s="14"/>
       <c r="J444" s="3"/>
       <c r="K444" s="11"/>
       <c r="L444" s="4"/>
@@ -18184,15 +18346,15 @@
       <c r="Y444" s="4"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
-      <c r="A445" s="16"/>
-      <c r="B445" s="16"/>
-      <c r="C445" s="15"/>
-      <c r="D445" s="15"/>
-      <c r="E445" s="15"/>
-      <c r="F445" s="15"/>
-      <c r="G445" s="15"/>
-      <c r="H445" s="15"/>
-      <c r="I445" s="15"/>
+      <c r="A445" s="15"/>
+      <c r="B445" s="15"/>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="14"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
+      <c r="H445" s="14"/>
+      <c r="I445" s="14"/>
       <c r="J445" s="3"/>
       <c r="K445" s="11"/>
       <c r="L445" s="4"/>
@@ -18211,15 +18373,15 @@
       <c r="Y445" s="4"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
-      <c r="C446" s="15"/>
-      <c r="D446" s="15"/>
-      <c r="E446" s="15"/>
-      <c r="F446" s="15"/>
-      <c r="G446" s="15"/>
-      <c r="H446" s="15"/>
-      <c r="I446" s="15"/>
+      <c r="A446" s="13"/>
+      <c r="B446" s="13"/>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
+      <c r="H446" s="14"/>
+      <c r="I446" s="14"/>
       <c r="J446" s="3"/>
       <c r="K446" s="11"/>
       <c r="L446" s="4"/>
@@ -18238,15 +18400,15 @@
       <c r="Y446" s="4"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
-      <c r="A447" s="16"/>
-      <c r="B447" s="14"/>
-      <c r="C447" s="15"/>
-      <c r="D447" s="15"/>
-      <c r="E447" s="15"/>
-      <c r="F447" s="15"/>
-      <c r="G447" s="15"/>
-      <c r="H447" s="15"/>
-      <c r="I447" s="15"/>
+      <c r="A447" s="15"/>
+      <c r="B447" s="13"/>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="14"/>
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
+      <c r="H447" s="14"/>
+      <c r="I447" s="14"/>
       <c r="J447" s="3"/>
       <c r="K447" s="11"/>
       <c r="L447" s="4"/>
@@ -18265,15 +18427,15 @@
       <c r="Y447" s="4"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
-      <c r="A448" s="16"/>
-      <c r="B448" s="14"/>
-      <c r="C448" s="15"/>
-      <c r="D448" s="15"/>
-      <c r="E448" s="15"/>
-      <c r="F448" s="15"/>
-      <c r="G448" s="15"/>
-      <c r="H448" s="15"/>
-      <c r="I448" s="15"/>
+      <c r="A448" s="15"/>
+      <c r="B448" s="13"/>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="14"/>
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
+      <c r="H448" s="14"/>
+      <c r="I448" s="14"/>
       <c r="J448" s="3"/>
       <c r="K448" s="11"/>
       <c r="L448" s="4"/>
@@ -18292,15 +18454,15 @@
       <c r="Y448" s="4"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="A449" s="14"/>
-      <c r="B449" s="14"/>
-      <c r="C449" s="15"/>
-      <c r="D449" s="15"/>
-      <c r="E449" s="15"/>
-      <c r="F449" s="15"/>
-      <c r="G449" s="15"/>
-      <c r="H449" s="15"/>
-      <c r="I449" s="15"/>
+      <c r="A449" s="13"/>
+      <c r="B449" s="13"/>
+      <c r="C449" s="14"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="14"/>
+      <c r="F449" s="14"/>
+      <c r="G449" s="14"/>
+      <c r="H449" s="14"/>
+      <c r="I449" s="14"/>
       <c r="J449" s="3"/>
       <c r="K449" s="11"/>
       <c r="L449" s="4"/>
@@ -18319,15 +18481,15 @@
       <c r="Y449" s="4"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
-      <c r="A450" s="14"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="15"/>
-      <c r="D450" s="15"/>
-      <c r="E450" s="15"/>
-      <c r="F450" s="15"/>
-      <c r="G450" s="15"/>
-      <c r="H450" s="15"/>
-      <c r="I450" s="15"/>
+      <c r="A450" s="13"/>
+      <c r="B450" s="13"/>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="14"/>
+      <c r="F450" s="14"/>
+      <c r="G450" s="14"/>
+      <c r="H450" s="14"/>
+      <c r="I450" s="14"/>
       <c r="J450" s="3"/>
       <c r="K450" s="11"/>
       <c r="L450" s="4"/>
@@ -18346,15 +18508,15 @@
       <c r="Y450" s="4"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="A451" s="14"/>
-      <c r="B451" s="14"/>
-      <c r="C451" s="15"/>
-      <c r="D451" s="15"/>
-      <c r="E451" s="15"/>
-      <c r="F451" s="15"/>
-      <c r="G451" s="15"/>
-      <c r="H451" s="15"/>
-      <c r="I451" s="15"/>
+      <c r="A451" s="13"/>
+      <c r="B451" s="13"/>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
+      <c r="H451" s="14"/>
+      <c r="I451" s="14"/>
       <c r="J451" s="3"/>
       <c r="K451" s="11"/>
       <c r="L451" s="4"/>
@@ -18373,15 +18535,15 @@
       <c r="Y451" s="4"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="A452" s="14"/>
-      <c r="B452" s="14"/>
-      <c r="C452" s="15"/>
-      <c r="D452" s="15"/>
-      <c r="E452" s="15"/>
-      <c r="F452" s="15"/>
-      <c r="G452" s="15"/>
-      <c r="H452" s="15"/>
-      <c r="I452" s="15"/>
+      <c r="A452" s="13"/>
+      <c r="B452" s="13"/>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="14"/>
+      <c r="F452" s="14"/>
+      <c r="G452" s="14"/>
+      <c r="H452" s="14"/>
+      <c r="I452" s="14"/>
       <c r="J452" s="3"/>
       <c r="K452" s="11"/>
       <c r="L452" s="4"/>
@@ -18400,15 +18562,15 @@
       <c r="Y452" s="4"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
-      <c r="A453" s="14"/>
-      <c r="B453" s="14"/>
-      <c r="C453" s="15"/>
-      <c r="D453" s="15"/>
-      <c r="E453" s="15"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="15"/>
-      <c r="H453" s="15"/>
-      <c r="I453" s="15"/>
+      <c r="A453" s="13"/>
+      <c r="B453" s="13"/>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
+      <c r="H453" s="14"/>
+      <c r="I453" s="14"/>
       <c r="J453" s="3"/>
       <c r="K453" s="11"/>
       <c r="L453" s="4"/>
@@ -18427,15 +18589,15 @@
       <c r="Y453" s="4"/>
     </row>
     <row r="454" ht="12.75" customHeight="1">
-      <c r="A454" s="14"/>
-      <c r="B454" s="14"/>
-      <c r="C454" s="15"/>
-      <c r="D454" s="15"/>
-      <c r="E454" s="15"/>
-      <c r="F454" s="15"/>
-      <c r="G454" s="15"/>
-      <c r="H454" s="15"/>
-      <c r="I454" s="15"/>
+      <c r="A454" s="13"/>
+      <c r="B454" s="13"/>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="14"/>
+      <c r="F454" s="14"/>
+      <c r="G454" s="14"/>
+      <c r="H454" s="14"/>
+      <c r="I454" s="14"/>
       <c r="J454" s="3"/>
       <c r="K454" s="11"/>
       <c r="L454" s="4"/>
@@ -18454,15 +18616,15 @@
       <c r="Y454" s="4"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
-      <c r="A455" s="14"/>
-      <c r="B455" s="14"/>
-      <c r="C455" s="15"/>
-      <c r="D455" s="15"/>
-      <c r="E455" s="15"/>
-      <c r="F455" s="15"/>
-      <c r="G455" s="15"/>
-      <c r="H455" s="15"/>
-      <c r="I455" s="15"/>
+      <c r="A455" s="13"/>
+      <c r="B455" s="13"/>
+      <c r="C455" s="14"/>
+      <c r="D455" s="14"/>
+      <c r="E455" s="14"/>
+      <c r="F455" s="14"/>
+      <c r="G455" s="14"/>
+      <c r="H455" s="14"/>
+      <c r="I455" s="14"/>
       <c r="J455" s="3"/>
       <c r="K455" s="11"/>
       <c r="L455" s="4"/>
@@ -18481,15 +18643,15 @@
       <c r="Y455" s="4"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
-      <c r="A456" s="14"/>
-      <c r="B456" s="14"/>
-      <c r="C456" s="15"/>
-      <c r="D456" s="15"/>
-      <c r="E456" s="15"/>
-      <c r="F456" s="15"/>
-      <c r="G456" s="15"/>
-      <c r="H456" s="15"/>
-      <c r="I456" s="15"/>
+      <c r="A456" s="13"/>
+      <c r="B456" s="13"/>
+      <c r="C456" s="14"/>
+      <c r="D456" s="14"/>
+      <c r="E456" s="14"/>
+      <c r="F456" s="14"/>
+      <c r="G456" s="14"/>
+      <c r="H456" s="14"/>
+      <c r="I456" s="14"/>
       <c r="J456" s="3"/>
       <c r="K456" s="11"/>
       <c r="L456" s="4"/>
@@ -18508,15 +18670,15 @@
       <c r="Y456" s="4"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
-      <c r="A457" s="14"/>
-      <c r="B457" s="16"/>
-      <c r="C457" s="15"/>
-      <c r="D457" s="15"/>
-      <c r="E457" s="15"/>
-      <c r="F457" s="15"/>
-      <c r="G457" s="15"/>
-      <c r="H457" s="15"/>
-      <c r="I457" s="15"/>
+      <c r="A457" s="13"/>
+      <c r="B457" s="15"/>
+      <c r="C457" s="14"/>
+      <c r="D457" s="14"/>
+      <c r="E457" s="14"/>
+      <c r="F457" s="14"/>
+      <c r="G457" s="14"/>
+      <c r="H457" s="14"/>
+      <c r="I457" s="14"/>
       <c r="J457" s="3"/>
       <c r="K457" s="11"/>
       <c r="L457" s="4"/>
@@ -18535,15 +18697,15 @@
       <c r="Y457" s="4"/>
     </row>
     <row r="458" ht="12.75" customHeight="1">
-      <c r="A458" s="16"/>
-      <c r="B458" s="16"/>
-      <c r="C458" s="15"/>
-      <c r="D458" s="15"/>
-      <c r="E458" s="15"/>
-      <c r="F458" s="15"/>
-      <c r="G458" s="15"/>
-      <c r="H458" s="15"/>
-      <c r="I458" s="15"/>
+      <c r="A458" s="15"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="14"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="14"/>
+      <c r="F458" s="14"/>
+      <c r="G458" s="14"/>
+      <c r="H458" s="14"/>
+      <c r="I458" s="14"/>
       <c r="J458" s="3"/>
       <c r="K458" s="11"/>
       <c r="L458" s="4"/>
@@ -18562,15 +18724,15 @@
       <c r="Y458" s="4"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
-      <c r="A459" s="16"/>
-      <c r="B459" s="16"/>
-      <c r="C459" s="15"/>
-      <c r="D459" s="15"/>
-      <c r="E459" s="15"/>
-      <c r="F459" s="15"/>
-      <c r="G459" s="15"/>
-      <c r="H459" s="15"/>
-      <c r="I459" s="15"/>
+      <c r="A459" s="15"/>
+      <c r="B459" s="15"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
+      <c r="G459" s="14"/>
+      <c r="H459" s="14"/>
+      <c r="I459" s="14"/>
       <c r="J459" s="3"/>
       <c r="K459" s="11"/>
       <c r="L459" s="4"/>
@@ -18589,15 +18751,15 @@
       <c r="Y459" s="4"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="A460" s="16"/>
-      <c r="B460" s="16"/>
-      <c r="C460" s="15"/>
-      <c r="D460" s="15"/>
-      <c r="E460" s="15"/>
-      <c r="F460" s="15"/>
-      <c r="G460" s="15"/>
-      <c r="H460" s="15"/>
-      <c r="I460" s="15"/>
+      <c r="A460" s="15"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="14"/>
+      <c r="D460" s="14"/>
+      <c r="E460" s="14"/>
+      <c r="F460" s="14"/>
+      <c r="G460" s="14"/>
+      <c r="H460" s="14"/>
+      <c r="I460" s="14"/>
       <c r="J460" s="3"/>
       <c r="K460" s="11"/>
       <c r="L460" s="4"/>
@@ -18616,15 +18778,15 @@
       <c r="Y460" s="4"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="A461" s="16"/>
-      <c r="B461" s="16"/>
-      <c r="C461" s="15"/>
-      <c r="D461" s="15"/>
-      <c r="E461" s="15"/>
-      <c r="F461" s="15"/>
-      <c r="G461" s="15"/>
-      <c r="H461" s="15"/>
-      <c r="I461" s="15"/>
+      <c r="A461" s="15"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="14"/>
+      <c r="F461" s="14"/>
+      <c r="G461" s="14"/>
+      <c r="H461" s="14"/>
+      <c r="I461" s="14"/>
       <c r="J461" s="3"/>
       <c r="K461" s="11"/>
       <c r="L461" s="4"/>
@@ -18643,15 +18805,15 @@
       <c r="Y461" s="4"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
-      <c r="A462" s="16"/>
-      <c r="B462" s="16"/>
-      <c r="C462" s="15"/>
-      <c r="D462" s="15"/>
-      <c r="E462" s="15"/>
-      <c r="F462" s="15"/>
-      <c r="G462" s="15"/>
-      <c r="H462" s="15"/>
-      <c r="I462" s="15"/>
+      <c r="A462" s="15"/>
+      <c r="B462" s="15"/>
+      <c r="C462" s="14"/>
+      <c r="D462" s="14"/>
+      <c r="E462" s="14"/>
+      <c r="F462" s="14"/>
+      <c r="G462" s="14"/>
+      <c r="H462" s="14"/>
+      <c r="I462" s="14"/>
       <c r="J462" s="3"/>
       <c r="K462" s="11"/>
       <c r="L462" s="4"/>
@@ -18670,15 +18832,15 @@
       <c r="Y462" s="4"/>
     </row>
     <row r="463" ht="12.75" customHeight="1">
-      <c r="A463" s="16"/>
-      <c r="B463" s="16"/>
-      <c r="C463" s="15"/>
-      <c r="D463" s="15"/>
-      <c r="E463" s="15"/>
-      <c r="F463" s="15"/>
-      <c r="G463" s="15"/>
-      <c r="H463" s="15"/>
-      <c r="I463" s="15"/>
+      <c r="A463" s="15"/>
+      <c r="B463" s="15"/>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="14"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="14"/>
+      <c r="H463" s="14"/>
+      <c r="I463" s="14"/>
       <c r="J463" s="3"/>
       <c r="K463" s="11"/>
       <c r="L463" s="4"/>
@@ -18697,15 +18859,15 @@
       <c r="Y463" s="4"/>
     </row>
     <row r="464" ht="12.75" customHeight="1">
-      <c r="A464" s="16"/>
-      <c r="B464" s="16"/>
-      <c r="C464" s="15"/>
-      <c r="D464" s="15"/>
-      <c r="E464" s="15"/>
-      <c r="F464" s="15"/>
-      <c r="G464" s="15"/>
-      <c r="H464" s="15"/>
-      <c r="I464" s="15"/>
+      <c r="A464" s="15"/>
+      <c r="B464" s="15"/>
+      <c r="C464" s="14"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="14"/>
+      <c r="F464" s="14"/>
+      <c r="G464" s="14"/>
+      <c r="H464" s="14"/>
+      <c r="I464" s="14"/>
       <c r="J464" s="3"/>
       <c r="K464" s="11"/>
       <c r="L464" s="4"/>
@@ -18724,15 +18886,15 @@
       <c r="Y464" s="4"/>
     </row>
     <row r="465" ht="12.75" customHeight="1">
-      <c r="A465" s="16"/>
-      <c r="B465" s="16"/>
-      <c r="C465" s="15"/>
-      <c r="D465" s="15"/>
-      <c r="E465" s="15"/>
-      <c r="F465" s="15"/>
-      <c r="G465" s="15"/>
-      <c r="H465" s="15"/>
-      <c r="I465" s="15"/>
+      <c r="A465" s="15"/>
+      <c r="B465" s="15"/>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="14"/>
+      <c r="F465" s="14"/>
+      <c r="G465" s="14"/>
+      <c r="H465" s="14"/>
+      <c r="I465" s="14"/>
       <c r="J465" s="3"/>
       <c r="K465" s="11"/>
       <c r="L465" s="4"/>
@@ -18751,15 +18913,15 @@
       <c r="Y465" s="4"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
-      <c r="A466" s="16"/>
-      <c r="B466" s="16"/>
-      <c r="C466" s="15"/>
-      <c r="D466" s="15"/>
-      <c r="E466" s="15"/>
-      <c r="F466" s="15"/>
-      <c r="G466" s="15"/>
-      <c r="H466" s="15"/>
-      <c r="I466" s="15"/>
+      <c r="A466" s="15"/>
+      <c r="B466" s="15"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
+      <c r="H466" s="14"/>
+      <c r="I466" s="14"/>
       <c r="J466" s="3"/>
       <c r="K466" s="11"/>
       <c r="L466" s="4"/>
@@ -18778,15 +18940,15 @@
       <c r="Y466" s="4"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
-      <c r="A467" s="16"/>
-      <c r="B467" s="16"/>
-      <c r="C467" s="15"/>
-      <c r="D467" s="15"/>
-      <c r="E467" s="15"/>
-      <c r="F467" s="15"/>
-      <c r="G467" s="15"/>
-      <c r="H467" s="15"/>
-      <c r="I467" s="15"/>
+      <c r="A467" s="15"/>
+      <c r="B467" s="15"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="14"/>
+      <c r="F467" s="14"/>
+      <c r="G467" s="14"/>
+      <c r="H467" s="14"/>
+      <c r="I467" s="14"/>
       <c r="J467" s="3"/>
       <c r="K467" s="11"/>
       <c r="L467" s="4"/>
@@ -18805,15 +18967,15 @@
       <c r="Y467" s="4"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
-      <c r="A468" s="16"/>
-      <c r="B468" s="16"/>
-      <c r="C468" s="15"/>
-      <c r="D468" s="15"/>
-      <c r="E468" s="15"/>
-      <c r="F468" s="15"/>
-      <c r="G468" s="15"/>
-      <c r="H468" s="15"/>
-      <c r="I468" s="15"/>
+      <c r="A468" s="15"/>
+      <c r="B468" s="15"/>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14"/>
+      <c r="E468" s="14"/>
+      <c r="F468" s="14"/>
+      <c r="G468" s="14"/>
+      <c r="H468" s="14"/>
+      <c r="I468" s="14"/>
       <c r="J468" s="3"/>
       <c r="K468" s="11"/>
       <c r="L468" s="4"/>
@@ -18832,15 +18994,15 @@
       <c r="Y468" s="4"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
-      <c r="A469" s="16"/>
-      <c r="B469" s="16"/>
-      <c r="C469" s="15"/>
-      <c r="D469" s="15"/>
-      <c r="E469" s="15"/>
-      <c r="F469" s="15"/>
-      <c r="G469" s="15"/>
-      <c r="H469" s="15"/>
-      <c r="I469" s="15"/>
+      <c r="A469" s="15"/>
+      <c r="B469" s="15"/>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="14"/>
+      <c r="F469" s="14"/>
+      <c r="G469" s="14"/>
+      <c r="H469" s="14"/>
+      <c r="I469" s="14"/>
       <c r="J469" s="3"/>
       <c r="K469" s="11"/>
       <c r="L469" s="4"/>
@@ -18859,15 +19021,15 @@
       <c r="Y469" s="4"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
-      <c r="A470" s="16"/>
-      <c r="B470" s="16"/>
-      <c r="C470" s="15"/>
-      <c r="D470" s="15"/>
-      <c r="E470" s="15"/>
-      <c r="F470" s="15"/>
-      <c r="G470" s="15"/>
-      <c r="H470" s="15"/>
-      <c r="I470" s="15"/>
+      <c r="A470" s="15"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="14"/>
+      <c r="D470" s="14"/>
+      <c r="E470" s="14"/>
+      <c r="F470" s="14"/>
+      <c r="G470" s="14"/>
+      <c r="H470" s="14"/>
+      <c r="I470" s="14"/>
       <c r="J470" s="3"/>
       <c r="K470" s="11"/>
       <c r="L470" s="4"/>
@@ -18886,15 +19048,15 @@
       <c r="Y470" s="4"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
-      <c r="A471" s="16"/>
-      <c r="B471" s="16"/>
-      <c r="C471" s="15"/>
-      <c r="D471" s="15"/>
-      <c r="E471" s="15"/>
-      <c r="F471" s="15"/>
-      <c r="G471" s="15"/>
-      <c r="H471" s="15"/>
-      <c r="I471" s="15"/>
+      <c r="A471" s="15"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="14"/>
+      <c r="D471" s="14"/>
+      <c r="E471" s="14"/>
+      <c r="F471" s="14"/>
+      <c r="G471" s="14"/>
+      <c r="H471" s="14"/>
+      <c r="I471" s="14"/>
       <c r="J471" s="3"/>
       <c r="K471" s="11"/>
       <c r="L471" s="4"/>
@@ -18913,15 +19075,15 @@
       <c r="Y471" s="4"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
-      <c r="A472" s="16"/>
-      <c r="B472" s="16"/>
-      <c r="C472" s="15"/>
-      <c r="D472" s="15"/>
-      <c r="E472" s="15"/>
-      <c r="F472" s="15"/>
-      <c r="G472" s="15"/>
-      <c r="H472" s="15"/>
-      <c r="I472" s="15"/>
+      <c r="A472" s="15"/>
+      <c r="B472" s="15"/>
+      <c r="C472" s="14"/>
+      <c r="D472" s="14"/>
+      <c r="E472" s="14"/>
+      <c r="F472" s="14"/>
+      <c r="G472" s="14"/>
+      <c r="H472" s="14"/>
+      <c r="I472" s="14"/>
       <c r="J472" s="3"/>
       <c r="K472" s="11"/>
       <c r="L472" s="4"/>
@@ -18940,15 +19102,15 @@
       <c r="Y472" s="4"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
-      <c r="A473" s="16"/>
-      <c r="B473" s="16"/>
-      <c r="C473" s="15"/>
-      <c r="D473" s="15"/>
-      <c r="E473" s="15"/>
-      <c r="F473" s="15"/>
-      <c r="G473" s="15"/>
-      <c r="H473" s="15"/>
-      <c r="I473" s="15"/>
+      <c r="A473" s="15"/>
+      <c r="B473" s="15"/>
+      <c r="C473" s="14"/>
+      <c r="D473" s="14"/>
+      <c r="E473" s="14"/>
+      <c r="F473" s="14"/>
+      <c r="G473" s="14"/>
+      <c r="H473" s="14"/>
+      <c r="I473" s="14"/>
       <c r="J473" s="3"/>
       <c r="K473" s="11"/>
       <c r="L473" s="4"/>
@@ -18967,15 +19129,15 @@
       <c r="Y473" s="4"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
-      <c r="A474" s="16"/>
-      <c r="B474" s="16"/>
-      <c r="C474" s="15"/>
-      <c r="D474" s="15"/>
-      <c r="E474" s="15"/>
-      <c r="F474" s="15"/>
-      <c r="G474" s="15"/>
-      <c r="H474" s="15"/>
-      <c r="I474" s="15"/>
+      <c r="A474" s="15"/>
+      <c r="B474" s="15"/>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14"/>
+      <c r="E474" s="14"/>
+      <c r="F474" s="14"/>
+      <c r="G474" s="14"/>
+      <c r="H474" s="14"/>
+      <c r="I474" s="14"/>
       <c r="J474" s="3"/>
       <c r="K474" s="11"/>
       <c r="L474" s="4"/>
@@ -18994,15 +19156,15 @@
       <c r="Y474" s="4"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
-      <c r="A475" s="16"/>
-      <c r="B475" s="16"/>
-      <c r="C475" s="15"/>
-      <c r="D475" s="15"/>
-      <c r="E475" s="15"/>
-      <c r="F475" s="15"/>
-      <c r="G475" s="15"/>
-      <c r="H475" s="15"/>
-      <c r="I475" s="15"/>
+      <c r="A475" s="15"/>
+      <c r="B475" s="15"/>
+      <c r="C475" s="14"/>
+      <c r="D475" s="14"/>
+      <c r="E475" s="14"/>
+      <c r="F475" s="14"/>
+      <c r="G475" s="14"/>
+      <c r="H475" s="14"/>
+      <c r="I475" s="14"/>
       <c r="J475" s="3"/>
       <c r="K475" s="11"/>
       <c r="L475" s="4"/>
@@ -19021,15 +19183,15 @@
       <c r="Y475" s="4"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
-      <c r="A476" s="16"/>
-      <c r="B476" s="16"/>
-      <c r="C476" s="15"/>
-      <c r="D476" s="15"/>
-      <c r="E476" s="15"/>
-      <c r="F476" s="15"/>
-      <c r="G476" s="15"/>
-      <c r="H476" s="15"/>
-      <c r="I476" s="15"/>
+      <c r="A476" s="15"/>
+      <c r="B476" s="15"/>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14"/>
+      <c r="E476" s="14"/>
+      <c r="F476" s="14"/>
+      <c r="G476" s="14"/>
+      <c r="H476" s="14"/>
+      <c r="I476" s="14"/>
       <c r="J476" s="3"/>
       <c r="K476" s="11"/>
       <c r="L476" s="4"/>
@@ -19048,15 +19210,15 @@
       <c r="Y476" s="4"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
-      <c r="A477" s="16"/>
-      <c r="B477" s="16"/>
-      <c r="C477" s="15"/>
-      <c r="D477" s="15"/>
-      <c r="E477" s="15"/>
-      <c r="F477" s="15"/>
-      <c r="G477" s="15"/>
-      <c r="H477" s="15"/>
-      <c r="I477" s="15"/>
+      <c r="A477" s="15"/>
+      <c r="B477" s="15"/>
+      <c r="C477" s="14"/>
+      <c r="D477" s="14"/>
+      <c r="E477" s="14"/>
+      <c r="F477" s="14"/>
+      <c r="G477" s="14"/>
+      <c r="H477" s="14"/>
+      <c r="I477" s="14"/>
       <c r="J477" s="3"/>
       <c r="K477" s="11"/>
       <c r="L477" s="4"/>
@@ -19075,15 +19237,15 @@
       <c r="Y477" s="4"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
-      <c r="A478" s="16"/>
-      <c r="B478" s="16"/>
-      <c r="C478" s="15"/>
-      <c r="D478" s="15"/>
-      <c r="E478" s="15"/>
-      <c r="F478" s="15"/>
-      <c r="G478" s="15"/>
-      <c r="H478" s="15"/>
-      <c r="I478" s="15"/>
+      <c r="A478" s="15"/>
+      <c r="B478" s="15"/>
+      <c r="C478" s="14"/>
+      <c r="D478" s="14"/>
+      <c r="E478" s="14"/>
+      <c r="F478" s="14"/>
+      <c r="G478" s="14"/>
+      <c r="H478" s="14"/>
+      <c r="I478" s="14"/>
       <c r="J478" s="3"/>
       <c r="K478" s="11"/>
       <c r="L478" s="4"/>
@@ -19102,15 +19264,15 @@
       <c r="Y478" s="4"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
-      <c r="A479" s="16"/>
-      <c r="B479" s="16"/>
-      <c r="C479" s="15"/>
-      <c r="D479" s="15"/>
-      <c r="E479" s="15"/>
-      <c r="F479" s="15"/>
-      <c r="G479" s="15"/>
-      <c r="H479" s="15"/>
-      <c r="I479" s="15"/>
+      <c r="A479" s="15"/>
+      <c r="B479" s="15"/>
+      <c r="C479" s="14"/>
+      <c r="D479" s="14"/>
+      <c r="E479" s="14"/>
+      <c r="F479" s="14"/>
+      <c r="G479" s="14"/>
+      <c r="H479" s="14"/>
+      <c r="I479" s="14"/>
       <c r="J479" s="3"/>
       <c r="K479" s="11"/>
       <c r="L479" s="4"/>
@@ -19129,15 +19291,15 @@
       <c r="Y479" s="4"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
-      <c r="A480" s="16"/>
-      <c r="B480" s="16"/>
-      <c r="C480" s="15"/>
-      <c r="D480" s="15"/>
-      <c r="E480" s="15"/>
-      <c r="F480" s="15"/>
-      <c r="G480" s="15"/>
-      <c r="H480" s="15"/>
-      <c r="I480" s="15"/>
+      <c r="A480" s="15"/>
+      <c r="B480" s="15"/>
+      <c r="C480" s="14"/>
+      <c r="D480" s="14"/>
+      <c r="E480" s="14"/>
+      <c r="F480" s="14"/>
+      <c r="G480" s="14"/>
+      <c r="H480" s="14"/>
+      <c r="I480" s="14"/>
       <c r="J480" s="3"/>
       <c r="K480" s="11"/>
       <c r="L480" s="4"/>
@@ -19156,15 +19318,15 @@
       <c r="Y480" s="4"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
-      <c r="A481" s="16"/>
-      <c r="B481" s="16"/>
-      <c r="C481" s="15"/>
-      <c r="D481" s="15"/>
-      <c r="E481" s="15"/>
-      <c r="F481" s="15"/>
-      <c r="G481" s="15"/>
-      <c r="H481" s="15"/>
-      <c r="I481" s="15"/>
+      <c r="A481" s="15"/>
+      <c r="B481" s="15"/>
+      <c r="C481" s="14"/>
+      <c r="D481" s="14"/>
+      <c r="E481" s="14"/>
+      <c r="F481" s="14"/>
+      <c r="G481" s="14"/>
+      <c r="H481" s="14"/>
+      <c r="I481" s="14"/>
       <c r="J481" s="3"/>
       <c r="K481" s="11"/>
       <c r="L481" s="4"/>
@@ -19183,15 +19345,15 @@
       <c r="Y481" s="4"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
-      <c r="A482" s="16"/>
-      <c r="B482" s="16"/>
-      <c r="C482" s="15"/>
-      <c r="D482" s="15"/>
-      <c r="E482" s="15"/>
-      <c r="F482" s="15"/>
-      <c r="G482" s="15"/>
-      <c r="H482" s="15"/>
-      <c r="I482" s="15"/>
+      <c r="A482" s="15"/>
+      <c r="B482" s="15"/>
+      <c r="C482" s="14"/>
+      <c r="D482" s="14"/>
+      <c r="E482" s="14"/>
+      <c r="F482" s="14"/>
+      <c r="G482" s="14"/>
+      <c r="H482" s="14"/>
+      <c r="I482" s="14"/>
       <c r="J482" s="3"/>
       <c r="K482" s="11"/>
       <c r="L482" s="4"/>
@@ -19210,15 +19372,15 @@
       <c r="Y482" s="4"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
-      <c r="A483" s="16"/>
-      <c r="B483" s="16"/>
-      <c r="C483" s="15"/>
-      <c r="D483" s="15"/>
-      <c r="E483" s="15"/>
-      <c r="F483" s="15"/>
-      <c r="G483" s="15"/>
-      <c r="H483" s="15"/>
-      <c r="I483" s="15"/>
+      <c r="A483" s="15"/>
+      <c r="B483" s="15"/>
+      <c r="C483" s="14"/>
+      <c r="D483" s="14"/>
+      <c r="E483" s="14"/>
+      <c r="F483" s="14"/>
+      <c r="G483" s="14"/>
+      <c r="H483" s="14"/>
+      <c r="I483" s="14"/>
       <c r="J483" s="3"/>
       <c r="K483" s="11"/>
       <c r="L483" s="4"/>
@@ -19237,15 +19399,15 @@
       <c r="Y483" s="4"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
-      <c r="A484" s="16"/>
-      <c r="B484" s="16"/>
-      <c r="C484" s="15"/>
-      <c r="D484" s="15"/>
-      <c r="E484" s="15"/>
-      <c r="F484" s="15"/>
-      <c r="G484" s="15"/>
-      <c r="H484" s="15"/>
-      <c r="I484" s="15"/>
+      <c r="A484" s="15"/>
+      <c r="B484" s="15"/>
+      <c r="C484" s="14"/>
+      <c r="D484" s="14"/>
+      <c r="E484" s="14"/>
+      <c r="F484" s="14"/>
+      <c r="G484" s="14"/>
+      <c r="H484" s="14"/>
+      <c r="I484" s="14"/>
       <c r="J484" s="3"/>
       <c r="K484" s="11"/>
       <c r="L484" s="4"/>
@@ -19264,15 +19426,15 @@
       <c r="Y484" s="4"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
-      <c r="A485" s="16"/>
-      <c r="B485" s="16"/>
-      <c r="C485" s="15"/>
-      <c r="D485" s="15"/>
-      <c r="E485" s="15"/>
-      <c r="F485" s="15"/>
-      <c r="G485" s="15"/>
-      <c r="H485" s="15"/>
-      <c r="I485" s="15"/>
+      <c r="A485" s="15"/>
+      <c r="B485" s="15"/>
+      <c r="C485" s="14"/>
+      <c r="D485" s="14"/>
+      <c r="E485" s="14"/>
+      <c r="F485" s="14"/>
+      <c r="G485" s="14"/>
+      <c r="H485" s="14"/>
+      <c r="I485" s="14"/>
       <c r="J485" s="3"/>
       <c r="K485" s="11"/>
       <c r="L485" s="4"/>
@@ -19291,15 +19453,15 @@
       <c r="Y485" s="4"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
-      <c r="A486" s="16"/>
-      <c r="B486" s="16"/>
-      <c r="C486" s="15"/>
-      <c r="D486" s="15"/>
-      <c r="E486" s="15"/>
-      <c r="F486" s="15"/>
-      <c r="G486" s="15"/>
-      <c r="H486" s="15"/>
-      <c r="I486" s="15"/>
+      <c r="A486" s="15"/>
+      <c r="B486" s="15"/>
+      <c r="C486" s="14"/>
+      <c r="D486" s="14"/>
+      <c r="E486" s="14"/>
+      <c r="F486" s="14"/>
+      <c r="G486" s="14"/>
+      <c r="H486" s="14"/>
+      <c r="I486" s="14"/>
       <c r="J486" s="3"/>
       <c r="K486" s="11"/>
       <c r="L486" s="4"/>
@@ -19318,15 +19480,15 @@
       <c r="Y486" s="4"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
-      <c r="A487" s="16"/>
-      <c r="B487" s="16"/>
-      <c r="C487" s="15"/>
-      <c r="D487" s="15"/>
-      <c r="E487" s="15"/>
-      <c r="F487" s="15"/>
-      <c r="G487" s="15"/>
-      <c r="H487" s="15"/>
-      <c r="I487" s="15"/>
+      <c r="A487" s="15"/>
+      <c r="B487" s="15"/>
+      <c r="C487" s="14"/>
+      <c r="D487" s="14"/>
+      <c r="E487" s="14"/>
+      <c r="F487" s="14"/>
+      <c r="G487" s="14"/>
+      <c r="H487" s="14"/>
+      <c r="I487" s="14"/>
       <c r="J487" s="3"/>
       <c r="K487" s="11"/>
       <c r="L487" s="4"/>
@@ -19345,15 +19507,15 @@
       <c r="Y487" s="4"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
-      <c r="A488" s="16"/>
-      <c r="B488" s="16"/>
-      <c r="C488" s="15"/>
-      <c r="D488" s="15"/>
-      <c r="E488" s="15"/>
-      <c r="F488" s="15"/>
-      <c r="G488" s="15"/>
-      <c r="H488" s="15"/>
-      <c r="I488" s="15"/>
+      <c r="A488" s="15"/>
+      <c r="B488" s="15"/>
+      <c r="C488" s="14"/>
+      <c r="D488" s="14"/>
+      <c r="E488" s="14"/>
+      <c r="F488" s="14"/>
+      <c r="G488" s="14"/>
+      <c r="H488" s="14"/>
+      <c r="I488" s="14"/>
       <c r="J488" s="3"/>
       <c r="K488" s="11"/>
       <c r="L488" s="4"/>
@@ -19372,15 +19534,15 @@
       <c r="Y488" s="4"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
-      <c r="A489" s="16"/>
-      <c r="B489" s="16"/>
-      <c r="C489" s="15"/>
-      <c r="D489" s="15"/>
-      <c r="E489" s="15"/>
-      <c r="F489" s="15"/>
-      <c r="G489" s="15"/>
-      <c r="H489" s="15"/>
-      <c r="I489" s="15"/>
+      <c r="A489" s="15"/>
+      <c r="B489" s="15"/>
+      <c r="C489" s="14"/>
+      <c r="D489" s="14"/>
+      <c r="E489" s="14"/>
+      <c r="F489" s="14"/>
+      <c r="G489" s="14"/>
+      <c r="H489" s="14"/>
+      <c r="I489" s="14"/>
       <c r="J489" s="3"/>
       <c r="K489" s="11"/>
       <c r="L489" s="4"/>
@@ -19399,15 +19561,15 @@
       <c r="Y489" s="4"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
-      <c r="A490" s="16"/>
-      <c r="B490" s="16"/>
-      <c r="C490" s="15"/>
-      <c r="D490" s="15"/>
-      <c r="E490" s="15"/>
-      <c r="F490" s="15"/>
-      <c r="G490" s="15"/>
-      <c r="H490" s="15"/>
-      <c r="I490" s="15"/>
+      <c r="A490" s="15"/>
+      <c r="B490" s="15"/>
+      <c r="C490" s="14"/>
+      <c r="D490" s="14"/>
+      <c r="E490" s="14"/>
+      <c r="F490" s="14"/>
+      <c r="G490" s="14"/>
+      <c r="H490" s="14"/>
+      <c r="I490" s="14"/>
       <c r="J490" s="3"/>
       <c r="K490" s="11"/>
       <c r="L490" s="4"/>
@@ -19426,15 +19588,15 @@
       <c r="Y490" s="4"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
-      <c r="A491" s="16"/>
-      <c r="B491" s="16"/>
-      <c r="C491" s="15"/>
-      <c r="D491" s="15"/>
-      <c r="E491" s="15"/>
-      <c r="F491" s="15"/>
-      <c r="G491" s="15"/>
-      <c r="H491" s="15"/>
-      <c r="I491" s="15"/>
+      <c r="A491" s="15"/>
+      <c r="B491" s="15"/>
+      <c r="C491" s="14"/>
+      <c r="D491" s="14"/>
+      <c r="E491" s="14"/>
+      <c r="F491" s="14"/>
+      <c r="G491" s="14"/>
+      <c r="H491" s="14"/>
+      <c r="I491" s="14"/>
       <c r="J491" s="3"/>
       <c r="K491" s="11"/>
       <c r="L491" s="4"/>
@@ -19453,15 +19615,15 @@
       <c r="Y491" s="4"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
-      <c r="A492" s="16"/>
-      <c r="B492" s="16"/>
-      <c r="C492" s="15"/>
-      <c r="D492" s="15"/>
-      <c r="E492" s="15"/>
-      <c r="F492" s="15"/>
-      <c r="G492" s="15"/>
-      <c r="H492" s="15"/>
-      <c r="I492" s="15"/>
+      <c r="A492" s="15"/>
+      <c r="B492" s="15"/>
+      <c r="C492" s="14"/>
+      <c r="D492" s="14"/>
+      <c r="E492" s="14"/>
+      <c r="F492" s="14"/>
+      <c r="G492" s="14"/>
+      <c r="H492" s="14"/>
+      <c r="I492" s="14"/>
       <c r="J492" s="3"/>
       <c r="K492" s="11"/>
       <c r="L492" s="4"/>
@@ -19480,15 +19642,15 @@
       <c r="Y492" s="4"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
-      <c r="A493" s="16"/>
-      <c r="B493" s="16"/>
-      <c r="C493" s="15"/>
-      <c r="D493" s="15"/>
-      <c r="E493" s="15"/>
-      <c r="F493" s="15"/>
-      <c r="G493" s="15"/>
-      <c r="H493" s="15"/>
-      <c r="I493" s="15"/>
+      <c r="A493" s="15"/>
+      <c r="B493" s="15"/>
+      <c r="C493" s="14"/>
+      <c r="D493" s="14"/>
+      <c r="E493" s="14"/>
+      <c r="F493" s="14"/>
+      <c r="G493" s="14"/>
+      <c r="H493" s="14"/>
+      <c r="I493" s="14"/>
       <c r="J493" s="3"/>
       <c r="K493" s="11"/>
       <c r="L493" s="4"/>
@@ -19507,15 +19669,15 @@
       <c r="Y493" s="4"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
-      <c r="A494" s="16"/>
-      <c r="B494" s="16"/>
-      <c r="C494" s="15"/>
-      <c r="D494" s="15"/>
-      <c r="E494" s="15"/>
-      <c r="F494" s="15"/>
-      <c r="G494" s="15"/>
-      <c r="H494" s="15"/>
-      <c r="I494" s="15"/>
+      <c r="A494" s="15"/>
+      <c r="B494" s="15"/>
+      <c r="C494" s="14"/>
+      <c r="D494" s="14"/>
+      <c r="E494" s="14"/>
+      <c r="F494" s="14"/>
+      <c r="G494" s="14"/>
+      <c r="H494" s="14"/>
+      <c r="I494" s="14"/>
       <c r="J494" s="3"/>
       <c r="K494" s="11"/>
       <c r="L494" s="4"/>
@@ -19534,15 +19696,15 @@
       <c r="Y494" s="4"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
-      <c r="A495" s="16"/>
-      <c r="B495" s="16"/>
-      <c r="C495" s="15"/>
-      <c r="D495" s="15"/>
-      <c r="E495" s="15"/>
-      <c r="F495" s="15"/>
-      <c r="G495" s="15"/>
-      <c r="H495" s="15"/>
-      <c r="I495" s="15"/>
+      <c r="A495" s="15"/>
+      <c r="B495" s="15"/>
+      <c r="C495" s="14"/>
+      <c r="D495" s="14"/>
+      <c r="E495" s="14"/>
+      <c r="F495" s="14"/>
+      <c r="G495" s="14"/>
+      <c r="H495" s="14"/>
+      <c r="I495" s="14"/>
       <c r="J495" s="3"/>
       <c r="K495" s="11"/>
       <c r="L495" s="4"/>
@@ -19561,15 +19723,15 @@
       <c r="Y495" s="4"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
-      <c r="A496" s="16"/>
-      <c r="B496" s="16"/>
-      <c r="C496" s="15"/>
-      <c r="D496" s="15"/>
-      <c r="E496" s="15"/>
-      <c r="F496" s="15"/>
-      <c r="G496" s="15"/>
-      <c r="H496" s="15"/>
-      <c r="I496" s="15"/>
+      <c r="A496" s="15"/>
+      <c r="B496" s="15"/>
+      <c r="C496" s="14"/>
+      <c r="D496" s="14"/>
+      <c r="E496" s="14"/>
+      <c r="F496" s="14"/>
+      <c r="G496" s="14"/>
+      <c r="H496" s="14"/>
+      <c r="I496" s="14"/>
       <c r="J496" s="3"/>
       <c r="K496" s="11"/>
       <c r="L496" s="4"/>
@@ -19588,15 +19750,15 @@
       <c r="Y496" s="4"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
-      <c r="A497" s="16"/>
-      <c r="B497" s="16"/>
-      <c r="C497" s="15"/>
-      <c r="D497" s="15"/>
-      <c r="E497" s="15"/>
-      <c r="F497" s="15"/>
-      <c r="G497" s="15"/>
-      <c r="H497" s="15"/>
-      <c r="I497" s="15"/>
+      <c r="A497" s="15"/>
+      <c r="B497" s="15"/>
+      <c r="C497" s="14"/>
+      <c r="D497" s="14"/>
+      <c r="E497" s="14"/>
+      <c r="F497" s="14"/>
+      <c r="G497" s="14"/>
+      <c r="H497" s="14"/>
+      <c r="I497" s="14"/>
       <c r="J497" s="3"/>
       <c r="K497" s="11"/>
       <c r="L497" s="4"/>
@@ -19615,15 +19777,15 @@
       <c r="Y497" s="4"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
-      <c r="A498" s="16"/>
-      <c r="B498" s="16"/>
-      <c r="C498" s="15"/>
-      <c r="D498" s="15"/>
-      <c r="E498" s="15"/>
-      <c r="F498" s="15"/>
-      <c r="G498" s="15"/>
-      <c r="H498" s="15"/>
-      <c r="I498" s="15"/>
+      <c r="A498" s="15"/>
+      <c r="B498" s="15"/>
+      <c r="C498" s="14"/>
+      <c r="D498" s="14"/>
+      <c r="E498" s="14"/>
+      <c r="F498" s="14"/>
+      <c r="G498" s="14"/>
+      <c r="H498" s="14"/>
+      <c r="I498" s="14"/>
       <c r="J498" s="3"/>
       <c r="K498" s="11"/>
       <c r="L498" s="4"/>
@@ -19642,15 +19804,15 @@
       <c r="Y498" s="4"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
-      <c r="A499" s="16"/>
-      <c r="B499" s="16"/>
-      <c r="C499" s="15"/>
-      <c r="D499" s="15"/>
-      <c r="E499" s="15"/>
-      <c r="F499" s="15"/>
-      <c r="G499" s="15"/>
-      <c r="H499" s="15"/>
-      <c r="I499" s="15"/>
+      <c r="A499" s="15"/>
+      <c r="B499" s="15"/>
+      <c r="C499" s="14"/>
+      <c r="D499" s="14"/>
+      <c r="E499" s="14"/>
+      <c r="F499" s="14"/>
+      <c r="G499" s="14"/>
+      <c r="H499" s="14"/>
+      <c r="I499" s="14"/>
       <c r="J499" s="3"/>
       <c r="K499" s="11"/>
       <c r="L499" s="4"/>
@@ -19669,15 +19831,15 @@
       <c r="Y499" s="4"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
-      <c r="A500" s="16"/>
-      <c r="B500" s="16"/>
-      <c r="C500" s="15"/>
-      <c r="D500" s="15"/>
-      <c r="E500" s="15"/>
-      <c r="F500" s="15"/>
-      <c r="G500" s="15"/>
-      <c r="H500" s="15"/>
-      <c r="I500" s="15"/>
+      <c r="A500" s="15"/>
+      <c r="B500" s="15"/>
+      <c r="C500" s="14"/>
+      <c r="D500" s="14"/>
+      <c r="E500" s="14"/>
+      <c r="F500" s="14"/>
+      <c r="G500" s="14"/>
+      <c r="H500" s="14"/>
+      <c r="I500" s="14"/>
       <c r="J500" s="3"/>
       <c r="K500" s="11"/>
       <c r="L500" s="4"/>
@@ -19696,15 +19858,15 @@
       <c r="Y500" s="4"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
-      <c r="A501" s="16"/>
-      <c r="B501" s="16"/>
-      <c r="C501" s="15"/>
-      <c r="D501" s="15"/>
-      <c r="E501" s="15"/>
-      <c r="F501" s="15"/>
-      <c r="G501" s="15"/>
-      <c r="H501" s="15"/>
-      <c r="I501" s="15"/>
+      <c r="A501" s="15"/>
+      <c r="B501" s="15"/>
+      <c r="C501" s="14"/>
+      <c r="D501" s="14"/>
+      <c r="E501" s="14"/>
+      <c r="F501" s="14"/>
+      <c r="G501" s="14"/>
+      <c r="H501" s="14"/>
+      <c r="I501" s="14"/>
       <c r="J501" s="3"/>
       <c r="K501" s="11"/>
       <c r="L501" s="4"/>
@@ -19723,15 +19885,15 @@
       <c r="Y501" s="4"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
-      <c r="A502" s="16"/>
-      <c r="B502" s="16"/>
-      <c r="C502" s="15"/>
-      <c r="D502" s="15"/>
-      <c r="E502" s="15"/>
-      <c r="F502" s="15"/>
-      <c r="G502" s="15"/>
-      <c r="H502" s="15"/>
-      <c r="I502" s="15"/>
+      <c r="A502" s="15"/>
+      <c r="B502" s="15"/>
+      <c r="C502" s="14"/>
+      <c r="D502" s="14"/>
+      <c r="E502" s="14"/>
+      <c r="F502" s="14"/>
+      <c r="G502" s="14"/>
+      <c r="H502" s="14"/>
+      <c r="I502" s="14"/>
       <c r="J502" s="3"/>
       <c r="K502" s="11"/>
       <c r="L502" s="4"/>
@@ -19750,15 +19912,15 @@
       <c r="Y502" s="4"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
-      <c r="A503" s="16"/>
-      <c r="B503" s="16"/>
-      <c r="C503" s="15"/>
-      <c r="D503" s="15"/>
-      <c r="E503" s="15"/>
-      <c r="F503" s="15"/>
-      <c r="G503" s="15"/>
-      <c r="H503" s="15"/>
-      <c r="I503" s="15"/>
+      <c r="A503" s="15"/>
+      <c r="B503" s="15"/>
+      <c r="C503" s="14"/>
+      <c r="D503" s="14"/>
+      <c r="E503" s="14"/>
+      <c r="F503" s="14"/>
+      <c r="G503" s="14"/>
+      <c r="H503" s="14"/>
+      <c r="I503" s="14"/>
       <c r="J503" s="3"/>
       <c r="K503" s="11"/>
       <c r="L503" s="4"/>
@@ -19777,15 +19939,15 @@
       <c r="Y503" s="4"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
-      <c r="A504" s="16"/>
-      <c r="B504" s="16"/>
-      <c r="C504" s="15"/>
-      <c r="D504" s="15"/>
-      <c r="E504" s="15"/>
-      <c r="F504" s="15"/>
-      <c r="G504" s="15"/>
-      <c r="H504" s="15"/>
-      <c r="I504" s="15"/>
+      <c r="A504" s="15"/>
+      <c r="B504" s="15"/>
+      <c r="C504" s="14"/>
+      <c r="D504" s="14"/>
+      <c r="E504" s="14"/>
+      <c r="F504" s="14"/>
+      <c r="G504" s="14"/>
+      <c r="H504" s="14"/>
+      <c r="I504" s="14"/>
       <c r="J504" s="3"/>
       <c r="K504" s="11"/>
       <c r="L504" s="4"/>
@@ -19804,15 +19966,15 @@
       <c r="Y504" s="4"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
-      <c r="A505" s="16"/>
-      <c r="B505" s="16"/>
-      <c r="C505" s="15"/>
-      <c r="D505" s="15"/>
-      <c r="E505" s="15"/>
-      <c r="F505" s="15"/>
-      <c r="G505" s="15"/>
-      <c r="H505" s="15"/>
-      <c r="I505" s="15"/>
+      <c r="A505" s="15"/>
+      <c r="B505" s="15"/>
+      <c r="C505" s="14"/>
+      <c r="D505" s="14"/>
+      <c r="E505" s="14"/>
+      <c r="F505" s="14"/>
+      <c r="G505" s="14"/>
+      <c r="H505" s="14"/>
+      <c r="I505" s="14"/>
       <c r="J505" s="3"/>
       <c r="K505" s="11"/>
       <c r="L505" s="4"/>
@@ -19831,15 +19993,15 @@
       <c r="Y505" s="4"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
-      <c r="A506" s="16"/>
-      <c r="B506" s="16"/>
-      <c r="C506" s="15"/>
-      <c r="D506" s="15"/>
-      <c r="E506" s="15"/>
-      <c r="F506" s="15"/>
-      <c r="G506" s="15"/>
-      <c r="H506" s="15"/>
-      <c r="I506" s="15"/>
+      <c r="A506" s="15"/>
+      <c r="B506" s="15"/>
+      <c r="C506" s="14"/>
+      <c r="D506" s="14"/>
+      <c r="E506" s="14"/>
+      <c r="F506" s="14"/>
+      <c r="G506" s="14"/>
+      <c r="H506" s="14"/>
+      <c r="I506" s="14"/>
       <c r="J506" s="3"/>
       <c r="K506" s="11"/>
       <c r="L506" s="4"/>
@@ -19858,15 +20020,15 @@
       <c r="Y506" s="4"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
-      <c r="A507" s="16"/>
-      <c r="B507" s="16"/>
-      <c r="C507" s="15"/>
-      <c r="D507" s="15"/>
-      <c r="E507" s="15"/>
-      <c r="F507" s="15"/>
-      <c r="G507" s="15"/>
-      <c r="H507" s="15"/>
-      <c r="I507" s="15"/>
+      <c r="A507" s="15"/>
+      <c r="B507" s="15"/>
+      <c r="C507" s="14"/>
+      <c r="D507" s="14"/>
+      <c r="E507" s="14"/>
+      <c r="F507" s="14"/>
+      <c r="G507" s="14"/>
+      <c r="H507" s="14"/>
+      <c r="I507" s="14"/>
       <c r="J507" s="3"/>
       <c r="K507" s="11"/>
       <c r="L507" s="4"/>
@@ -19885,15 +20047,15 @@
       <c r="Y507" s="4"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
-      <c r="A508" s="16"/>
-      <c r="B508" s="16"/>
-      <c r="C508" s="15"/>
-      <c r="D508" s="15"/>
-      <c r="E508" s="15"/>
-      <c r="F508" s="15"/>
-      <c r="G508" s="15"/>
-      <c r="H508" s="15"/>
-      <c r="I508" s="15"/>
+      <c r="A508" s="15"/>
+      <c r="B508" s="15"/>
+      <c r="C508" s="14"/>
+      <c r="D508" s="14"/>
+      <c r="E508" s="14"/>
+      <c r="F508" s="14"/>
+      <c r="G508" s="14"/>
+      <c r="H508" s="14"/>
+      <c r="I508" s="14"/>
       <c r="J508" s="3"/>
       <c r="K508" s="11"/>
       <c r="L508" s="4"/>
@@ -19912,15 +20074,15 @@
       <c r="Y508" s="4"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
-      <c r="A509" s="16"/>
-      <c r="B509" s="16"/>
-      <c r="C509" s="15"/>
-      <c r="D509" s="15"/>
-      <c r="E509" s="15"/>
-      <c r="F509" s="15"/>
-      <c r="G509" s="15"/>
-      <c r="H509" s="15"/>
-      <c r="I509" s="15"/>
+      <c r="A509" s="15"/>
+      <c r="B509" s="15"/>
+      <c r="C509" s="14"/>
+      <c r="D509" s="14"/>
+      <c r="E509" s="14"/>
+      <c r="F509" s="14"/>
+      <c r="G509" s="14"/>
+      <c r="H509" s="14"/>
+      <c r="I509" s="14"/>
       <c r="J509" s="3"/>
       <c r="K509" s="11"/>
       <c r="L509" s="4"/>
@@ -19939,15 +20101,15 @@
       <c r="Y509" s="4"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
-      <c r="A510" s="16"/>
-      <c r="B510" s="16"/>
-      <c r="C510" s="15"/>
-      <c r="D510" s="15"/>
-      <c r="E510" s="15"/>
-      <c r="F510" s="15"/>
-      <c r="G510" s="15"/>
-      <c r="H510" s="15"/>
-      <c r="I510" s="15"/>
+      <c r="A510" s="15"/>
+      <c r="B510" s="15"/>
+      <c r="C510" s="14"/>
+      <c r="D510" s="14"/>
+      <c r="E510" s="14"/>
+      <c r="F510" s="14"/>
+      <c r="G510" s="14"/>
+      <c r="H510" s="14"/>
+      <c r="I510" s="14"/>
       <c r="J510" s="3"/>
       <c r="K510" s="11"/>
       <c r="L510" s="4"/>
@@ -19966,15 +20128,15 @@
       <c r="Y510" s="4"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
-      <c r="A511" s="16"/>
-      <c r="B511" s="16"/>
-      <c r="C511" s="15"/>
-      <c r="D511" s="15"/>
-      <c r="E511" s="15"/>
-      <c r="F511" s="15"/>
-      <c r="G511" s="15"/>
-      <c r="H511" s="15"/>
-      <c r="I511" s="15"/>
+      <c r="A511" s="15"/>
+      <c r="B511" s="15"/>
+      <c r="C511" s="14"/>
+      <c r="D511" s="14"/>
+      <c r="E511" s="14"/>
+      <c r="F511" s="14"/>
+      <c r="G511" s="14"/>
+      <c r="H511" s="14"/>
+      <c r="I511" s="14"/>
       <c r="J511" s="3"/>
       <c r="K511" s="11"/>
       <c r="L511" s="4"/>
@@ -19993,15 +20155,15 @@
       <c r="Y511" s="4"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
-      <c r="A512" s="16"/>
-      <c r="B512" s="16"/>
-      <c r="C512" s="15"/>
-      <c r="D512" s="15"/>
-      <c r="E512" s="15"/>
-      <c r="F512" s="15"/>
-      <c r="G512" s="15"/>
-      <c r="H512" s="15"/>
-      <c r="I512" s="15"/>
+      <c r="A512" s="15"/>
+      <c r="B512" s="15"/>
+      <c r="C512" s="14"/>
+      <c r="D512" s="14"/>
+      <c r="E512" s="14"/>
+      <c r="F512" s="14"/>
+      <c r="G512" s="14"/>
+      <c r="H512" s="14"/>
+      <c r="I512" s="14"/>
       <c r="J512" s="3"/>
       <c r="K512" s="11"/>
       <c r="L512" s="4"/>
@@ -20020,15 +20182,15 @@
       <c r="Y512" s="4"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
-      <c r="A513" s="16"/>
-      <c r="B513" s="16"/>
-      <c r="C513" s="15"/>
-      <c r="D513" s="15"/>
-      <c r="E513" s="15"/>
-      <c r="F513" s="15"/>
-      <c r="G513" s="15"/>
-      <c r="H513" s="15"/>
-      <c r="I513" s="15"/>
+      <c r="A513" s="15"/>
+      <c r="B513" s="15"/>
+      <c r="C513" s="14"/>
+      <c r="D513" s="14"/>
+      <c r="E513" s="14"/>
+      <c r="F513" s="14"/>
+      <c r="G513" s="14"/>
+      <c r="H513" s="14"/>
+      <c r="I513" s="14"/>
       <c r="J513" s="3"/>
       <c r="K513" s="11"/>
       <c r="L513" s="4"/>
@@ -20047,15 +20209,15 @@
       <c r="Y513" s="4"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
-      <c r="A514" s="16"/>
-      <c r="B514" s="16"/>
-      <c r="C514" s="15"/>
-      <c r="D514" s="15"/>
-      <c r="E514" s="15"/>
-      <c r="F514" s="15"/>
-      <c r="G514" s="15"/>
-      <c r="H514" s="15"/>
-      <c r="I514" s="15"/>
+      <c r="A514" s="15"/>
+      <c r="B514" s="15"/>
+      <c r="C514" s="14"/>
+      <c r="D514" s="14"/>
+      <c r="E514" s="14"/>
+      <c r="F514" s="14"/>
+      <c r="G514" s="14"/>
+      <c r="H514" s="14"/>
+      <c r="I514" s="14"/>
       <c r="J514" s="3"/>
       <c r="K514" s="11"/>
       <c r="L514" s="4"/>
@@ -20074,15 +20236,15 @@
       <c r="Y514" s="4"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="A515" s="16"/>
-      <c r="B515" s="16"/>
-      <c r="C515" s="15"/>
-      <c r="D515" s="15"/>
-      <c r="E515" s="15"/>
-      <c r="F515" s="15"/>
-      <c r="G515" s="15"/>
-      <c r="H515" s="15"/>
-      <c r="I515" s="15"/>
+      <c r="A515" s="15"/>
+      <c r="B515" s="15"/>
+      <c r="C515" s="14"/>
+      <c r="D515" s="14"/>
+      <c r="E515" s="14"/>
+      <c r="F515" s="14"/>
+      <c r="G515" s="14"/>
+      <c r="H515" s="14"/>
+      <c r="I515" s="14"/>
       <c r="J515" s="3"/>
       <c r="K515" s="11"/>
       <c r="L515" s="4"/>
@@ -20101,15 +20263,15 @@
       <c r="Y515" s="4"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="A516" s="16"/>
-      <c r="B516" s="16"/>
-      <c r="C516" s="15"/>
-      <c r="D516" s="15"/>
-      <c r="E516" s="15"/>
-      <c r="F516" s="15"/>
-      <c r="G516" s="15"/>
-      <c r="H516" s="15"/>
-      <c r="I516" s="15"/>
+      <c r="A516" s="15"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="14"/>
+      <c r="D516" s="14"/>
+      <c r="E516" s="14"/>
+      <c r="F516" s="14"/>
+      <c r="G516" s="14"/>
+      <c r="H516" s="14"/>
+      <c r="I516" s="14"/>
       <c r="J516" s="3"/>
       <c r="K516" s="11"/>
       <c r="L516" s="4"/>
@@ -20128,15 +20290,15 @@
       <c r="Y516" s="4"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
-      <c r="A517" s="16"/>
-      <c r="B517" s="16"/>
-      <c r="C517" s="15"/>
-      <c r="D517" s="15"/>
-      <c r="E517" s="15"/>
-      <c r="F517" s="15"/>
-      <c r="G517" s="15"/>
-      <c r="H517" s="15"/>
-      <c r="I517" s="15"/>
+      <c r="A517" s="15"/>
+      <c r="B517" s="15"/>
+      <c r="C517" s="14"/>
+      <c r="D517" s="14"/>
+      <c r="E517" s="14"/>
+      <c r="F517" s="14"/>
+      <c r="G517" s="14"/>
+      <c r="H517" s="14"/>
+      <c r="I517" s="14"/>
       <c r="J517" s="3"/>
       <c r="K517" s="11"/>
       <c r="L517" s="4"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -5399,7 +5399,7 @@
         <v>9.1</v>
       </c>
       <c r="J100" s="4">
-        <f t="shared" ref="J100:J266" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
+        <f t="shared" ref="J100:J269" si="2">sum(100-(E100+F100+G100+H100+I100+K100))</f>
         <v>2.2</v>
       </c>
       <c r="K100" s="12">
@@ -13721,17 +13721,40 @@
       <c r="Y266" s="5"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="A267" s="14"/>
-      <c r="B267" s="14"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="15"/>
-      <c r="I267" s="15"/>
-      <c r="J267" s="4"/>
-      <c r="K267" s="12"/>
+      <c r="A267" s="14">
+        <v>45814.0</v>
+      </c>
+      <c r="B267" s="14">
+        <v>45816.0</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="F267" s="15">
+        <v>33.0</v>
+      </c>
+      <c r="G267" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="H267" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="I267" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="J267" s="4">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="K267" s="12">
+        <v>4.2</v>
+      </c>
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
       <c r="N267" s="5"/>
@@ -13748,17 +13771,40 @@
       <c r="Y267" s="5"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="A268" s="14"/>
-      <c r="B268" s="14"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="15"/>
-      <c r="E268" s="15"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="15"/>
-      <c r="I268" s="15"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="12"/>
+      <c r="A268" s="14">
+        <v>45817.0</v>
+      </c>
+      <c r="B268" s="14">
+        <v>45818.0</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="F268" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="G268" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="H268" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="I268" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="J268" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K268" s="12">
+        <v>10.0</v>
+      </c>
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
       <c r="N268" s="5"/>
@@ -13775,17 +13821,40 @@
       <c r="Y268" s="5"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="A269" s="14"/>
-      <c r="B269" s="14"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="15"/>
-      <c r="I269" s="15"/>
-      <c r="J269" s="4"/>
-      <c r="K269" s="12"/>
+      <c r="A269" s="14">
+        <v>45817.0</v>
+      </c>
+      <c r="B269" s="14">
+        <v>45820.0</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="15">
+        <v>28.8</v>
+      </c>
+      <c r="F269" s="15">
+        <v>28.8</v>
+      </c>
+      <c r="G269" s="15">
+        <v>5.1</v>
+      </c>
+      <c r="H269" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="I269" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="J269" s="4">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+      <c r="K269" s="12">
+        <v>5.0</v>
+      </c>
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
       <c r="N269" s="5"/>

--- a/polldata_2023.xlsx
+++ b/polldata_2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="29">
   <si>
     <t>startDate</t>
   </si>
@@ -13871,17 +13871,37 @@
       <c r="Y269" s="5"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="A270" s="14"/>
-      <c r="B270" s="14"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="15"/>
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="15"/>
-      <c r="I270" s="15"/>
+      <c r="A270" s="14">
+        <v>45820.0</v>
+      </c>
+      <c r="B270" s="14">
+        <v>45822.0</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" s="15">
+        <v>27.9</v>
+      </c>
+      <c r="F270" s="15">
+        <v>28.8</v>
+      </c>
+      <c r="G270" s="15">
+        <v>6.9</v>
+      </c>
+      <c r="H270" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="I270" s="15">
+        <v>3.1</v>
+      </c>
       <c r="J270" s="4"/>
-      <c r="K270" s="12"/>
+      <c r="K270" s="12">
+        <v>7.0</v>
+      </c>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
       <c r="N270" s="5"/>
@@ -13898,15 +13918,33 @@
       <c r="Y270" s="5"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="A271" s="14"/>
-      <c r="B271" s="14"/>
-      <c r="C271" s="15"/>
-      <c r="D271" s="15"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="15"/>
-      <c r="I271" s="15"/>
+      <c r="A271" s="14">
+        <v>45831.0</v>
+      </c>
+      <c r="B271" s="14">
+        <v>45832.0</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" s="15">
+        <v>30.5</v>
+      </c>
+      <c r="F271" s="15">
+        <v>25.8</v>
+      </c>
+      <c r="G271" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="H271" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="I271" s="15">
+        <v>16.8</v>
+      </c>
       <c r="J271" s="4"/>
       <c r="K271" s="12"/>
       <c r="L271" s="5"/>
